--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c106_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c106_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3092" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6184" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -332,10 +344,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -379,28 +391,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="A9" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="2">
+      <c r="C9" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="2">
+      <c r="F9" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="2">
+      <c r="G9" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="2">
+      <c r="H9" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -425,28 +437,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="2">
+      <c r="D11" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="2">
+      <c r="I11" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -592,10 +604,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="J16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -639,28 +651,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="2">
+      <c r="A18" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="2">
+      <c r="C18" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -685,28 +697,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="2">
+      <c r="D20" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="2">
+      <c r="I20" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -765,10 +777,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="2" t="s">
+      <c r="J22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -812,28 +824,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="A24" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="2">
+      <c r="C24" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -858,28 +870,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="2">
+      <c r="D26" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="2">
+      <c r="I26" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -996,10 +1008,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1043,28 +1055,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="2">
+      <c r="A32" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="2">
+      <c r="C32" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1089,28 +1101,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="2">
+      <c r="C34" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="2">
+      <c r="D34" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="2">
+      <c r="I34" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1169,10 +1181,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1216,28 +1228,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="2">
+      <c r="C38" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1262,28 +1274,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="2">
+      <c r="I40" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1342,10 +1354,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="2" t="s">
+      <c r="J42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1389,28 +1401,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="2">
+      <c r="A44" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s" s="2">
+      <c r="C44" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1435,28 +1447,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="2">
+      <c r="C46" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="2">
+      <c r="D46" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="2">
+      <c r="I46" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1515,10 +1527,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="2" t="s">
+      <c r="J48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1562,28 +1574,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="2">
+      <c r="A50" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="2">
+      <c r="C50" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1608,28 +1620,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="2">
+      <c r="C52" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="2">
+      <c r="D52" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="2">
+      <c r="I52" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1688,10 +1700,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="2" t="s">
+      <c r="J54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1735,28 +1747,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="2">
+      <c r="A56" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="2">
+      <c r="C56" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1781,28 +1793,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="2">
+      <c r="C58" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="2">
+      <c r="D58" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="2">
+      <c r="I58" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1919,10 +1931,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K62" s="2" t="s">
+      <c r="J62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -1966,28 +1978,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="2">
+      <c r="A64" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s" s="2">
+      <c r="C64" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2012,28 +2024,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="2">
+      <c r="C66" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="2">
+      <c r="D66" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="2">
+      <c r="I66" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2092,10 +2104,10 @@
       <c r="I68">
         <f>((C68-C67)^2+(D68- D67)^2)^.5</f>
       </c>
-      <c r="J68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K68" s="2" t="s">
+      <c r="J68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L68" t="n">
@@ -2139,28 +2151,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="2">
+      <c r="A70" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C70" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s" s="2">
+      <c r="C70" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2185,28 +2197,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C72" t="s" s="2">
+      <c r="C72" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D72" t="s" s="2">
+      <c r="D72" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I72" t="s" s="2">
+      <c r="I72" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2265,10 +2277,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="2" t="s">
+      <c r="J74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2312,28 +2324,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
+      <c r="A76" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="2">
+      <c r="C76" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2358,28 +2370,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="2">
+      <c r="I78" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2496,10 +2508,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="2" t="s">
+      <c r="J82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2543,28 +2555,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="2">
+      <c r="A84" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s" s="2">
+      <c r="C84" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2589,28 +2601,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="C86" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="2">
+      <c r="D86" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="2">
+      <c r="I86" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2669,10 +2681,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="2" t="s">
+      <c r="J88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2716,28 +2728,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="2">
+      <c r="A90" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="2">
+      <c r="C90" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2762,28 +2774,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="2">
+      <c r="C92" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="2">
+      <c r="D92" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="2">
+      <c r="I92" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2842,10 +2854,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K94" s="2" t="s">
+      <c r="J94" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2889,28 +2901,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="2">
+      <c r="A96" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s" s="2">
+      <c r="C96" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2935,28 +2947,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="2">
+      <c r="I98" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3015,10 +3027,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K100" s="2" t="s">
+      <c r="J100" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3062,28 +3074,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="2">
+      <c r="A102" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D102" t="s" s="2">
+      <c r="C102" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3108,28 +3120,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="2">
+      <c r="C104" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="2">
+      <c r="D104" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="2">
+      <c r="I104" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3188,10 +3200,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="2" t="s">
+      <c r="J106" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3235,28 +3247,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="2">
+      <c r="A108" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="2">
+      <c r="C108" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3281,28 +3293,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="2">
+      <c r="I110" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3361,10 +3373,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="2" t="s">
+      <c r="J112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3408,28 +3420,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="2">
+      <c r="A114" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="2">
+      <c r="C114" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3454,28 +3466,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="2">
+      <c r="I116" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3534,10 +3546,10 @@
       <c r="I118">
         <f>((C118-C117)^2+(D118- D117)^2)^.5</f>
       </c>
-      <c r="J118" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K118" s="2" t="s">
+      <c r="J118" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K118" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L118" t="n">
@@ -3581,28 +3593,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="2">
+      <c r="A120" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C120" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D120" t="s" s="2">
+      <c r="C120" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3627,28 +3639,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C122" t="s" s="2">
+      <c r="C122" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D122" t="s" s="2">
+      <c r="D122" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I122" t="s" s="2">
+      <c r="I122" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3765,10 +3777,10 @@
       <c r="I126">
         <f>((C126-C125)^2+(D126- D125)^2)^.5</f>
       </c>
-      <c r="J126" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K126" s="2" t="s">
+      <c r="J126" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K126" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L126" t="n">
@@ -3812,28 +3824,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="2">
+      <c r="A128" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C128" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D128" t="s" s="2">
+      <c r="C128" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3858,28 +3870,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C130" t="s" s="2">
+      <c r="C130" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D130" t="s" s="2">
+      <c r="D130" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I130" t="s" s="2">
+      <c r="I130" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3938,10 +3950,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K132" s="2" t="s">
+      <c r="J132" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K132" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -3985,28 +3997,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="2">
+      <c r="A134" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D134" t="s" s="2">
+      <c r="C134" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4031,28 +4043,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="2">
+      <c r="C136" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="2">
+      <c r="D136" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="2">
+      <c r="I136" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4111,10 +4123,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="2" t="s">
+      <c r="J138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4158,28 +4170,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="2">
+      <c r="C140" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4204,28 +4216,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4284,10 +4296,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="2" t="s">
+      <c r="J144" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4331,28 +4343,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="2">
+      <c r="A146" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="2">
+      <c r="C146" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4377,28 +4389,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="C148" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="2">
+      <c r="D148" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="2">
+      <c r="I148" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4457,10 +4469,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="2" t="s">
+      <c r="J150" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4504,28 +4516,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="2">
+      <c r="A152" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="2">
+      <c r="C152" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4550,28 +4562,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="2">
+      <c r="I154" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4630,10 +4642,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="2" t="s">
+      <c r="J156" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4677,28 +4689,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="2">
+      <c r="A158" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="2">
+      <c r="C158" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4723,28 +4735,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="2">
+      <c r="I160" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4803,10 +4815,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="2" t="s">
+      <c r="J162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4850,28 +4862,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="2">
+      <c r="C164" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4896,28 +4908,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5005,10 +5017,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="2" t="s">
+      <c r="J169" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5052,28 +5064,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="2">
+      <c r="C171" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5098,28 +5110,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5178,10 +5190,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K175" s="2" t="s">
+      <c r="J175" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K175" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5225,28 +5237,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="2">
+      <c r="A177" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D177" t="s" s="2">
+      <c r="C177" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5271,28 +5283,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="2">
+      <c r="C179" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="2">
+      <c r="D179" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="2">
+      <c r="I179" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5380,10 +5392,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="2" t="s">
+      <c r="J182" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5427,28 +5439,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="2">
+      <c r="A184" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="2">
+      <c r="C184" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5473,28 +5485,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="2">
+      <c r="C186" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="2">
+      <c r="D186" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="2">
+      <c r="I186" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5553,10 +5565,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="2" t="s">
+      <c r="J188" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5600,28 +5612,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="2">
+      <c r="A190" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="2">
+      <c r="C190" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5646,28 +5658,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="2">
+      <c r="C192" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="2">
+      <c r="D192" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="2">
+      <c r="I192" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5726,10 +5738,10 @@
       <c r="I194">
         <f>((C194-C193)^2+(D194- D193)^2)^.5</f>
       </c>
-      <c r="J194" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K194" s="2" t="s">
+      <c r="J194" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K194" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L194" t="n">
@@ -5773,28 +5785,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="2">
+      <c r="A196" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C196" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D196" t="s" s="2">
+      <c r="C196" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5819,28 +5831,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C198" t="s" s="2">
+      <c r="C198" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D198" t="s" s="2">
+      <c r="D198" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I198" t="s" s="2">
+      <c r="I198" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5899,10 +5911,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="2" t="s">
+      <c r="J200" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -5946,28 +5958,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="2">
+      <c r="A202" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="2">
+      <c r="C202" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5992,28 +6004,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="2">
+      <c r="C204" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="2">
+      <c r="D204" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="2">
+      <c r="I204" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6072,10 +6084,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="2" t="s">
+      <c r="J206" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
@@ -6119,28 +6131,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s" s="2">
+      <c r="A208" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C208" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D208" t="s" s="2">
+      <c r="C208" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6165,28 +6177,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C210" t="s" s="2">
+      <c r="C210" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D210" t="s" s="2">
+      <c r="D210" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I210" t="s" s="2">
+      <c r="I210" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6245,10 +6257,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="2" t="s">
+      <c r="J212" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6292,28 +6304,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="2">
+      <c r="A214" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="2">
+      <c r="C214" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6338,28 +6350,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="2">
+      <c r="C216" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="2">
+      <c r="D216" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="2">
+      <c r="I216" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6418,10 +6430,10 @@
       <c r="I218">
         <f>((C218-C217)^2+(D218- D217)^2)^.5</f>
       </c>
-      <c r="J218" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K218" s="2" t="s">
+      <c r="J218" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K218" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L218" t="n">
@@ -6465,28 +6477,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s" s="2">
+      <c r="A220" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C220" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D220" t="s" s="2">
+      <c r="C220" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6511,28 +6523,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C222" t="s" s="2">
+      <c r="C222" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D222" t="s" s="2">
+      <c r="D222" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I222" t="s" s="2">
+      <c r="I222" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6591,10 +6603,10 @@
       <c r="I224">
         <f>((C224-C223)^2+(D224- D223)^2)^.5</f>
       </c>
-      <c r="J224" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K224" s="2" t="s">
+      <c r="J224" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K224" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L224" t="n">
@@ -6638,28 +6650,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s" s="2">
+      <c r="A226" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C226" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D226" t="s" s="2">
+      <c r="C226" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6684,28 +6696,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C228" t="s" s="2">
+      <c r="C228" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D228" t="s" s="2">
+      <c r="D228" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I228" t="s" s="2">
+      <c r="I228" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6764,10 +6776,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="2" t="s">
+      <c r="J230" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6811,28 +6823,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="2">
+      <c r="A232" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="2">
+      <c r="C232" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6857,28 +6869,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="2">
+      <c r="C234" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="2">
+      <c r="D234" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="2">
+      <c r="I234" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6937,10 +6949,10 @@
       <c r="I236">
         <f>((C236-C235)^2+(D236- D235)^2)^.5</f>
       </c>
-      <c r="J236" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K236" s="2" t="s">
+      <c r="J236" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L236" t="n">
@@ -6984,28 +6996,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="s" s="2">
+      <c r="A238" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C238" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D238" t="s" s="2">
+      <c r="C238" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D238" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7030,28 +7042,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C240" t="s" s="2">
+      <c r="C240" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D240" t="s" s="2">
+      <c r="D240" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I240" t="s" s="2">
+      <c r="I240" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7110,10 +7122,10 @@
       <c r="I242">
         <f>((C242-C241)^2+(D242- D241)^2)^.5</f>
       </c>
-      <c r="J242" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K242" s="2" t="s">
+      <c r="J242" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K242" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L242" t="n">
@@ -7157,28 +7169,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="2">
+      <c r="A244" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C244" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D244" t="s" s="2">
+      <c r="C244" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7203,28 +7215,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C246" t="s" s="2">
+      <c r="C246" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D246" t="s" s="2">
+      <c r="D246" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I246" t="s" s="2">
+      <c r="I246" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7283,10 +7295,10 @@
       <c r="I248">
         <f>((C248-C247)^2+(D248- D247)^2)^.5</f>
       </c>
-      <c r="J248" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K248" s="2" t="s">
+      <c r="J248" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K248" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L248" t="n">
@@ -7330,28 +7342,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="s" s="2">
+      <c r="A250" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B250" t="s" s="2">
+      <c r="B250" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C250" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D250" t="s" s="2">
+      <c r="C250" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D250" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E250" t="s" s="2">
+      <c r="E250" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F250" t="s" s="2">
+      <c r="F250" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G250" t="s" s="2">
+      <c r="G250" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H250" t="s" s="2">
+      <c r="H250" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7376,28 +7388,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C252" t="s" s="2">
+      <c r="C252" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D252" t="s" s="2">
+      <c r="D252" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I252" t="s" s="2">
+      <c r="I252" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7485,10 +7497,10 @@
       <c r="I255">
         <f>((C255-C254)^2+(D255- D254)^2)^.5</f>
       </c>
-      <c r="J255" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K255" s="2" t="s">
+      <c r="J255" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K255" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L255" t="n">
@@ -7532,28 +7544,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="s" s="2">
+      <c r="A257" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B257" t="s" s="2">
+      <c r="B257" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C257" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D257" t="s" s="2">
+      <c r="C257" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D257" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E257" t="s" s="2">
+      <c r="E257" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F257" t="s" s="2">
+      <c r="F257" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G257" t="s" s="2">
+      <c r="G257" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H257" t="s" s="2">
+      <c r="H257" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7578,28 +7590,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="B259" t="s" s="2">
+      <c r="B259" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C259" t="s" s="2">
+      <c r="C259" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D259" t="s" s="2">
+      <c r="D259" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E259" t="s" s="2">
+      <c r="E259" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F259" t="s" s="2">
+      <c r="F259" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G259" t="s" s="2">
+      <c r="G259" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H259" t="s" s="2">
+      <c r="H259" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I259" t="s" s="2">
+      <c r="I259" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7658,10 +7670,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="2" t="s">
+      <c r="J261" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
@@ -7705,28 +7717,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="2">
+      <c r="A263" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B263" t="s" s="2">
+      <c r="B263" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C263" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D263" t="s" s="2">
+      <c r="C263" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E263" t="s" s="2">
+      <c r="E263" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F263" t="s" s="2">
+      <c r="F263" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G263" t="s" s="2">
+      <c r="G263" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H263" t="s" s="2">
+      <c r="H263" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7751,28 +7763,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="B265" t="s" s="2">
+      <c r="B265" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C265" t="s" s="2">
+      <c r="C265" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D265" t="s" s="2">
+      <c r="D265" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E265" t="s" s="2">
+      <c r="E265" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F265" t="s" s="2">
+      <c r="F265" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G265" t="s" s="2">
+      <c r="G265" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H265" t="s" s="2">
+      <c r="H265" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I265" t="s" s="2">
+      <c r="I265" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7831,10 +7843,10 @@
       <c r="I267">
         <f>((C267-C266)^2+(D267- D266)^2)^.5</f>
       </c>
-      <c r="J267" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K267" s="2" t="s">
+      <c r="J267" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K267" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L267" t="n">
@@ -7878,28 +7890,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="s" s="2">
+      <c r="A269" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B269" t="s" s="2">
+      <c r="B269" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C269" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D269" t="s" s="2">
+      <c r="C269" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E269" t="s" s="2">
+      <c r="E269" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F269" t="s" s="2">
+      <c r="F269" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G269" t="s" s="2">
+      <c r="G269" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H269" t="s" s="2">
+      <c r="H269" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7924,28 +7936,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="B271" t="s" s="2">
+      <c r="B271" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C271" t="s" s="2">
+      <c r="C271" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D271" t="s" s="2">
+      <c r="D271" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E271" t="s" s="2">
+      <c r="E271" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F271" t="s" s="2">
+      <c r="F271" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G271" t="s" s="2">
+      <c r="G271" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H271" t="s" s="2">
+      <c r="H271" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I271" t="s" s="2">
+      <c r="I271" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8004,10 +8016,10 @@
       <c r="I273">
         <f>((C273-C272)^2+(D273- D272)^2)^.5</f>
       </c>
-      <c r="J273" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K273" s="2" t="s">
+      <c r="J273" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K273" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L273" t="n">
@@ -8051,28 +8063,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="s" s="2">
+      <c r="A275" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B275" t="s" s="2">
+      <c r="B275" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C275" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D275" t="s" s="2">
+      <c r="C275" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D275" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E275" t="s" s="2">
+      <c r="E275" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F275" t="s" s="2">
+      <c r="F275" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G275" t="s" s="2">
+      <c r="G275" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H275" t="s" s="2">
+      <c r="H275" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8097,28 +8109,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="B277" t="s" s="2">
+      <c r="B277" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C277" t="s" s="2">
+      <c r="C277" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D277" t="s" s="2">
+      <c r="D277" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E277" t="s" s="2">
+      <c r="E277" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F277" t="s" s="2">
+      <c r="F277" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G277" t="s" s="2">
+      <c r="G277" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H277" t="s" s="2">
+      <c r="H277" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I277" t="s" s="2">
+      <c r="I277" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8177,10 +8189,10 @@
       <c r="I279">
         <f>((C279-C278)^2+(D279- D278)^2)^.5</f>
       </c>
-      <c r="J279" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K279" s="2" t="s">
+      <c r="J279" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K279" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L279" t="n">
@@ -8224,28 +8236,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="s" s="2">
+      <c r="A281" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B281" t="s" s="2">
+      <c r="B281" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C281" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D281" t="s" s="2">
+      <c r="C281" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D281" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E281" t="s" s="2">
+      <c r="E281" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F281" t="s" s="2">
+      <c r="F281" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G281" t="s" s="2">
+      <c r="G281" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H281" t="s" s="2">
+      <c r="H281" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8270,28 +8282,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="B283" t="s" s="2">
+      <c r="B283" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C283" t="s" s="2">
+      <c r="C283" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D283" t="s" s="2">
+      <c r="D283" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E283" t="s" s="2">
+      <c r="E283" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F283" t="s" s="2">
+      <c r="F283" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G283" t="s" s="2">
+      <c r="G283" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H283" t="s" s="2">
+      <c r="H283" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I283" t="s" s="2">
+      <c r="I283" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8350,10 +8362,10 @@
       <c r="I285">
         <f>((C285-C284)^2+(D285- D284)^2)^.5</f>
       </c>
-      <c r="J285" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K285" s="2" t="s">
+      <c r="J285" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K285" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L285" t="n">
@@ -8397,28 +8409,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="s" s="2">
+      <c r="A287" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B287" t="s" s="2">
+      <c r="B287" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C287" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D287" t="s" s="2">
+      <c r="C287" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D287" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E287" t="s" s="2">
+      <c r="E287" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F287" t="s" s="2">
+      <c r="F287" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G287" t="s" s="2">
+      <c r="G287" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H287" t="s" s="2">
+      <c r="H287" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8443,28 +8455,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="B289" t="s" s="2">
+      <c r="B289" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C289" t="s" s="2">
+      <c r="C289" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D289" t="s" s="2">
+      <c r="D289" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E289" t="s" s="2">
+      <c r="E289" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F289" t="s" s="2">
+      <c r="F289" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G289" t="s" s="2">
+      <c r="G289" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H289" t="s" s="2">
+      <c r="H289" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I289" t="s" s="2">
+      <c r="I289" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8523,10 +8535,10 @@
       <c r="I291">
         <f>((C291-C290)^2+(D291- D290)^2)^.5</f>
       </c>
-      <c r="J291" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K291" s="2" t="s">
+      <c r="J291" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K291" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L291" t="n">
@@ -8570,28 +8582,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="s" s="2">
+      <c r="A293" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B293" t="s" s="2">
+      <c r="B293" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C293" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D293" t="s" s="2">
+      <c r="C293" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D293" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E293" t="s" s="2">
+      <c r="E293" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F293" t="s" s="2">
+      <c r="F293" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G293" t="s" s="2">
+      <c r="G293" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H293" t="s" s="2">
+      <c r="H293" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8616,28 +8628,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="B295" t="s" s="2">
+      <c r="B295" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C295" t="s" s="2">
+      <c r="C295" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D295" t="s" s="2">
+      <c r="D295" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E295" t="s" s="2">
+      <c r="E295" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F295" t="s" s="2">
+      <c r="F295" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G295" t="s" s="2">
+      <c r="G295" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H295" t="s" s="2">
+      <c r="H295" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I295" t="s" s="2">
+      <c r="I295" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8696,10 +8708,10 @@
       <c r="I297">
         <f>((C297-C296)^2+(D297- D296)^2)^.5</f>
       </c>
-      <c r="J297" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K297" s="2" t="s">
+      <c r="J297" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K297" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L297" t="n">
@@ -8743,28 +8755,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="s" s="2">
+      <c r="A299" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B299" t="s" s="2">
+      <c r="B299" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C299" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D299" t="s" s="2">
+      <c r="C299" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D299" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E299" t="s" s="2">
+      <c r="E299" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F299" t="s" s="2">
+      <c r="F299" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G299" t="s" s="2">
+      <c r="G299" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H299" t="s" s="2">
+      <c r="H299" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8789,28 +8801,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="B301" t="s" s="2">
+      <c r="B301" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C301" t="s" s="2">
+      <c r="C301" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D301" t="s" s="2">
+      <c r="D301" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E301" t="s" s="2">
+      <c r="E301" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F301" t="s" s="2">
+      <c r="F301" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G301" t="s" s="2">
+      <c r="G301" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H301" t="s" s="2">
+      <c r="H301" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I301" t="s" s="2">
+      <c r="I301" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8869,10 +8881,10 @@
       <c r="I303">
         <f>((C303-C302)^2+(D303- D302)^2)^.5</f>
       </c>
-      <c r="J303" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K303" s="2" t="s">
+      <c r="J303" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K303" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L303" t="n">
@@ -8916,28 +8928,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="s" s="2">
+      <c r="A305" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B305" t="s" s="2">
+      <c r="B305" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C305" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D305" t="s" s="2">
+      <c r="C305" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D305" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E305" t="s" s="2">
+      <c r="E305" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F305" t="s" s="2">
+      <c r="F305" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G305" t="s" s="2">
+      <c r="G305" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H305" t="s" s="2">
+      <c r="H305" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8962,28 +8974,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="B307" t="s" s="2">
+      <c r="B307" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C307" t="s" s="2">
+      <c r="C307" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D307" t="s" s="2">
+      <c r="D307" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E307" t="s" s="2">
+      <c r="E307" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F307" t="s" s="2">
+      <c r="F307" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G307" t="s" s="2">
+      <c r="G307" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H307" t="s" s="2">
+      <c r="H307" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I307" t="s" s="2">
+      <c r="I307" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9042,10 +9054,10 @@
       <c r="I309">
         <f>((C309-C308)^2+(D309- D308)^2)^.5</f>
       </c>
-      <c r="J309" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K309" s="2" t="s">
+      <c r="J309" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K309" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L309" t="n">
@@ -9089,28 +9101,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="s" s="2">
+      <c r="A311" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B311" t="s" s="2">
+      <c r="B311" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C311" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D311" t="s" s="2">
+      <c r="C311" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D311" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E311" t="s" s="2">
+      <c r="E311" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F311" t="s" s="2">
+      <c r="F311" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G311" t="s" s="2">
+      <c r="G311" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H311" t="s" s="2">
+      <c r="H311" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9135,28 +9147,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="B313" t="s" s="2">
+      <c r="B313" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C313" t="s" s="2">
+      <c r="C313" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D313" t="s" s="2">
+      <c r="D313" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E313" t="s" s="2">
+      <c r="E313" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F313" t="s" s="2">
+      <c r="F313" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G313" t="s" s="2">
+      <c r="G313" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H313" t="s" s="2">
+      <c r="H313" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I313" t="s" s="2">
+      <c r="I313" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9215,10 +9227,10 @@
       <c r="I315">
         <f>((C315-C314)^2+(D315- D314)^2)^.5</f>
       </c>
-      <c r="J315" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K315" s="2" t="s">
+      <c r="J315" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K315" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L315" t="n">
@@ -9262,28 +9274,28 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="s" s="2">
+      <c r="A317" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B317" t="s" s="2">
+      <c r="B317" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C317" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D317" t="s" s="2">
+      <c r="C317" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D317" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E317" t="s" s="2">
+      <c r="E317" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F317" t="s" s="2">
+      <c r="F317" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G317" t="s" s="2">
+      <c r="G317" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H317" t="s" s="2">
+      <c r="H317" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9308,28 +9320,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="B319" t="s" s="2">
+      <c r="B319" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C319" t="s" s="2">
+      <c r="C319" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D319" t="s" s="2">
+      <c r="D319" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E319" t="s" s="2">
+      <c r="E319" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F319" t="s" s="2">
+      <c r="F319" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G319" t="s" s="2">
+      <c r="G319" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H319" t="s" s="2">
+      <c r="H319" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I319" t="s" s="2">
+      <c r="I319" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9388,10 +9400,10 @@
       <c r="I321">
         <f>((C321-C320)^2+(D321- D320)^2)^.5</f>
       </c>
-      <c r="J321" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K321" s="2" t="s">
+      <c r="J321" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K321" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L321" t="n">
@@ -9435,28 +9447,28 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="s" s="2">
+      <c r="A323" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B323" t="s" s="2">
+      <c r="B323" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C323" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D323" t="s" s="2">
+      <c r="C323" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D323" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E323" t="s" s="2">
+      <c r="E323" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F323" t="s" s="2">
+      <c r="F323" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G323" t="s" s="2">
+      <c r="G323" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H323" t="s" s="2">
+      <c r="H323" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9481,28 +9493,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="B325" t="s" s="2">
+      <c r="B325" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C325" t="s" s="2">
+      <c r="C325" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D325" t="s" s="2">
+      <c r="D325" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E325" t="s" s="2">
+      <c r="E325" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F325" t="s" s="2">
+      <c r="F325" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G325" t="s" s="2">
+      <c r="G325" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H325" t="s" s="2">
+      <c r="H325" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I325" t="s" s="2">
+      <c r="I325" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9561,10 +9573,10 @@
       <c r="I327">
         <f>((C327-C326)^2+(D327- D326)^2)^.5</f>
       </c>
-      <c r="J327" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K327" s="2" t="s">
+      <c r="J327" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K327" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L327" t="n">
@@ -9608,28 +9620,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="s" s="2">
+      <c r="A329" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B329" t="s" s="2">
+      <c r="B329" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C329" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D329" t="s" s="2">
+      <c r="C329" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D329" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E329" t="s" s="2">
+      <c r="E329" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F329" t="s" s="2">
+      <c r="F329" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G329" t="s" s="2">
+      <c r="G329" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H329" t="s" s="2">
+      <c r="H329" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9654,28 +9666,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="B331" t="s" s="2">
+      <c r="B331" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C331" t="s" s="2">
+      <c r="C331" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D331" t="s" s="2">
+      <c r="D331" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E331" t="s" s="2">
+      <c r="E331" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F331" t="s" s="2">
+      <c r="F331" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G331" t="s" s="2">
+      <c r="G331" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H331" t="s" s="2">
+      <c r="H331" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I331" t="s" s="2">
+      <c r="I331" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9734,10 +9746,10 @@
       <c r="I333">
         <f>((C333-C332)^2+(D333- D332)^2)^.5</f>
       </c>
-      <c r="J333" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K333" s="2" t="s">
+      <c r="J333" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K333" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L333" t="n">
@@ -9781,28 +9793,28 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="s" s="2">
+      <c r="A335" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B335" t="s" s="2">
+      <c r="B335" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C335" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D335" t="s" s="2">
+      <c r="C335" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D335" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E335" t="s" s="2">
+      <c r="E335" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F335" t="s" s="2">
+      <c r="F335" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G335" t="s" s="2">
+      <c r="G335" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H335" t="s" s="2">
+      <c r="H335" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9827,28 +9839,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="B337" t="s" s="2">
+      <c r="B337" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C337" t="s" s="2">
+      <c r="C337" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D337" t="s" s="2">
+      <c r="D337" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E337" t="s" s="2">
+      <c r="E337" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F337" t="s" s="2">
+      <c r="F337" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G337" t="s" s="2">
+      <c r="G337" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H337" t="s" s="2">
+      <c r="H337" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I337" t="s" s="2">
+      <c r="I337" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9907,10 +9919,10 @@
       <c r="I339">
         <f>((C339-C338)^2+(D339- D338)^2)^.5</f>
       </c>
-      <c r="J339" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K339" s="2" t="s">
+      <c r="J339" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K339" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L339" t="n">
@@ -9954,28 +9966,28 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="s" s="2">
+      <c r="A341" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B341" t="s" s="2">
+      <c r="B341" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C341" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D341" t="s" s="2">
+      <c r="C341" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D341" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E341" t="s" s="2">
+      <c r="E341" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F341" t="s" s="2">
+      <c r="F341" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G341" t="s" s="2">
+      <c r="G341" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H341" t="s" s="2">
+      <c r="H341" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10000,28 +10012,28 @@
       </c>
     </row>
     <row r="343">
-      <c r="B343" t="s" s="2">
+      <c r="B343" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C343" t="s" s="2">
+      <c r="C343" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D343" t="s" s="2">
+      <c r="D343" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E343" t="s" s="2">
+      <c r="E343" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F343" t="s" s="2">
+      <c r="F343" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G343" t="s" s="2">
+      <c r="G343" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H343" t="s" s="2">
+      <c r="H343" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I343" t="s" s="2">
+      <c r="I343" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10080,10 +10092,10 @@
       <c r="I345">
         <f>((C345-C344)^2+(D345- D344)^2)^.5</f>
       </c>
-      <c r="J345" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K345" s="2" t="s">
+      <c r="J345" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K345" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L345" t="n">
@@ -10127,28 +10139,28 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="s" s="2">
+      <c r="A347" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B347" t="s" s="2">
+      <c r="B347" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C347" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D347" t="s" s="2">
+      <c r="C347" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D347" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E347" t="s" s="2">
+      <c r="E347" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F347" t="s" s="2">
+      <c r="F347" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G347" t="s" s="2">
+      <c r="G347" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H347" t="s" s="2">
+      <c r="H347" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10173,28 +10185,28 @@
       </c>
     </row>
     <row r="349">
-      <c r="B349" t="s" s="2">
+      <c r="B349" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C349" t="s" s="2">
+      <c r="C349" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D349" t="s" s="2">
+      <c r="D349" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E349" t="s" s="2">
+      <c r="E349" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F349" t="s" s="2">
+      <c r="F349" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G349" t="s" s="2">
+      <c r="G349" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H349" t="s" s="2">
+      <c r="H349" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I349" t="s" s="2">
+      <c r="I349" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10253,10 +10265,10 @@
       <c r="I351">
         <f>((C351-C350)^2+(D351- D350)^2)^.5</f>
       </c>
-      <c r="J351" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K351" s="2" t="s">
+      <c r="J351" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K351" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L351" t="n">
@@ -10300,28 +10312,28 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="s" s="2">
+      <c r="A353" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B353" t="s" s="2">
+      <c r="B353" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C353" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D353" t="s" s="2">
+      <c r="C353" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D353" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E353" t="s" s="2">
+      <c r="E353" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F353" t="s" s="2">
+      <c r="F353" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G353" t="s" s="2">
+      <c r="G353" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H353" t="s" s="2">
+      <c r="H353" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10346,28 +10358,28 @@
       </c>
     </row>
     <row r="355">
-      <c r="B355" t="s" s="2">
+      <c r="B355" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C355" t="s" s="2">
+      <c r="C355" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D355" t="s" s="2">
+      <c r="D355" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E355" t="s" s="2">
+      <c r="E355" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F355" t="s" s="2">
+      <c r="F355" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G355" t="s" s="2">
+      <c r="G355" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H355" t="s" s="2">
+      <c r="H355" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I355" t="s" s="2">
+      <c r="I355" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10426,10 +10438,10 @@
       <c r="I357">
         <f>((C357-C356)^2+(D357- D356)^2)^.5</f>
       </c>
-      <c r="J357" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K357" s="2" t="s">
+      <c r="J357" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K357" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L357" t="n">
@@ -10473,28 +10485,28 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" t="s" s="2">
+      <c r="A359" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B359" t="s" s="2">
+      <c r="B359" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C359" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D359" t="s" s="2">
+      <c r="C359" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D359" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E359" t="s" s="2">
+      <c r="E359" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F359" t="s" s="2">
+      <c r="F359" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G359" t="s" s="2">
+      <c r="G359" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H359" t="s" s="2">
+      <c r="H359" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10519,28 +10531,28 @@
       </c>
     </row>
     <row r="361">
-      <c r="B361" t="s" s="2">
+      <c r="B361" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C361" t="s" s="2">
+      <c r="C361" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D361" t="s" s="2">
+      <c r="D361" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E361" t="s" s="2">
+      <c r="E361" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F361" t="s" s="2">
+      <c r="F361" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G361" t="s" s="2">
+      <c r="G361" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H361" t="s" s="2">
+      <c r="H361" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I361" t="s" s="2">
+      <c r="I361" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10599,10 +10611,10 @@
       <c r="I363">
         <f>((C363-C362)^2+(D363- D362)^2)^.5</f>
       </c>
-      <c r="J363" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K363" s="2" t="s">
+      <c r="J363" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K363" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L363" t="n">
@@ -10646,28 +10658,28 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="s" s="2">
+      <c r="A365" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B365" t="s" s="2">
+      <c r="B365" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C365" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D365" t="s" s="2">
+      <c r="C365" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D365" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E365" t="s" s="2">
+      <c r="E365" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F365" t="s" s="2">
+      <c r="F365" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G365" t="s" s="2">
+      <c r="G365" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H365" t="s" s="2">
+      <c r="H365" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10692,28 +10704,28 @@
       </c>
     </row>
     <row r="367">
-      <c r="B367" t="s" s="2">
+      <c r="B367" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C367" t="s" s="2">
+      <c r="C367" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D367" t="s" s="2">
+      <c r="D367" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E367" t="s" s="2">
+      <c r="E367" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F367" t="s" s="2">
+      <c r="F367" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G367" t="s" s="2">
+      <c r="G367" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H367" t="s" s="2">
+      <c r="H367" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I367" t="s" s="2">
+      <c r="I367" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10772,10 +10784,10 @@
       <c r="I369">
         <f>((C369-C368)^2+(D369- D368)^2)^.5</f>
       </c>
-      <c r="J369" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K369" s="2" t="s">
+      <c r="J369" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K369" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L369" t="n">
@@ -10819,28 +10831,28 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="s" s="2">
+      <c r="A371" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B371" t="s" s="2">
+      <c r="B371" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C371" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D371" t="s" s="2">
+      <c r="C371" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D371" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E371" t="s" s="2">
+      <c r="E371" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F371" t="s" s="2">
+      <c r="F371" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G371" t="s" s="2">
+      <c r="G371" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H371" t="s" s="2">
+      <c r="H371" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10865,28 +10877,28 @@
       </c>
     </row>
     <row r="373">
-      <c r="B373" t="s" s="2">
+      <c r="B373" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C373" t="s" s="2">
+      <c r="C373" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D373" t="s" s="2">
+      <c r="D373" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E373" t="s" s="2">
+      <c r="E373" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F373" t="s" s="2">
+      <c r="F373" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G373" t="s" s="2">
+      <c r="G373" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H373" t="s" s="2">
+      <c r="H373" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I373" t="s" s="2">
+      <c r="I373" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10945,10 +10957,10 @@
       <c r="I375">
         <f>((C375-C374)^2+(D375- D374)^2)^.5</f>
       </c>
-      <c r="J375" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K375" s="2" t="s">
+      <c r="J375" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K375" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L375" t="n">
@@ -10992,28 +11004,28 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" t="s" s="2">
+      <c r="A377" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B377" t="s" s="2">
+      <c r="B377" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C377" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D377" t="s" s="2">
+      <c r="C377" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D377" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E377" t="s" s="2">
+      <c r="E377" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F377" t="s" s="2">
+      <c r="F377" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G377" t="s" s="2">
+      <c r="G377" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H377" t="s" s="2">
+      <c r="H377" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11038,28 +11050,28 @@
       </c>
     </row>
     <row r="379">
-      <c r="B379" t="s" s="2">
+      <c r="B379" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C379" t="s" s="2">
+      <c r="C379" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D379" t="s" s="2">
+      <c r="D379" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E379" t="s" s="2">
+      <c r="E379" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F379" t="s" s="2">
+      <c r="F379" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G379" t="s" s="2">
+      <c r="G379" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H379" t="s" s="2">
+      <c r="H379" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I379" t="s" s="2">
+      <c r="I379" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11118,10 +11130,10 @@
       <c r="I381">
         <f>((C381-C380)^2+(D381- D380)^2)^.5</f>
       </c>
-      <c r="J381" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K381" s="2" t="s">
+      <c r="J381" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K381" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L381" t="n">
@@ -11165,28 +11177,28 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" t="s" s="2">
+      <c r="A383" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B383" t="s" s="2">
+      <c r="B383" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C383" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D383" t="s" s="2">
+      <c r="C383" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D383" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E383" t="s" s="2">
+      <c r="E383" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F383" t="s" s="2">
+      <c r="F383" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G383" t="s" s="2">
+      <c r="G383" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H383" t="s" s="2">
+      <c r="H383" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11211,28 +11223,28 @@
       </c>
     </row>
     <row r="385">
-      <c r="B385" t="s" s="2">
+      <c r="B385" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C385" t="s" s="2">
+      <c r="C385" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D385" t="s" s="2">
+      <c r="D385" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E385" t="s" s="2">
+      <c r="E385" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F385" t="s" s="2">
+      <c r="F385" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G385" t="s" s="2">
+      <c r="G385" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H385" t="s" s="2">
+      <c r="H385" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I385" t="s" s="2">
+      <c r="I385" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11291,10 +11303,10 @@
       <c r="I387">
         <f>((C387-C386)^2+(D387- D386)^2)^.5</f>
       </c>
-      <c r="J387" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K387" s="2" t="s">
+      <c r="J387" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K387" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L387" t="n">
@@ -11338,28 +11350,28 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" t="s" s="2">
+      <c r="A389" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B389" t="s" s="2">
+      <c r="B389" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C389" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D389" t="s" s="2">
+      <c r="C389" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D389" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E389" t="s" s="2">
+      <c r="E389" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F389" t="s" s="2">
+      <c r="F389" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G389" t="s" s="2">
+      <c r="G389" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H389" t="s" s="2">
+      <c r="H389" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11384,28 +11396,28 @@
       </c>
     </row>
     <row r="391">
-      <c r="B391" t="s" s="2">
+      <c r="B391" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C391" t="s" s="2">
+      <c r="C391" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D391" t="s" s="2">
+      <c r="D391" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E391" t="s" s="2">
+      <c r="E391" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F391" t="s" s="2">
+      <c r="F391" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G391" t="s" s="2">
+      <c r="G391" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H391" t="s" s="2">
+      <c r="H391" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I391" t="s" s="2">
+      <c r="I391" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11493,10 +11505,10 @@
       <c r="I394">
         <f>((C394-C393)^2+(D394- D393)^2)^.5</f>
       </c>
-      <c r="J394" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K394" s="2" t="s">
+      <c r="J394" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K394" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L394" t="n">
@@ -11540,28 +11552,28 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" t="s" s="2">
+      <c r="A396" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B396" t="s" s="2">
+      <c r="B396" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C396" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D396" t="s" s="2">
+      <c r="C396" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D396" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E396" t="s" s="2">
+      <c r="E396" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F396" t="s" s="2">
+      <c r="F396" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G396" t="s" s="2">
+      <c r="G396" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H396" t="s" s="2">
+      <c r="H396" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11586,28 +11598,28 @@
       </c>
     </row>
     <row r="398">
-      <c r="B398" t="s" s="2">
+      <c r="B398" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C398" t="s" s="2">
+      <c r="C398" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D398" t="s" s="2">
+      <c r="D398" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E398" t="s" s="2">
+      <c r="E398" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F398" t="s" s="2">
+      <c r="F398" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G398" t="s" s="2">
+      <c r="G398" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H398" t="s" s="2">
+      <c r="H398" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I398" t="s" s="2">
+      <c r="I398" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11666,10 +11678,10 @@
       <c r="I400">
         <f>((C400-C399)^2+(D400- D399)^2)^.5</f>
       </c>
-      <c r="J400" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K400" s="2" t="s">
+      <c r="J400" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K400" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L400" t="n">
@@ -11713,28 +11725,28 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" t="s" s="2">
+      <c r="A402" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B402" t="s" s="2">
+      <c r="B402" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C402" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D402" t="s" s="2">
+      <c r="C402" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D402" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E402" t="s" s="2">
+      <c r="E402" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F402" t="s" s="2">
+      <c r="F402" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G402" t="s" s="2">
+      <c r="G402" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H402" t="s" s="2">
+      <c r="H402" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11759,28 +11771,28 @@
       </c>
     </row>
     <row r="404">
-      <c r="B404" t="s" s="2">
+      <c r="B404" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C404" t="s" s="2">
+      <c r="C404" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D404" t="s" s="2">
+      <c r="D404" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E404" t="s" s="2">
+      <c r="E404" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F404" t="s" s="2">
+      <c r="F404" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G404" t="s" s="2">
+      <c r="G404" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H404" t="s" s="2">
+      <c r="H404" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I404" t="s" s="2">
+      <c r="I404" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11839,10 +11851,10 @@
       <c r="I406">
         <f>((C406-C405)^2+(D406- D405)^2)^.5</f>
       </c>
-      <c r="J406" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K406" s="2" t="s">
+      <c r="J406" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K406" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L406" t="n">
@@ -11886,28 +11898,28 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" t="s" s="2">
+      <c r="A408" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B408" t="s" s="2">
+      <c r="B408" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C408" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D408" t="s" s="2">
+      <c r="C408" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D408" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E408" t="s" s="2">
+      <c r="E408" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F408" t="s" s="2">
+      <c r="F408" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G408" t="s" s="2">
+      <c r="G408" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H408" t="s" s="2">
+      <c r="H408" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11932,28 +11944,28 @@
       </c>
     </row>
     <row r="410">
-      <c r="B410" t="s" s="2">
+      <c r="B410" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C410" t="s" s="2">
+      <c r="C410" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D410" t="s" s="2">
+      <c r="D410" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E410" t="s" s="2">
+      <c r="E410" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F410" t="s" s="2">
+      <c r="F410" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G410" t="s" s="2">
+      <c r="G410" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H410" t="s" s="2">
+      <c r="H410" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I410" t="s" s="2">
+      <c r="I410" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12012,10 +12024,10 @@
       <c r="I412">
         <f>((C412-C411)^2+(D412- D411)^2)^.5</f>
       </c>
-      <c r="J412" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K412" s="2" t="s">
+      <c r="J412" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K412" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L412" t="n">
@@ -12059,28 +12071,28 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" t="s" s="2">
+      <c r="A414" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B414" t="s" s="2">
+      <c r="B414" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C414" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D414" t="s" s="2">
+      <c r="C414" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D414" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E414" t="s" s="2">
+      <c r="E414" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F414" t="s" s="2">
+      <c r="F414" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G414" t="s" s="2">
+      <c r="G414" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H414" t="s" s="2">
+      <c r="H414" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12105,28 +12117,28 @@
       </c>
     </row>
     <row r="416">
-      <c r="B416" t="s" s="2">
+      <c r="B416" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C416" t="s" s="2">
+      <c r="C416" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D416" t="s" s="2">
+      <c r="D416" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E416" t="s" s="2">
+      <c r="E416" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F416" t="s" s="2">
+      <c r="F416" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G416" t="s" s="2">
+      <c r="G416" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H416" t="s" s="2">
+      <c r="H416" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I416" t="s" s="2">
+      <c r="I416" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12185,10 +12197,10 @@
       <c r="I418">
         <f>((C418-C417)^2+(D418- D417)^2)^.5</f>
       </c>
-      <c r="J418" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K418" s="2" t="s">
+      <c r="J418" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K418" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L418" t="n">
@@ -12232,28 +12244,28 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" t="s" s="2">
+      <c r="A420" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B420" t="s" s="2">
+      <c r="B420" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C420" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D420" t="s" s="2">
+      <c r="C420" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D420" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E420" t="s" s="2">
+      <c r="E420" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F420" t="s" s="2">
+      <c r="F420" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G420" t="s" s="2">
+      <c r="G420" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H420" t="s" s="2">
+      <c r="H420" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12278,28 +12290,28 @@
       </c>
     </row>
     <row r="422">
-      <c r="B422" t="s" s="2">
+      <c r="B422" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C422" t="s" s="2">
+      <c r="C422" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D422" t="s" s="2">
+      <c r="D422" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E422" t="s" s="2">
+      <c r="E422" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F422" t="s" s="2">
+      <c r="F422" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G422" t="s" s="2">
+      <c r="G422" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H422" t="s" s="2">
+      <c r="H422" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I422" t="s" s="2">
+      <c r="I422" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12358,10 +12370,10 @@
       <c r="I424">
         <f>((C424-C423)^2+(D424- D423)^2)^.5</f>
       </c>
-      <c r="J424" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K424" s="2" t="s">
+      <c r="J424" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K424" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L424" t="n">
@@ -12405,28 +12417,28 @@
       </c>
     </row>
     <row r="426">
-      <c r="A426" t="s" s="2">
+      <c r="A426" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B426" t="s" s="2">
+      <c r="B426" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C426" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D426" t="s" s="2">
+      <c r="C426" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D426" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E426" t="s" s="2">
+      <c r="E426" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F426" t="s" s="2">
+      <c r="F426" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G426" t="s" s="2">
+      <c r="G426" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H426" t="s" s="2">
+      <c r="H426" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12451,28 +12463,28 @@
       </c>
     </row>
     <row r="428">
-      <c r="B428" t="s" s="2">
+      <c r="B428" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C428" t="s" s="2">
+      <c r="C428" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D428" t="s" s="2">
+      <c r="D428" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E428" t="s" s="2">
+      <c r="E428" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F428" t="s" s="2">
+      <c r="F428" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G428" t="s" s="2">
+      <c r="G428" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H428" t="s" s="2">
+      <c r="H428" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I428" t="s" s="2">
+      <c r="I428" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12531,10 +12543,10 @@
       <c r="I430">
         <f>((C430-C429)^2+(D430- D429)^2)^.5</f>
       </c>
-      <c r="J430" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K430" s="2" t="s">
+      <c r="J430" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K430" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L430" t="n">
@@ -12578,28 +12590,28 @@
       </c>
     </row>
     <row r="432">
-      <c r="A432" t="s" s="2">
+      <c r="A432" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B432" t="s" s="2">
+      <c r="B432" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C432" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D432" t="s" s="2">
+      <c r="C432" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D432" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E432" t="s" s="2">
+      <c r="E432" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F432" t="s" s="2">
+      <c r="F432" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G432" t="s" s="2">
+      <c r="G432" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H432" t="s" s="2">
+      <c r="H432" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12624,28 +12636,28 @@
       </c>
     </row>
     <row r="434">
-      <c r="B434" t="s" s="2">
+      <c r="B434" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C434" t="s" s="2">
+      <c r="C434" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D434" t="s" s="2">
+      <c r="D434" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E434" t="s" s="2">
+      <c r="E434" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F434" t="s" s="2">
+      <c r="F434" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G434" t="s" s="2">
+      <c r="G434" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H434" t="s" s="2">
+      <c r="H434" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I434" t="s" s="2">
+      <c r="I434" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12704,10 +12716,10 @@
       <c r="I436">
         <f>((C436-C435)^2+(D436- D435)^2)^.5</f>
       </c>
-      <c r="J436" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K436" s="2" t="s">
+      <c r="J436" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K436" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L436" t="n">
@@ -12751,28 +12763,28 @@
       </c>
     </row>
     <row r="438">
-      <c r="A438" t="s" s="2">
+      <c r="A438" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B438" t="s" s="2">
+      <c r="B438" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C438" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D438" t="s" s="2">
+      <c r="C438" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D438" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E438" t="s" s="2">
+      <c r="E438" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F438" t="s" s="2">
+      <c r="F438" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G438" t="s" s="2">
+      <c r="G438" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H438" t="s" s="2">
+      <c r="H438" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12797,28 +12809,28 @@
       </c>
     </row>
     <row r="440">
-      <c r="B440" t="s" s="2">
+      <c r="B440" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C440" t="s" s="2">
+      <c r="C440" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D440" t="s" s="2">
+      <c r="D440" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E440" t="s" s="2">
+      <c r="E440" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F440" t="s" s="2">
+      <c r="F440" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G440" t="s" s="2">
+      <c r="G440" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H440" t="s" s="2">
+      <c r="H440" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I440" t="s" s="2">
+      <c r="I440" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12877,10 +12889,10 @@
       <c r="I442">
         <f>((C442-C441)^2+(D442- D441)^2)^.5</f>
       </c>
-      <c r="J442" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K442" s="2" t="s">
+      <c r="J442" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K442" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L442" t="n">
@@ -12924,28 +12936,28 @@
       </c>
     </row>
     <row r="444">
-      <c r="A444" t="s" s="2">
+      <c r="A444" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B444" t="s" s="2">
+      <c r="B444" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C444" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D444" t="s" s="2">
+      <c r="C444" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D444" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E444" t="s" s="2">
+      <c r="E444" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F444" t="s" s="2">
+      <c r="F444" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G444" t="s" s="2">
+      <c r="G444" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H444" t="s" s="2">
+      <c r="H444" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12970,28 +12982,28 @@
       </c>
     </row>
     <row r="446">
-      <c r="B446" t="s" s="2">
+      <c r="B446" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C446" t="s" s="2">
+      <c r="C446" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D446" t="s" s="2">
+      <c r="D446" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E446" t="s" s="2">
+      <c r="E446" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F446" t="s" s="2">
+      <c r="F446" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G446" t="s" s="2">
+      <c r="G446" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H446" t="s" s="2">
+      <c r="H446" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I446" t="s" s="2">
+      <c r="I446" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13050,10 +13062,10 @@
       <c r="I448">
         <f>((C448-C447)^2+(D448- D447)^2)^.5</f>
       </c>
-      <c r="J448" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K448" s="2" t="s">
+      <c r="J448" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K448" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L448" t="n">
@@ -13097,28 +13109,28 @@
       </c>
     </row>
     <row r="450">
-      <c r="A450" t="s" s="2">
+      <c r="A450" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B450" t="s" s="2">
+      <c r="B450" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C450" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D450" t="s" s="2">
+      <c r="C450" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D450" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E450" t="s" s="2">
+      <c r="E450" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F450" t="s" s="2">
+      <c r="F450" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G450" t="s" s="2">
+      <c r="G450" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H450" t="s" s="2">
+      <c r="H450" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13143,28 +13155,28 @@
       </c>
     </row>
     <row r="452">
-      <c r="B452" t="s" s="2">
+      <c r="B452" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C452" t="s" s="2">
+      <c r="C452" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D452" t="s" s="2">
+      <c r="D452" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E452" t="s" s="2">
+      <c r="E452" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F452" t="s" s="2">
+      <c r="F452" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G452" t="s" s="2">
+      <c r="G452" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H452" t="s" s="2">
+      <c r="H452" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I452" t="s" s="2">
+      <c r="I452" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13223,10 +13235,10 @@
       <c r="I454">
         <f>((C454-C453)^2+(D454- D453)^2)^.5</f>
       </c>
-      <c r="J454" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K454" s="2" t="s">
+      <c r="J454" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K454" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L454" t="n">
@@ -13270,28 +13282,28 @@
       </c>
     </row>
     <row r="456">
-      <c r="A456" t="s" s="2">
+      <c r="A456" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B456" t="s" s="2">
+      <c r="B456" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C456" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D456" t="s" s="2">
+      <c r="C456" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D456" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E456" t="s" s="2">
+      <c r="E456" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F456" t="s" s="2">
+      <c r="F456" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G456" t="s" s="2">
+      <c r="G456" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H456" t="s" s="2">
+      <c r="H456" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13316,28 +13328,28 @@
       </c>
     </row>
     <row r="458">
-      <c r="B458" t="s" s="2">
+      <c r="B458" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C458" t="s" s="2">
+      <c r="C458" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D458" t="s" s="2">
+      <c r="D458" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E458" t="s" s="2">
+      <c r="E458" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F458" t="s" s="2">
+      <c r="F458" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G458" t="s" s="2">
+      <c r="G458" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H458" t="s" s="2">
+      <c r="H458" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I458" t="s" s="2">
+      <c r="I458" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13396,10 +13408,10 @@
       <c r="I460">
         <f>((C460-C459)^2+(D460- D459)^2)^.5</f>
       </c>
-      <c r="J460" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K460" s="2" t="s">
+      <c r="J460" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K460" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L460" t="n">
@@ -13443,28 +13455,28 @@
       </c>
     </row>
     <row r="462">
-      <c r="A462" t="s" s="2">
+      <c r="A462" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B462" t="s" s="2">
+      <c r="B462" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C462" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D462" t="s" s="2">
+      <c r="C462" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D462" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E462" t="s" s="2">
+      <c r="E462" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F462" t="s" s="2">
+      <c r="F462" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G462" t="s" s="2">
+      <c r="G462" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H462" t="s" s="2">
+      <c r="H462" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13489,28 +13501,28 @@
       </c>
     </row>
     <row r="464">
-      <c r="B464" t="s" s="2">
+      <c r="B464" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C464" t="s" s="2">
+      <c r="C464" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D464" t="s" s="2">
+      <c r="D464" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E464" t="s" s="2">
+      <c r="E464" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F464" t="s" s="2">
+      <c r="F464" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G464" t="s" s="2">
+      <c r="G464" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H464" t="s" s="2">
+      <c r="H464" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I464" t="s" s="2">
+      <c r="I464" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13569,10 +13581,10 @@
       <c r="I466">
         <f>((C466-C465)^2+(D466- D465)^2)^.5</f>
       </c>
-      <c r="J466" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K466" s="2" t="s">
+      <c r="J466" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K466" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L466" t="n">
@@ -13616,28 +13628,28 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" t="s" s="2">
+      <c r="A468" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B468" t="s" s="2">
+      <c r="B468" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C468" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D468" t="s" s="2">
+      <c r="C468" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D468" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E468" t="s" s="2">
+      <c r="E468" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F468" t="s" s="2">
+      <c r="F468" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G468" t="s" s="2">
+      <c r="G468" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H468" t="s" s="2">
+      <c r="H468" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13662,28 +13674,28 @@
       </c>
     </row>
     <row r="470">
-      <c r="B470" t="s" s="2">
+      <c r="B470" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C470" t="s" s="2">
+      <c r="C470" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D470" t="s" s="2">
+      <c r="D470" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E470" t="s" s="2">
+      <c r="E470" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F470" t="s" s="2">
+      <c r="F470" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G470" t="s" s="2">
+      <c r="G470" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H470" t="s" s="2">
+      <c r="H470" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I470" t="s" s="2">
+      <c r="I470" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13742,10 +13754,10 @@
       <c r="I472">
         <f>((C472-C471)^2+(D472- D471)^2)^.5</f>
       </c>
-      <c r="J472" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K472" s="2" t="s">
+      <c r="J472" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K472" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L472" t="n">
@@ -13789,28 +13801,28 @@
       </c>
     </row>
     <row r="474">
-      <c r="A474" t="s" s="2">
+      <c r="A474" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B474" t="s" s="2">
+      <c r="B474" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C474" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D474" t="s" s="2">
+      <c r="C474" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D474" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E474" t="s" s="2">
+      <c r="E474" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F474" t="s" s="2">
+      <c r="F474" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G474" t="s" s="2">
+      <c r="G474" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H474" t="s" s="2">
+      <c r="H474" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13835,28 +13847,28 @@
       </c>
     </row>
     <row r="476">
-      <c r="B476" t="s" s="2">
+      <c r="B476" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C476" t="s" s="2">
+      <c r="C476" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D476" t="s" s="2">
+      <c r="D476" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E476" t="s" s="2">
+      <c r="E476" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F476" t="s" s="2">
+      <c r="F476" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G476" t="s" s="2">
+      <c r="G476" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H476" t="s" s="2">
+      <c r="H476" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I476" t="s" s="2">
+      <c r="I476" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13915,10 +13927,10 @@
       <c r="I478">
         <f>((C478-C477)^2+(D478- D477)^2)^.5</f>
       </c>
-      <c r="J478" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K478" s="2" t="s">
+      <c r="J478" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K478" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L478" t="n">
@@ -13962,28 +13974,28 @@
       </c>
     </row>
     <row r="480">
-      <c r="A480" t="s" s="2">
+      <c r="A480" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B480" t="s" s="2">
+      <c r="B480" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C480" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D480" t="s" s="2">
+      <c r="C480" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D480" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E480" t="s" s="2">
+      <c r="E480" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F480" t="s" s="2">
+      <c r="F480" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G480" t="s" s="2">
+      <c r="G480" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H480" t="s" s="2">
+      <c r="H480" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -14008,28 +14020,28 @@
       </c>
     </row>
     <row r="482">
-      <c r="B482" t="s" s="2">
+      <c r="B482" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C482" t="s" s="2">
+      <c r="C482" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D482" t="s" s="2">
+      <c r="D482" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E482" t="s" s="2">
+      <c r="E482" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F482" t="s" s="2">
+      <c r="F482" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G482" t="s" s="2">
+      <c r="G482" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H482" t="s" s="2">
+      <c r="H482" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I482" t="s" s="2">
+      <c r="I482" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -14088,10 +14100,10 @@
       <c r="I484">
         <f>((C484-C483)^2+(D484- D483)^2)^.5</f>
       </c>
-      <c r="J484" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K484" s="2" t="s">
+      <c r="J484" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K484" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L484" t="n">
@@ -14135,28 +14147,28 @@
       </c>
     </row>
     <row r="486">
-      <c r="A486" t="s" s="2">
+      <c r="A486" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B486" t="s" s="2">
+      <c r="B486" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C486" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D486" t="s" s="2">
+      <c r="C486" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D486" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E486" t="s" s="2">
+      <c r="E486" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F486" t="s" s="2">
+      <c r="F486" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G486" t="s" s="2">
+      <c r="G486" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H486" t="s" s="2">
+      <c r="H486" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -14181,28 +14193,28 @@
       </c>
     </row>
     <row r="488">
-      <c r="B488" t="s" s="2">
+      <c r="B488" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C488" t="s" s="2">
+      <c r="C488" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D488" t="s" s="2">
+      <c r="D488" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E488" t="s" s="2">
+      <c r="E488" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F488" t="s" s="2">
+      <c r="F488" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G488" t="s" s="2">
+      <c r="G488" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H488" t="s" s="2">
+      <c r="H488" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I488" t="s" s="2">
+      <c r="I488" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -14261,10 +14273,10 @@
       <c r="I490">
         <f>((C490-C489)^2+(D490- D489)^2)^.5</f>
       </c>
-      <c r="J490" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K490" s="2" t="s">
+      <c r="J490" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K490" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L490" t="n">
@@ -14308,28 +14320,28 @@
       </c>
     </row>
     <row r="492">
-      <c r="A492" t="s" s="2">
+      <c r="A492" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B492" t="s" s="2">
+      <c r="B492" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C492" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D492" t="s" s="2">
+      <c r="C492" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D492" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E492" t="s" s="2">
+      <c r="E492" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F492" t="s" s="2">
+      <c r="F492" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G492" t="s" s="2">
+      <c r="G492" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H492" t="s" s="2">
+      <c r="H492" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -14354,28 +14366,28 @@
       </c>
     </row>
     <row r="494">
-      <c r="B494" t="s" s="2">
+      <c r="B494" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C494" t="s" s="2">
+      <c r="C494" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D494" t="s" s="2">
+      <c r="D494" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E494" t="s" s="2">
+      <c r="E494" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F494" t="s" s="2">
+      <c r="F494" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G494" t="s" s="2">
+      <c r="G494" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H494" t="s" s="2">
+      <c r="H494" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I494" t="s" s="2">
+      <c r="I494" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -14434,10 +14446,10 @@
       <c r="I496">
         <f>((C496-C495)^2+(D496- D495)^2)^.5</f>
       </c>
-      <c r="J496" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K496" s="2" t="s">
+      <c r="J496" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K496" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L496" t="n">
@@ -14481,28 +14493,28 @@
       </c>
     </row>
     <row r="498">
-      <c r="A498" t="s" s="2">
+      <c r="A498" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B498" t="s" s="2">
+      <c r="B498" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C498" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D498" t="s" s="2">
+      <c r="C498" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D498" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E498" t="s" s="2">
+      <c r="E498" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F498" t="s" s="2">
+      <c r="F498" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G498" t="s" s="2">
+      <c r="G498" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H498" t="s" s="2">
+      <c r="H498" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -14527,28 +14539,28 @@
       </c>
     </row>
     <row r="500">
-      <c r="B500" t="s" s="2">
+      <c r="B500" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C500" t="s" s="2">
+      <c r="C500" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D500" t="s" s="2">
+      <c r="D500" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E500" t="s" s="2">
+      <c r="E500" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F500" t="s" s="2">
+      <c r="F500" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G500" t="s" s="2">
+      <c r="G500" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H500" t="s" s="2">
+      <c r="H500" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I500" t="s" s="2">
+      <c r="I500" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -14607,10 +14619,10 @@
       <c r="I502">
         <f>((C502-C501)^2+(D502- D501)^2)^.5</f>
       </c>
-      <c r="J502" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K502" s="2" t="s">
+      <c r="J502" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K502" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L502" t="n">
@@ -14654,28 +14666,28 @@
       </c>
     </row>
     <row r="504">
-      <c r="A504" t="s" s="2">
+      <c r="A504" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B504" t="s" s="2">
+      <c r="B504" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C504" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D504" t="s" s="2">
+      <c r="C504" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D504" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E504" t="s" s="2">
+      <c r="E504" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F504" t="s" s="2">
+      <c r="F504" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G504" t="s" s="2">
+      <c r="G504" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H504" t="s" s="2">
+      <c r="H504" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -14700,28 +14712,28 @@
       </c>
     </row>
     <row r="506">
-      <c r="B506" t="s" s="2">
+      <c r="B506" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C506" t="s" s="2">
+      <c r="C506" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D506" t="s" s="2">
+      <c r="D506" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E506" t="s" s="2">
+      <c r="E506" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F506" t="s" s="2">
+      <c r="F506" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G506" t="s" s="2">
+      <c r="G506" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H506" t="s" s="2">
+      <c r="H506" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I506" t="s" s="2">
+      <c r="I506" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -14780,10 +14792,10 @@
       <c r="I508">
         <f>((C508-C507)^2+(D508- D507)^2)^.5</f>
       </c>
-      <c r="J508" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K508" s="2" t="s">
+      <c r="J508" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K508" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L508" t="n">
@@ -14827,28 +14839,28 @@
       </c>
     </row>
     <row r="510">
-      <c r="A510" t="s" s="2">
+      <c r="A510" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B510" t="s" s="2">
+      <c r="B510" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C510" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D510" t="s" s="2">
+      <c r="C510" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D510" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E510" t="s" s="2">
+      <c r="E510" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F510" t="s" s="2">
+      <c r="F510" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G510" t="s" s="2">
+      <c r="G510" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H510" t="s" s="2">
+      <c r="H510" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -14873,28 +14885,28 @@
       </c>
     </row>
     <row r="512">
-      <c r="B512" t="s" s="2">
+      <c r="B512" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C512" t="s" s="2">
+      <c r="C512" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D512" t="s" s="2">
+      <c r="D512" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E512" t="s" s="2">
+      <c r="E512" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F512" t="s" s="2">
+      <c r="F512" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G512" t="s" s="2">
+      <c r="G512" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H512" t="s" s="2">
+      <c r="H512" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I512" t="s" s="2">
+      <c r="I512" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -14953,10 +14965,10 @@
       <c r="I514">
         <f>((C514-C513)^2+(D514- D513)^2)^.5</f>
       </c>
-      <c r="J514" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K514" s="2" t="s">
+      <c r="J514" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K514" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L514" t="n">
@@ -15000,28 +15012,28 @@
       </c>
     </row>
     <row r="516">
-      <c r="A516" t="s" s="2">
+      <c r="A516" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B516" t="s" s="2">
+      <c r="B516" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C516" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D516" t="s" s="2">
+      <c r="C516" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D516" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E516" t="s" s="2">
+      <c r="E516" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F516" t="s" s="2">
+      <c r="F516" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G516" t="s" s="2">
+      <c r="G516" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H516" t="s" s="2">
+      <c r="H516" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -15046,28 +15058,28 @@
       </c>
     </row>
     <row r="518">
-      <c r="B518" t="s" s="2">
+      <c r="B518" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C518" t="s" s="2">
+      <c r="C518" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D518" t="s" s="2">
+      <c r="D518" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E518" t="s" s="2">
+      <c r="E518" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F518" t="s" s="2">
+      <c r="F518" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G518" t="s" s="2">
+      <c r="G518" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H518" t="s" s="2">
+      <c r="H518" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I518" t="s" s="2">
+      <c r="I518" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -15126,10 +15138,10 @@
       <c r="I520">
         <f>((C520-C519)^2+(D520- D519)^2)^.5</f>
       </c>
-      <c r="J520" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K520" s="2" t="s">
+      <c r="J520" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K520" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L520" t="n">
@@ -15173,28 +15185,28 @@
       </c>
     </row>
     <row r="522">
-      <c r="A522" t="s" s="2">
+      <c r="A522" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B522" t="s" s="2">
+      <c r="B522" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C522" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D522" t="s" s="2">
+      <c r="C522" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D522" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E522" t="s" s="2">
+      <c r="E522" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F522" t="s" s="2">
+      <c r="F522" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G522" t="s" s="2">
+      <c r="G522" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H522" t="s" s="2">
+      <c r="H522" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -15219,28 +15231,28 @@
       </c>
     </row>
     <row r="524">
-      <c r="B524" t="s" s="2">
+      <c r="B524" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C524" t="s" s="2">
+      <c r="C524" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D524" t="s" s="2">
+      <c r="D524" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E524" t="s" s="2">
+      <c r="E524" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F524" t="s" s="2">
+      <c r="F524" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G524" t="s" s="2">
+      <c r="G524" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H524" t="s" s="2">
+      <c r="H524" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I524" t="s" s="2">
+      <c r="I524" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -15299,10 +15311,10 @@
       <c r="I526">
         <f>((C526-C525)^2+(D526- D525)^2)^.5</f>
       </c>
-      <c r="J526" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K526" s="2" t="s">
+      <c r="J526" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K526" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L526" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c106_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c106_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6184" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18552" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="4">
+      <c r="C3" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -344,10 +392,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="4" t="s">
+      <c r="J7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -391,28 +439,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="4">
+      <c r="A9" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="4">
+      <c r="B9" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="4">
+      <c r="C9" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="4">
+      <c r="E9" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="4">
+      <c r="F9" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="4">
+      <c r="G9" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="4">
+      <c r="H9" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -437,28 +485,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="4">
+      <c r="B11" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="4">
+      <c r="C11" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="4">
+      <c r="D11" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="4">
+      <c r="E11" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="4">
+      <c r="F11" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="4">
+      <c r="G11" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="4">
+      <c r="H11" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="4">
+      <c r="I11" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -604,10 +652,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="4" t="s">
+      <c r="J16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -651,28 +699,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="4">
+      <c r="A18" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="4">
+      <c r="B18" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="4">
+      <c r="C18" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="4">
+      <c r="E18" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="4">
+      <c r="F18" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="4">
+      <c r="G18" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="4">
+      <c r="H18" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -697,28 +745,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="4">
+      <c r="B20" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="4">
+      <c r="C20" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="4">
+      <c r="D20" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="4">
+      <c r="E20" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="4">
+      <c r="F20" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="4">
+      <c r="G20" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="4">
+      <c r="H20" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="4">
+      <c r="I20" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -777,10 +825,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="4" t="s">
+      <c r="J22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -824,28 +872,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="4">
+      <c r="A24" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="4">
+      <c r="B24" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="4">
+      <c r="C24" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="4">
+      <c r="E24" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="4">
+      <c r="F24" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="4">
+      <c r="G24" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="4">
+      <c r="H24" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -870,28 +918,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="4">
+      <c r="B26" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="4">
+      <c r="C26" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="4">
+      <c r="D26" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="4">
+      <c r="E26" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="4">
+      <c r="F26" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="4">
+      <c r="G26" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="4">
+      <c r="H26" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="4">
+      <c r="I26" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1008,10 +1056,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="4" t="s">
+      <c r="J30" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1055,28 +1103,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="4">
+      <c r="A32" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="4">
+      <c r="B32" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="4">
+      <c r="C32" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="4">
+      <c r="E32" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="4">
+      <c r="F32" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="4">
+      <c r="G32" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="4">
+      <c r="H32" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1101,28 +1149,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="4">
+      <c r="B34" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="4">
+      <c r="C34" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="4">
+      <c r="D34" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="4">
+      <c r="E34" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="4">
+      <c r="F34" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="4">
+      <c r="G34" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="4">
+      <c r="H34" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="4">
+      <c r="I34" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1181,10 +1229,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="4" t="s">
+      <c r="J36" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1228,28 +1276,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="4">
+      <c r="A38" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="4">
+      <c r="B38" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="4">
+      <c r="C38" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="4">
+      <c r="E38" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="4">
+      <c r="F38" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="4">
+      <c r="G38" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="4">
+      <c r="H38" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1274,28 +1322,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="4">
+      <c r="B40" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="4">
+      <c r="C40" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="4">
+      <c r="D40" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="4">
+      <c r="E40" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="4">
+      <c r="F40" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="4">
+      <c r="G40" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="4">
+      <c r="H40" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="4">
+      <c r="I40" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1354,10 +1402,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="4" t="s">
+      <c r="J42" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1401,28 +1449,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="4">
+      <c r="A44" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="4">
+      <c r="B44" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s" s="4">
+      <c r="C44" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="4">
+      <c r="E44" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="4">
+      <c r="F44" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="4">
+      <c r="G44" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="4">
+      <c r="H44" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1447,28 +1495,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="4">
+      <c r="B46" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="4">
+      <c r="C46" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="4">
+      <c r="D46" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="4">
+      <c r="E46" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="4">
+      <c r="F46" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="4">
+      <c r="G46" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="4">
+      <c r="H46" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="4">
+      <c r="I46" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1527,10 +1575,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="4" t="s">
+      <c r="J48" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1574,28 +1622,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="4">
+      <c r="A50" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="4">
+      <c r="B50" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="4">
+      <c r="C50" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="4">
+      <c r="E50" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="4">
+      <c r="F50" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="4">
+      <c r="G50" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="4">
+      <c r="H50" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1620,28 +1668,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="4">
+      <c r="B52" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="4">
+      <c r="C52" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="4">
+      <c r="D52" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="4">
+      <c r="E52" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="4">
+      <c r="F52" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="4">
+      <c r="G52" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="4">
+      <c r="H52" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="4">
+      <c r="I52" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1700,10 +1748,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="4" t="s">
+      <c r="J54" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1747,28 +1795,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="4">
+      <c r="A56" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="4">
+      <c r="B56" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="4">
+      <c r="C56" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="4">
+      <c r="E56" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="4">
+      <c r="F56" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="4">
+      <c r="G56" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="4">
+      <c r="H56" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1793,28 +1841,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="4">
+      <c r="B58" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="4">
+      <c r="C58" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="4">
+      <c r="D58" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="4">
+      <c r="E58" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="4">
+      <c r="F58" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="4">
+      <c r="G58" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="4">
+      <c r="H58" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="4">
+      <c r="I58" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1931,10 +1979,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K62" s="4" t="s">
+      <c r="J62" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -1978,28 +2026,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="4">
+      <c r="A64" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="4">
+      <c r="B64" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s" s="4">
+      <c r="C64" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="4">
+      <c r="E64" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="4">
+      <c r="F64" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="4">
+      <c r="G64" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="4">
+      <c r="H64" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2024,28 +2072,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="4">
+      <c r="B66" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="4">
+      <c r="C66" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="4">
+      <c r="D66" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="4">
+      <c r="E66" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="4">
+      <c r="F66" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="4">
+      <c r="G66" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="4">
+      <c r="H66" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="4">
+      <c r="I66" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2104,10 +2152,10 @@
       <c r="I68">
         <f>((C68-C67)^2+(D68- D67)^2)^.5</f>
       </c>
-      <c r="J68" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K68" s="4" t="s">
+      <c r="J68" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L68" t="n">
@@ -2151,28 +2199,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="4">
+      <c r="A70" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B70" t="s" s="4">
+      <c r="B70" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C70" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s" s="4">
+      <c r="C70" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E70" t="s" s="4">
+      <c r="E70" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F70" t="s" s="4">
+      <c r="F70" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G70" t="s" s="4">
+      <c r="G70" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H70" t="s" s="4">
+      <c r="H70" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2197,28 +2245,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="s" s="4">
+      <c r="B72" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C72" t="s" s="4">
+      <c r="C72" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D72" t="s" s="4">
+      <c r="D72" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E72" t="s" s="4">
+      <c r="E72" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F72" t="s" s="4">
+      <c r="F72" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G72" t="s" s="4">
+      <c r="G72" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H72" t="s" s="4">
+      <c r="H72" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I72" t="s" s="4">
+      <c r="I72" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2277,10 +2325,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="4" t="s">
+      <c r="J74" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2324,28 +2372,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="4">
+      <c r="A76" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="4">
+      <c r="B76" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="4">
+      <c r="C76" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="4">
+      <c r="E76" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="4">
+      <c r="F76" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="4">
+      <c r="G76" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="4">
+      <c r="H76" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2370,28 +2418,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="4">
+      <c r="B78" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="4">
+      <c r="C78" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="4">
+      <c r="D78" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="4">
+      <c r="E78" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="4">
+      <c r="F78" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="4">
+      <c r="G78" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="4">
+      <c r="H78" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="4">
+      <c r="I78" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2508,10 +2556,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="4" t="s">
+      <c r="J82" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2555,28 +2603,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="4">
+      <c r="A84" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="4">
+      <c r="B84" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s" s="4">
+      <c r="C84" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="4">
+      <c r="E84" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="4">
+      <c r="F84" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="4">
+      <c r="G84" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="4">
+      <c r="H84" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2601,28 +2649,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="4">
+      <c r="B86" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="4">
+      <c r="C86" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="4">
+      <c r="D86" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="4">
+      <c r="E86" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="4">
+      <c r="F86" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="4">
+      <c r="G86" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="4">
+      <c r="H86" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="4">
+      <c r="I86" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2681,10 +2729,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="4" t="s">
+      <c r="J88" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2728,28 +2776,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="4">
+      <c r="A90" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="4">
+      <c r="B90" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="4">
+      <c r="C90" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="4">
+      <c r="E90" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="4">
+      <c r="F90" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="4">
+      <c r="G90" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="4">
+      <c r="H90" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2774,28 +2822,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="4">
+      <c r="B92" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="4">
+      <c r="C92" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="4">
+      <c r="D92" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="4">
+      <c r="E92" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="4">
+      <c r="F92" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="4">
+      <c r="G92" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="4">
+      <c r="H92" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="4">
+      <c r="I92" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2854,10 +2902,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K94" s="4" t="s">
+      <c r="J94" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2901,28 +2949,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="4">
+      <c r="A96" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="4">
+      <c r="B96" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s" s="4">
+      <c r="C96" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="4">
+      <c r="E96" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="4">
+      <c r="F96" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="4">
+      <c r="G96" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="4">
+      <c r="H96" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2947,28 +2995,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="4">
+      <c r="B98" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="4">
+      <c r="C98" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="4">
+      <c r="D98" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="4">
+      <c r="E98" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="4">
+      <c r="F98" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="4">
+      <c r="G98" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="4">
+      <c r="H98" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="4">
+      <c r="I98" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3027,10 +3075,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K100" s="4" t="s">
+      <c r="J100" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3074,28 +3122,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="4">
+      <c r="A102" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="4">
+      <c r="B102" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D102" t="s" s="4">
+      <c r="C102" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="4">
+      <c r="E102" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="4">
+      <c r="F102" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="4">
+      <c r="G102" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="4">
+      <c r="H102" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3120,28 +3168,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="4">
+      <c r="B104" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="4">
+      <c r="C104" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="4">
+      <c r="D104" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="4">
+      <c r="E104" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="4">
+      <c r="F104" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="4">
+      <c r="G104" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="4">
+      <c r="H104" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="4">
+      <c r="I104" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3200,10 +3248,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="4" t="s">
+      <c r="J106" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3247,28 +3295,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="4">
+      <c r="A108" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="4">
+      <c r="B108" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="4">
+      <c r="C108" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="4">
+      <c r="E108" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="4">
+      <c r="F108" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="4">
+      <c r="G108" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="4">
+      <c r="H108" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3293,28 +3341,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="4">
+      <c r="B110" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="4">
+      <c r="C110" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="4">
+      <c r="D110" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="4">
+      <c r="E110" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="4">
+      <c r="F110" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="4">
+      <c r="G110" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="4">
+      <c r="H110" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="4">
+      <c r="I110" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3373,10 +3421,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="4" t="s">
+      <c r="J112" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3420,28 +3468,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="4">
+      <c r="A114" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="4">
+      <c r="B114" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="4">
+      <c r="C114" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="4">
+      <c r="E114" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="4">
+      <c r="F114" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="4">
+      <c r="G114" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="4">
+      <c r="H114" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3466,28 +3514,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="4">
+      <c r="B116" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="4">
+      <c r="C116" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="4">
+      <c r="D116" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="4">
+      <c r="E116" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="4">
+      <c r="F116" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="4">
+      <c r="G116" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="4">
+      <c r="H116" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="4">
+      <c r="I116" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3546,10 +3594,10 @@
       <c r="I118">
         <f>((C118-C117)^2+(D118- D117)^2)^.5</f>
       </c>
-      <c r="J118" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K118" s="4" t="s">
+      <c r="J118" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K118" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L118" t="n">
@@ -3593,28 +3641,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="4">
+      <c r="A120" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B120" t="s" s="4">
+      <c r="B120" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C120" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D120" t="s" s="4">
+      <c r="C120" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E120" t="s" s="4">
+      <c r="E120" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F120" t="s" s="4">
+      <c r="F120" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G120" t="s" s="4">
+      <c r="G120" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H120" t="s" s="4">
+      <c r="H120" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3639,28 +3687,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="B122" t="s" s="4">
+      <c r="B122" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C122" t="s" s="4">
+      <c r="C122" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D122" t="s" s="4">
+      <c r="D122" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E122" t="s" s="4">
+      <c r="E122" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F122" t="s" s="4">
+      <c r="F122" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G122" t="s" s="4">
+      <c r="G122" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H122" t="s" s="4">
+      <c r="H122" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I122" t="s" s="4">
+      <c r="I122" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3777,10 +3825,10 @@
       <c r="I126">
         <f>((C126-C125)^2+(D126- D125)^2)^.5</f>
       </c>
-      <c r="J126" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K126" s="4" t="s">
+      <c r="J126" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K126" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L126" t="n">
@@ -3824,28 +3872,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="4">
+      <c r="A128" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B128" t="s" s="4">
+      <c r="B128" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C128" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D128" t="s" s="4">
+      <c r="C128" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E128" t="s" s="4">
+      <c r="E128" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F128" t="s" s="4">
+      <c r="F128" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G128" t="s" s="4">
+      <c r="G128" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H128" t="s" s="4">
+      <c r="H128" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3870,28 +3918,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="s" s="4">
+      <c r="B130" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C130" t="s" s="4">
+      <c r="C130" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D130" t="s" s="4">
+      <c r="D130" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E130" t="s" s="4">
+      <c r="E130" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F130" t="s" s="4">
+      <c r="F130" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G130" t="s" s="4">
+      <c r="G130" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H130" t="s" s="4">
+      <c r="H130" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I130" t="s" s="4">
+      <c r="I130" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3950,10 +3998,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K132" s="4" t="s">
+      <c r="J132" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K132" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -3997,28 +4045,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="4">
+      <c r="A134" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="4">
+      <c r="B134" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D134" t="s" s="4">
+      <c r="C134" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="4">
+      <c r="E134" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="4">
+      <c r="F134" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="4">
+      <c r="G134" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="4">
+      <c r="H134" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4043,28 +4091,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="4">
+      <c r="B136" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="4">
+      <c r="C136" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="4">
+      <c r="D136" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="4">
+      <c r="E136" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="4">
+      <c r="F136" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="4">
+      <c r="G136" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="4">
+      <c r="H136" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="4">
+      <c r="I136" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4123,10 +4171,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="4" t="s">
+      <c r="J138" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4170,28 +4218,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="4">
+      <c r="A140" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="4">
+      <c r="B140" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="4">
+      <c r="C140" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="4">
+      <c r="E140" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="4">
+      <c r="F140" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="4">
+      <c r="G140" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="4">
+      <c r="H140" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4216,28 +4264,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="4">
+      <c r="B142" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="4">
+      <c r="C142" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="4">
+      <c r="D142" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="4">
+      <c r="E142" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="4">
+      <c r="F142" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="4">
+      <c r="G142" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="4">
+      <c r="H142" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="4">
+      <c r="I142" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4296,10 +4344,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="4" t="s">
+      <c r="J144" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4343,28 +4391,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="4">
+      <c r="A146" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="4">
+      <c r="B146" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="4">
+      <c r="C146" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="4">
+      <c r="E146" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="4">
+      <c r="F146" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="4">
+      <c r="G146" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="4">
+      <c r="H146" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4389,28 +4437,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="4">
+      <c r="B148" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="4">
+      <c r="C148" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="4">
+      <c r="D148" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="4">
+      <c r="E148" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="4">
+      <c r="F148" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="4">
+      <c r="G148" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="4">
+      <c r="H148" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="4">
+      <c r="I148" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4469,10 +4517,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="4" t="s">
+      <c r="J150" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4516,28 +4564,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="4">
+      <c r="A152" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="4">
+      <c r="B152" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="4">
+      <c r="C152" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="4">
+      <c r="E152" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="4">
+      <c r="F152" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="4">
+      <c r="G152" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="4">
+      <c r="H152" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4562,28 +4610,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="4">
+      <c r="B154" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="4">
+      <c r="C154" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="4">
+      <c r="D154" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="4">
+      <c r="E154" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="4">
+      <c r="F154" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="4">
+      <c r="G154" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="4">
+      <c r="H154" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="4">
+      <c r="I154" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4642,10 +4690,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="4" t="s">
+      <c r="J156" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4689,28 +4737,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="4">
+      <c r="A158" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="4">
+      <c r="B158" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="4">
+      <c r="C158" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="4">
+      <c r="E158" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="4">
+      <c r="F158" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="4">
+      <c r="G158" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="4">
+      <c r="H158" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4735,28 +4783,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="4">
+      <c r="B160" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="4">
+      <c r="C160" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="4">
+      <c r="D160" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="4">
+      <c r="E160" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="4">
+      <c r="F160" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="4">
+      <c r="G160" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="4">
+      <c r="H160" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="4">
+      <c r="I160" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4815,10 +4863,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="4" t="s">
+      <c r="J162" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4862,28 +4910,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="4">
+      <c r="A164" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="4">
+      <c r="B164" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="4">
+      <c r="C164" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="4">
+      <c r="E164" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="4">
+      <c r="F164" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="4">
+      <c r="G164" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="4">
+      <c r="H164" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4908,28 +4956,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="4">
+      <c r="B166" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="4">
+      <c r="C166" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="4">
+      <c r="D166" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="4">
+      <c r="E166" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="4">
+      <c r="F166" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="4">
+      <c r="G166" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="4">
+      <c r="H166" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="4">
+      <c r="I166" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5017,10 +5065,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="4" t="s">
+      <c r="J169" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5064,28 +5112,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="4">
+      <c r="A171" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="4">
+      <c r="B171" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="4">
+      <c r="C171" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="4">
+      <c r="E171" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="4">
+      <c r="F171" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="4">
+      <c r="G171" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="4">
+      <c r="H171" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5110,28 +5158,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="4">
+      <c r="B173" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="4">
+      <c r="C173" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="4">
+      <c r="D173" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="4">
+      <c r="E173" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="4">
+      <c r="F173" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="4">
+      <c r="G173" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="4">
+      <c r="H173" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="4">
+      <c r="I173" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5190,10 +5238,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K175" s="4" t="s">
+      <c r="J175" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K175" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5237,28 +5285,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="4">
+      <c r="A177" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="4">
+      <c r="B177" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D177" t="s" s="4">
+      <c r="C177" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="4">
+      <c r="E177" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="4">
+      <c r="F177" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="4">
+      <c r="G177" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="4">
+      <c r="H177" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5283,28 +5331,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="4">
+      <c r="B179" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="4">
+      <c r="C179" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="4">
+      <c r="D179" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="4">
+      <c r="E179" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="4">
+      <c r="F179" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="4">
+      <c r="G179" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="4">
+      <c r="H179" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="4">
+      <c r="I179" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5392,10 +5440,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="4" t="s">
+      <c r="J182" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5439,28 +5487,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="4">
+      <c r="A184" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="4">
+      <c r="B184" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="4">
+      <c r="C184" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="4">
+      <c r="E184" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="4">
+      <c r="F184" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="4">
+      <c r="G184" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="4">
+      <c r="H184" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5485,28 +5533,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="4">
+      <c r="B186" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="4">
+      <c r="C186" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="4">
+      <c r="D186" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="4">
+      <c r="E186" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="4">
+      <c r="F186" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="4">
+      <c r="G186" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="4">
+      <c r="H186" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="4">
+      <c r="I186" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5565,10 +5613,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="4" t="s">
+      <c r="J188" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5612,28 +5660,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="4">
+      <c r="A190" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="4">
+      <c r="B190" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="4">
+      <c r="C190" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="4">
+      <c r="E190" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="4">
+      <c r="F190" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="4">
+      <c r="G190" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="4">
+      <c r="H190" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5658,28 +5706,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="4">
+      <c r="B192" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="4">
+      <c r="C192" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="4">
+      <c r="D192" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="4">
+      <c r="E192" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="4">
+      <c r="F192" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="4">
+      <c r="G192" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="4">
+      <c r="H192" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="4">
+      <c r="I192" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5738,10 +5786,10 @@
       <c r="I194">
         <f>((C194-C193)^2+(D194- D193)^2)^.5</f>
       </c>
-      <c r="J194" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K194" s="4" t="s">
+      <c r="J194" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K194" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L194" t="n">
@@ -5785,28 +5833,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="4">
+      <c r="A196" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B196" t="s" s="4">
+      <c r="B196" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C196" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D196" t="s" s="4">
+      <c r="C196" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E196" t="s" s="4">
+      <c r="E196" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F196" t="s" s="4">
+      <c r="F196" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G196" t="s" s="4">
+      <c r="G196" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H196" t="s" s="4">
+      <c r="H196" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5831,28 +5879,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="s" s="4">
+      <c r="B198" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C198" t="s" s="4">
+      <c r="C198" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D198" t="s" s="4">
+      <c r="D198" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E198" t="s" s="4">
+      <c r="E198" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F198" t="s" s="4">
+      <c r="F198" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G198" t="s" s="4">
+      <c r="G198" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H198" t="s" s="4">
+      <c r="H198" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I198" t="s" s="4">
+      <c r="I198" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5911,10 +5959,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="4" t="s">
+      <c r="J200" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -5958,28 +6006,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="4">
+      <c r="A202" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="4">
+      <c r="B202" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="4">
+      <c r="C202" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="4">
+      <c r="E202" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="4">
+      <c r="F202" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="4">
+      <c r="G202" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="4">
+      <c r="H202" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6004,28 +6052,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="4">
+      <c r="B204" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="4">
+      <c r="C204" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="4">
+      <c r="D204" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="4">
+      <c r="E204" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="4">
+      <c r="F204" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="4">
+      <c r="G204" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="4">
+      <c r="H204" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="4">
+      <c r="I204" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6084,10 +6132,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="4" t="s">
+      <c r="J206" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
@@ -6131,28 +6179,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s" s="4">
+      <c r="A208" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B208" t="s" s="4">
+      <c r="B208" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C208" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D208" t="s" s="4">
+      <c r="C208" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E208" t="s" s="4">
+      <c r="E208" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F208" t="s" s="4">
+      <c r="F208" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G208" t="s" s="4">
+      <c r="G208" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H208" t="s" s="4">
+      <c r="H208" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6177,28 +6225,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="B210" t="s" s="4">
+      <c r="B210" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C210" t="s" s="4">
+      <c r="C210" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D210" t="s" s="4">
+      <c r="D210" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E210" t="s" s="4">
+      <c r="E210" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F210" t="s" s="4">
+      <c r="F210" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G210" t="s" s="4">
+      <c r="G210" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H210" t="s" s="4">
+      <c r="H210" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I210" t="s" s="4">
+      <c r="I210" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6257,10 +6305,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="4" t="s">
+      <c r="J212" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6304,28 +6352,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="4">
+      <c r="A214" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="4">
+      <c r="B214" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="4">
+      <c r="C214" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="4">
+      <c r="E214" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="4">
+      <c r="F214" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="4">
+      <c r="G214" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="4">
+      <c r="H214" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6350,28 +6398,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="4">
+      <c r="B216" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="4">
+      <c r="C216" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="4">
+      <c r="D216" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="4">
+      <c r="E216" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="4">
+      <c r="F216" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="4">
+      <c r="G216" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="4">
+      <c r="H216" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="4">
+      <c r="I216" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6430,10 +6478,10 @@
       <c r="I218">
         <f>((C218-C217)^2+(D218- D217)^2)^.5</f>
       </c>
-      <c r="J218" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K218" s="4" t="s">
+      <c r="J218" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K218" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L218" t="n">
@@ -6477,28 +6525,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s" s="4">
+      <c r="A220" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B220" t="s" s="4">
+      <c r="B220" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C220" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D220" t="s" s="4">
+      <c r="C220" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E220" t="s" s="4">
+      <c r="E220" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F220" t="s" s="4">
+      <c r="F220" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G220" t="s" s="4">
+      <c r="G220" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H220" t="s" s="4">
+      <c r="H220" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6523,28 +6571,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="B222" t="s" s="4">
+      <c r="B222" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C222" t="s" s="4">
+      <c r="C222" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D222" t="s" s="4">
+      <c r="D222" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E222" t="s" s="4">
+      <c r="E222" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F222" t="s" s="4">
+      <c r="F222" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G222" t="s" s="4">
+      <c r="G222" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H222" t="s" s="4">
+      <c r="H222" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I222" t="s" s="4">
+      <c r="I222" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6603,10 +6651,10 @@
       <c r="I224">
         <f>((C224-C223)^2+(D224- D223)^2)^.5</f>
       </c>
-      <c r="J224" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K224" s="4" t="s">
+      <c r="J224" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K224" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L224" t="n">
@@ -6650,28 +6698,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s" s="4">
+      <c r="A226" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B226" t="s" s="4">
+      <c r="B226" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C226" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D226" t="s" s="4">
+      <c r="C226" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E226" t="s" s="4">
+      <c r="E226" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F226" t="s" s="4">
+      <c r="F226" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G226" t="s" s="4">
+      <c r="G226" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H226" t="s" s="4">
+      <c r="H226" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6696,28 +6744,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="s" s="4">
+      <c r="B228" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C228" t="s" s="4">
+      <c r="C228" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D228" t="s" s="4">
+      <c r="D228" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E228" t="s" s="4">
+      <c r="E228" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F228" t="s" s="4">
+      <c r="F228" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G228" t="s" s="4">
+      <c r="G228" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H228" t="s" s="4">
+      <c r="H228" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I228" t="s" s="4">
+      <c r="I228" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6776,10 +6824,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="4" t="s">
+      <c r="J230" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6823,28 +6871,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="4">
+      <c r="A232" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="4">
+      <c r="B232" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="4">
+      <c r="C232" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="4">
+      <c r="E232" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="4">
+      <c r="F232" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="4">
+      <c r="G232" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="4">
+      <c r="H232" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6869,28 +6917,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="4">
+      <c r="B234" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="4">
+      <c r="C234" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="4">
+      <c r="D234" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="4">
+      <c r="E234" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="4">
+      <c r="F234" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="4">
+      <c r="G234" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="4">
+      <c r="H234" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="4">
+      <c r="I234" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6949,10 +6997,10 @@
       <c r="I236">
         <f>((C236-C235)^2+(D236- D235)^2)^.5</f>
       </c>
-      <c r="J236" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K236" s="4" t="s">
+      <c r="J236" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L236" t="n">
@@ -6996,28 +7044,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="s" s="4">
+      <c r="A238" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B238" t="s" s="4">
+      <c r="B238" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C238" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D238" t="s" s="4">
+      <c r="C238" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D238" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E238" t="s" s="4">
+      <c r="E238" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F238" t="s" s="4">
+      <c r="F238" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G238" t="s" s="4">
+      <c r="G238" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H238" t="s" s="4">
+      <c r="H238" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7042,28 +7090,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="B240" t="s" s="4">
+      <c r="B240" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C240" t="s" s="4">
+      <c r="C240" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D240" t="s" s="4">
+      <c r="D240" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E240" t="s" s="4">
+      <c r="E240" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F240" t="s" s="4">
+      <c r="F240" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G240" t="s" s="4">
+      <c r="G240" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H240" t="s" s="4">
+      <c r="H240" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I240" t="s" s="4">
+      <c r="I240" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7122,10 +7170,10 @@
       <c r="I242">
         <f>((C242-C241)^2+(D242- D241)^2)^.5</f>
       </c>
-      <c r="J242" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K242" s="4" t="s">
+      <c r="J242" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K242" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L242" t="n">
@@ -7169,28 +7217,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="4">
+      <c r="A244" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B244" t="s" s="4">
+      <c r="B244" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C244" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D244" t="s" s="4">
+      <c r="C244" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E244" t="s" s="4">
+      <c r="E244" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F244" t="s" s="4">
+      <c r="F244" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G244" t="s" s="4">
+      <c r="G244" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H244" t="s" s="4">
+      <c r="H244" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7215,28 +7263,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="B246" t="s" s="4">
+      <c r="B246" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C246" t="s" s="4">
+      <c r="C246" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D246" t="s" s="4">
+      <c r="D246" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E246" t="s" s="4">
+      <c r="E246" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F246" t="s" s="4">
+      <c r="F246" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G246" t="s" s="4">
+      <c r="G246" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H246" t="s" s="4">
+      <c r="H246" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I246" t="s" s="4">
+      <c r="I246" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7295,10 +7343,10 @@
       <c r="I248">
         <f>((C248-C247)^2+(D248- D247)^2)^.5</f>
       </c>
-      <c r="J248" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K248" s="4" t="s">
+      <c r="J248" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K248" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L248" t="n">
@@ -7342,28 +7390,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="s" s="4">
+      <c r="A250" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B250" t="s" s="4">
+      <c r="B250" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C250" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D250" t="s" s="4">
+      <c r="C250" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D250" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E250" t="s" s="4">
+      <c r="E250" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F250" t="s" s="4">
+      <c r="F250" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G250" t="s" s="4">
+      <c r="G250" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H250" t="s" s="4">
+      <c r="H250" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7388,28 +7436,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="B252" t="s" s="4">
+      <c r="B252" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C252" t="s" s="4">
+      <c r="C252" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D252" t="s" s="4">
+      <c r="D252" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E252" t="s" s="4">
+      <c r="E252" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F252" t="s" s="4">
+      <c r="F252" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G252" t="s" s="4">
+      <c r="G252" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H252" t="s" s="4">
+      <c r="H252" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I252" t="s" s="4">
+      <c r="I252" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7497,10 +7545,10 @@
       <c r="I255">
         <f>((C255-C254)^2+(D255- D254)^2)^.5</f>
       </c>
-      <c r="J255" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K255" s="4" t="s">
+      <c r="J255" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K255" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L255" t="n">
@@ -7544,28 +7592,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="s" s="4">
+      <c r="A257" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B257" t="s" s="4">
+      <c r="B257" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C257" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D257" t="s" s="4">
+      <c r="C257" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D257" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E257" t="s" s="4">
+      <c r="E257" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F257" t="s" s="4">
+      <c r="F257" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G257" t="s" s="4">
+      <c r="G257" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H257" t="s" s="4">
+      <c r="H257" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7590,28 +7638,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="B259" t="s" s="4">
+      <c r="B259" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C259" t="s" s="4">
+      <c r="C259" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D259" t="s" s="4">
+      <c r="D259" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E259" t="s" s="4">
+      <c r="E259" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F259" t="s" s="4">
+      <c r="F259" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G259" t="s" s="4">
+      <c r="G259" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H259" t="s" s="4">
+      <c r="H259" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I259" t="s" s="4">
+      <c r="I259" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7670,10 +7718,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="4" t="s">
+      <c r="J261" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
@@ -7717,28 +7765,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="4">
+      <c r="A263" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B263" t="s" s="4">
+      <c r="B263" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C263" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D263" t="s" s="4">
+      <c r="C263" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E263" t="s" s="4">
+      <c r="E263" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F263" t="s" s="4">
+      <c r="F263" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G263" t="s" s="4">
+      <c r="G263" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H263" t="s" s="4">
+      <c r="H263" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7763,28 +7811,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="B265" t="s" s="4">
+      <c r="B265" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C265" t="s" s="4">
+      <c r="C265" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D265" t="s" s="4">
+      <c r="D265" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E265" t="s" s="4">
+      <c r="E265" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F265" t="s" s="4">
+      <c r="F265" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G265" t="s" s="4">
+      <c r="G265" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H265" t="s" s="4">
+      <c r="H265" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I265" t="s" s="4">
+      <c r="I265" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7843,10 +7891,10 @@
       <c r="I267">
         <f>((C267-C266)^2+(D267- D266)^2)^.5</f>
       </c>
-      <c r="J267" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K267" s="4" t="s">
+      <c r="J267" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K267" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L267" t="n">
@@ -7890,28 +7938,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="s" s="4">
+      <c r="A269" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B269" t="s" s="4">
+      <c r="B269" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C269" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D269" t="s" s="4">
+      <c r="C269" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E269" t="s" s="4">
+      <c r="E269" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F269" t="s" s="4">
+      <c r="F269" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G269" t="s" s="4">
+      <c r="G269" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H269" t="s" s="4">
+      <c r="H269" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7936,28 +7984,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="B271" t="s" s="4">
+      <c r="B271" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C271" t="s" s="4">
+      <c r="C271" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D271" t="s" s="4">
+      <c r="D271" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E271" t="s" s="4">
+      <c r="E271" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F271" t="s" s="4">
+      <c r="F271" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G271" t="s" s="4">
+      <c r="G271" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H271" t="s" s="4">
+      <c r="H271" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I271" t="s" s="4">
+      <c r="I271" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8016,10 +8064,10 @@
       <c r="I273">
         <f>((C273-C272)^2+(D273- D272)^2)^.5</f>
       </c>
-      <c r="J273" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K273" s="4" t="s">
+      <c r="J273" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K273" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L273" t="n">
@@ -8063,28 +8111,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="s" s="4">
+      <c r="A275" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B275" t="s" s="4">
+      <c r="B275" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C275" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D275" t="s" s="4">
+      <c r="C275" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D275" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E275" t="s" s="4">
+      <c r="E275" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F275" t="s" s="4">
+      <c r="F275" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G275" t="s" s="4">
+      <c r="G275" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H275" t="s" s="4">
+      <c r="H275" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8109,28 +8157,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="B277" t="s" s="4">
+      <c r="B277" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C277" t="s" s="4">
+      <c r="C277" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D277" t="s" s="4">
+      <c r="D277" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E277" t="s" s="4">
+      <c r="E277" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F277" t="s" s="4">
+      <c r="F277" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G277" t="s" s="4">
+      <c r="G277" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H277" t="s" s="4">
+      <c r="H277" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I277" t="s" s="4">
+      <c r="I277" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8189,10 +8237,10 @@
       <c r="I279">
         <f>((C279-C278)^2+(D279- D278)^2)^.5</f>
       </c>
-      <c r="J279" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K279" s="4" t="s">
+      <c r="J279" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K279" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L279" t="n">
@@ -8236,28 +8284,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="s" s="4">
+      <c r="A281" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B281" t="s" s="4">
+      <c r="B281" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C281" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D281" t="s" s="4">
+      <c r="C281" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D281" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E281" t="s" s="4">
+      <c r="E281" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F281" t="s" s="4">
+      <c r="F281" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G281" t="s" s="4">
+      <c r="G281" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H281" t="s" s="4">
+      <c r="H281" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8282,28 +8330,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="B283" t="s" s="4">
+      <c r="B283" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C283" t="s" s="4">
+      <c r="C283" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D283" t="s" s="4">
+      <c r="D283" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E283" t="s" s="4">
+      <c r="E283" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F283" t="s" s="4">
+      <c r="F283" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G283" t="s" s="4">
+      <c r="G283" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H283" t="s" s="4">
+      <c r="H283" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I283" t="s" s="4">
+      <c r="I283" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8362,10 +8410,10 @@
       <c r="I285">
         <f>((C285-C284)^2+(D285- D284)^2)^.5</f>
       </c>
-      <c r="J285" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K285" s="4" t="s">
+      <c r="J285" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K285" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L285" t="n">
@@ -8409,28 +8457,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="s" s="4">
+      <c r="A287" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B287" t="s" s="4">
+      <c r="B287" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C287" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D287" t="s" s="4">
+      <c r="C287" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D287" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E287" t="s" s="4">
+      <c r="E287" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F287" t="s" s="4">
+      <c r="F287" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G287" t="s" s="4">
+      <c r="G287" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H287" t="s" s="4">
+      <c r="H287" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8455,28 +8503,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="B289" t="s" s="4">
+      <c r="B289" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C289" t="s" s="4">
+      <c r="C289" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D289" t="s" s="4">
+      <c r="D289" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E289" t="s" s="4">
+      <c r="E289" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F289" t="s" s="4">
+      <c r="F289" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G289" t="s" s="4">
+      <c r="G289" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H289" t="s" s="4">
+      <c r="H289" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I289" t="s" s="4">
+      <c r="I289" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8535,10 +8583,10 @@
       <c r="I291">
         <f>((C291-C290)^2+(D291- D290)^2)^.5</f>
       </c>
-      <c r="J291" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K291" s="4" t="s">
+      <c r="J291" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K291" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L291" t="n">
@@ -8582,28 +8630,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="s" s="4">
+      <c r="A293" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B293" t="s" s="4">
+      <c r="B293" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C293" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D293" t="s" s="4">
+      <c r="C293" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D293" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E293" t="s" s="4">
+      <c r="E293" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F293" t="s" s="4">
+      <c r="F293" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G293" t="s" s="4">
+      <c r="G293" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H293" t="s" s="4">
+      <c r="H293" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8628,28 +8676,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="B295" t="s" s="4">
+      <c r="B295" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C295" t="s" s="4">
+      <c r="C295" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D295" t="s" s="4">
+      <c r="D295" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E295" t="s" s="4">
+      <c r="E295" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F295" t="s" s="4">
+      <c r="F295" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G295" t="s" s="4">
+      <c r="G295" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H295" t="s" s="4">
+      <c r="H295" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I295" t="s" s="4">
+      <c r="I295" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8708,10 +8756,10 @@
       <c r="I297">
         <f>((C297-C296)^2+(D297- D296)^2)^.5</f>
       </c>
-      <c r="J297" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K297" s="4" t="s">
+      <c r="J297" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K297" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L297" t="n">
@@ -8755,28 +8803,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="s" s="4">
+      <c r="A299" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B299" t="s" s="4">
+      <c r="B299" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C299" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D299" t="s" s="4">
+      <c r="C299" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D299" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E299" t="s" s="4">
+      <c r="E299" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F299" t="s" s="4">
+      <c r="F299" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G299" t="s" s="4">
+      <c r="G299" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H299" t="s" s="4">
+      <c r="H299" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8801,28 +8849,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="B301" t="s" s="4">
+      <c r="B301" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C301" t="s" s="4">
+      <c r="C301" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D301" t="s" s="4">
+      <c r="D301" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E301" t="s" s="4">
+      <c r="E301" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F301" t="s" s="4">
+      <c r="F301" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G301" t="s" s="4">
+      <c r="G301" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H301" t="s" s="4">
+      <c r="H301" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I301" t="s" s="4">
+      <c r="I301" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8881,10 +8929,10 @@
       <c r="I303">
         <f>((C303-C302)^2+(D303- D302)^2)^.5</f>
       </c>
-      <c r="J303" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K303" s="4" t="s">
+      <c r="J303" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K303" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L303" t="n">
@@ -8928,28 +8976,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="s" s="4">
+      <c r="A305" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B305" t="s" s="4">
+      <c r="B305" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C305" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D305" t="s" s="4">
+      <c r="C305" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D305" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E305" t="s" s="4">
+      <c r="E305" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F305" t="s" s="4">
+      <c r="F305" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G305" t="s" s="4">
+      <c r="G305" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H305" t="s" s="4">
+      <c r="H305" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8974,28 +9022,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="B307" t="s" s="4">
+      <c r="B307" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C307" t="s" s="4">
+      <c r="C307" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D307" t="s" s="4">
+      <c r="D307" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E307" t="s" s="4">
+      <c r="E307" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F307" t="s" s="4">
+      <c r="F307" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G307" t="s" s="4">
+      <c r="G307" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H307" t="s" s="4">
+      <c r="H307" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I307" t="s" s="4">
+      <c r="I307" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9054,10 +9102,10 @@
       <c r="I309">
         <f>((C309-C308)^2+(D309- D308)^2)^.5</f>
       </c>
-      <c r="J309" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K309" s="4" t="s">
+      <c r="J309" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K309" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L309" t="n">
@@ -9101,28 +9149,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="s" s="4">
+      <c r="A311" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B311" t="s" s="4">
+      <c r="B311" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C311" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D311" t="s" s="4">
+      <c r="C311" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D311" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E311" t="s" s="4">
+      <c r="E311" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F311" t="s" s="4">
+      <c r="F311" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G311" t="s" s="4">
+      <c r="G311" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H311" t="s" s="4">
+      <c r="H311" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9147,28 +9195,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="B313" t="s" s="4">
+      <c r="B313" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C313" t="s" s="4">
+      <c r="C313" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D313" t="s" s="4">
+      <c r="D313" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E313" t="s" s="4">
+      <c r="E313" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F313" t="s" s="4">
+      <c r="F313" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G313" t="s" s="4">
+      <c r="G313" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H313" t="s" s="4">
+      <c r="H313" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I313" t="s" s="4">
+      <c r="I313" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9227,10 +9275,10 @@
       <c r="I315">
         <f>((C315-C314)^2+(D315- D314)^2)^.5</f>
       </c>
-      <c r="J315" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K315" s="4" t="s">
+      <c r="J315" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K315" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L315" t="n">
@@ -9274,28 +9322,28 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="s" s="4">
+      <c r="A317" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B317" t="s" s="4">
+      <c r="B317" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C317" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D317" t="s" s="4">
+      <c r="C317" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D317" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E317" t="s" s="4">
+      <c r="E317" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F317" t="s" s="4">
+      <c r="F317" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G317" t="s" s="4">
+      <c r="G317" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H317" t="s" s="4">
+      <c r="H317" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9320,28 +9368,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="B319" t="s" s="4">
+      <c r="B319" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C319" t="s" s="4">
+      <c r="C319" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D319" t="s" s="4">
+      <c r="D319" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E319" t="s" s="4">
+      <c r="E319" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F319" t="s" s="4">
+      <c r="F319" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G319" t="s" s="4">
+      <c r="G319" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H319" t="s" s="4">
+      <c r="H319" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I319" t="s" s="4">
+      <c r="I319" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9400,10 +9448,10 @@
       <c r="I321">
         <f>((C321-C320)^2+(D321- D320)^2)^.5</f>
       </c>
-      <c r="J321" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K321" s="4" t="s">
+      <c r="J321" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K321" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L321" t="n">
@@ -9447,28 +9495,28 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="s" s="4">
+      <c r="A323" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B323" t="s" s="4">
+      <c r="B323" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C323" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D323" t="s" s="4">
+      <c r="C323" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D323" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E323" t="s" s="4">
+      <c r="E323" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F323" t="s" s="4">
+      <c r="F323" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G323" t="s" s="4">
+      <c r="G323" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H323" t="s" s="4">
+      <c r="H323" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9493,28 +9541,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="B325" t="s" s="4">
+      <c r="B325" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C325" t="s" s="4">
+      <c r="C325" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D325" t="s" s="4">
+      <c r="D325" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E325" t="s" s="4">
+      <c r="E325" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F325" t="s" s="4">
+      <c r="F325" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G325" t="s" s="4">
+      <c r="G325" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H325" t="s" s="4">
+      <c r="H325" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I325" t="s" s="4">
+      <c r="I325" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9573,10 +9621,10 @@
       <c r="I327">
         <f>((C327-C326)^2+(D327- D326)^2)^.5</f>
       </c>
-      <c r="J327" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K327" s="4" t="s">
+      <c r="J327" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K327" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L327" t="n">
@@ -9620,28 +9668,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="s" s="4">
+      <c r="A329" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B329" t="s" s="4">
+      <c r="B329" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C329" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D329" t="s" s="4">
+      <c r="C329" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D329" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E329" t="s" s="4">
+      <c r="E329" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F329" t="s" s="4">
+      <c r="F329" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G329" t="s" s="4">
+      <c r="G329" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H329" t="s" s="4">
+      <c r="H329" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9666,28 +9714,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="B331" t="s" s="4">
+      <c r="B331" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C331" t="s" s="4">
+      <c r="C331" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D331" t="s" s="4">
+      <c r="D331" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E331" t="s" s="4">
+      <c r="E331" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F331" t="s" s="4">
+      <c r="F331" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G331" t="s" s="4">
+      <c r="G331" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H331" t="s" s="4">
+      <c r="H331" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I331" t="s" s="4">
+      <c r="I331" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9746,10 +9794,10 @@
       <c r="I333">
         <f>((C333-C332)^2+(D333- D332)^2)^.5</f>
       </c>
-      <c r="J333" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K333" s="4" t="s">
+      <c r="J333" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K333" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L333" t="n">
@@ -9793,28 +9841,28 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="s" s="4">
+      <c r="A335" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B335" t="s" s="4">
+      <c r="B335" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C335" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D335" t="s" s="4">
+      <c r="C335" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D335" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E335" t="s" s="4">
+      <c r="E335" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F335" t="s" s="4">
+      <c r="F335" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G335" t="s" s="4">
+      <c r="G335" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H335" t="s" s="4">
+      <c r="H335" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9839,28 +9887,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="B337" t="s" s="4">
+      <c r="B337" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C337" t="s" s="4">
+      <c r="C337" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D337" t="s" s="4">
+      <c r="D337" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E337" t="s" s="4">
+      <c r="E337" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F337" t="s" s="4">
+      <c r="F337" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G337" t="s" s="4">
+      <c r="G337" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H337" t="s" s="4">
+      <c r="H337" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I337" t="s" s="4">
+      <c r="I337" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9919,10 +9967,10 @@
       <c r="I339">
         <f>((C339-C338)^2+(D339- D338)^2)^.5</f>
       </c>
-      <c r="J339" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K339" s="4" t="s">
+      <c r="J339" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K339" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L339" t="n">
@@ -9966,28 +10014,28 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="s" s="4">
+      <c r="A341" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B341" t="s" s="4">
+      <c r="B341" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C341" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D341" t="s" s="4">
+      <c r="C341" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D341" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E341" t="s" s="4">
+      <c r="E341" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F341" t="s" s="4">
+      <c r="F341" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G341" t="s" s="4">
+      <c r="G341" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H341" t="s" s="4">
+      <c r="H341" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10012,28 +10060,28 @@
       </c>
     </row>
     <row r="343">
-      <c r="B343" t="s" s="4">
+      <c r="B343" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C343" t="s" s="4">
+      <c r="C343" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D343" t="s" s="4">
+      <c r="D343" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E343" t="s" s="4">
+      <c r="E343" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F343" t="s" s="4">
+      <c r="F343" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G343" t="s" s="4">
+      <c r="G343" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H343" t="s" s="4">
+      <c r="H343" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I343" t="s" s="4">
+      <c r="I343" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10092,10 +10140,10 @@
       <c r="I345">
         <f>((C345-C344)^2+(D345- D344)^2)^.5</f>
       </c>
-      <c r="J345" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K345" s="4" t="s">
+      <c r="J345" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K345" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L345" t="n">
@@ -10139,28 +10187,28 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="s" s="4">
+      <c r="A347" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B347" t="s" s="4">
+      <c r="B347" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C347" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D347" t="s" s="4">
+      <c r="C347" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D347" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E347" t="s" s="4">
+      <c r="E347" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F347" t="s" s="4">
+      <c r="F347" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G347" t="s" s="4">
+      <c r="G347" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H347" t="s" s="4">
+      <c r="H347" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10185,28 +10233,28 @@
       </c>
     </row>
     <row r="349">
-      <c r="B349" t="s" s="4">
+      <c r="B349" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C349" t="s" s="4">
+      <c r="C349" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D349" t="s" s="4">
+      <c r="D349" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E349" t="s" s="4">
+      <c r="E349" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F349" t="s" s="4">
+      <c r="F349" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G349" t="s" s="4">
+      <c r="G349" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H349" t="s" s="4">
+      <c r="H349" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I349" t="s" s="4">
+      <c r="I349" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10265,10 +10313,10 @@
       <c r="I351">
         <f>((C351-C350)^2+(D351- D350)^2)^.5</f>
       </c>
-      <c r="J351" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K351" s="4" t="s">
+      <c r="J351" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K351" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L351" t="n">
@@ -10312,28 +10360,28 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="s" s="4">
+      <c r="A353" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B353" t="s" s="4">
+      <c r="B353" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C353" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D353" t="s" s="4">
+      <c r="C353" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D353" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E353" t="s" s="4">
+      <c r="E353" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F353" t="s" s="4">
+      <c r="F353" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G353" t="s" s="4">
+      <c r="G353" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H353" t="s" s="4">
+      <c r="H353" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10358,28 +10406,28 @@
       </c>
     </row>
     <row r="355">
-      <c r="B355" t="s" s="4">
+      <c r="B355" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C355" t="s" s="4">
+      <c r="C355" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D355" t="s" s="4">
+      <c r="D355" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E355" t="s" s="4">
+      <c r="E355" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F355" t="s" s="4">
+      <c r="F355" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G355" t="s" s="4">
+      <c r="G355" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H355" t="s" s="4">
+      <c r="H355" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I355" t="s" s="4">
+      <c r="I355" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10438,10 +10486,10 @@
       <c r="I357">
         <f>((C357-C356)^2+(D357- D356)^2)^.5</f>
       </c>
-      <c r="J357" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K357" s="4" t="s">
+      <c r="J357" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K357" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L357" t="n">
@@ -10485,28 +10533,28 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" t="s" s="4">
+      <c r="A359" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B359" t="s" s="4">
+      <c r="B359" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C359" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D359" t="s" s="4">
+      <c r="C359" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D359" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E359" t="s" s="4">
+      <c r="E359" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F359" t="s" s="4">
+      <c r="F359" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G359" t="s" s="4">
+      <c r="G359" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H359" t="s" s="4">
+      <c r="H359" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10531,28 +10579,28 @@
       </c>
     </row>
     <row r="361">
-      <c r="B361" t="s" s="4">
+      <c r="B361" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C361" t="s" s="4">
+      <c r="C361" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D361" t="s" s="4">
+      <c r="D361" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E361" t="s" s="4">
+      <c r="E361" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F361" t="s" s="4">
+      <c r="F361" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G361" t="s" s="4">
+      <c r="G361" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H361" t="s" s="4">
+      <c r="H361" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I361" t="s" s="4">
+      <c r="I361" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10611,10 +10659,10 @@
       <c r="I363">
         <f>((C363-C362)^2+(D363- D362)^2)^.5</f>
       </c>
-      <c r="J363" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K363" s="4" t="s">
+      <c r="J363" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K363" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L363" t="n">
@@ -10658,28 +10706,28 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="s" s="4">
+      <c r="A365" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B365" t="s" s="4">
+      <c r="B365" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C365" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D365" t="s" s="4">
+      <c r="C365" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D365" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E365" t="s" s="4">
+      <c r="E365" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F365" t="s" s="4">
+      <c r="F365" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G365" t="s" s="4">
+      <c r="G365" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H365" t="s" s="4">
+      <c r="H365" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10704,28 +10752,28 @@
       </c>
     </row>
     <row r="367">
-      <c r="B367" t="s" s="4">
+      <c r="B367" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C367" t="s" s="4">
+      <c r="C367" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D367" t="s" s="4">
+      <c r="D367" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E367" t="s" s="4">
+      <c r="E367" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F367" t="s" s="4">
+      <c r="F367" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G367" t="s" s="4">
+      <c r="G367" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H367" t="s" s="4">
+      <c r="H367" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I367" t="s" s="4">
+      <c r="I367" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10784,10 +10832,10 @@
       <c r="I369">
         <f>((C369-C368)^2+(D369- D368)^2)^.5</f>
       </c>
-      <c r="J369" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K369" s="4" t="s">
+      <c r="J369" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K369" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L369" t="n">
@@ -10831,28 +10879,28 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="s" s="4">
+      <c r="A371" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B371" t="s" s="4">
+      <c r="B371" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C371" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D371" t="s" s="4">
+      <c r="C371" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D371" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E371" t="s" s="4">
+      <c r="E371" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F371" t="s" s="4">
+      <c r="F371" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G371" t="s" s="4">
+      <c r="G371" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H371" t="s" s="4">
+      <c r="H371" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10877,28 +10925,28 @@
       </c>
     </row>
     <row r="373">
-      <c r="B373" t="s" s="4">
+      <c r="B373" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C373" t="s" s="4">
+      <c r="C373" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D373" t="s" s="4">
+      <c r="D373" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E373" t="s" s="4">
+      <c r="E373" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F373" t="s" s="4">
+      <c r="F373" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G373" t="s" s="4">
+      <c r="G373" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H373" t="s" s="4">
+      <c r="H373" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I373" t="s" s="4">
+      <c r="I373" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10957,10 +11005,10 @@
       <c r="I375">
         <f>((C375-C374)^2+(D375- D374)^2)^.5</f>
       </c>
-      <c r="J375" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K375" s="4" t="s">
+      <c r="J375" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K375" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L375" t="n">
@@ -11004,28 +11052,28 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" t="s" s="4">
+      <c r="A377" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B377" t="s" s="4">
+      <c r="B377" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C377" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D377" t="s" s="4">
+      <c r="C377" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D377" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E377" t="s" s="4">
+      <c r="E377" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F377" t="s" s="4">
+      <c r="F377" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G377" t="s" s="4">
+      <c r="G377" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H377" t="s" s="4">
+      <c r="H377" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11050,28 +11098,28 @@
       </c>
     </row>
     <row r="379">
-      <c r="B379" t="s" s="4">
+      <c r="B379" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C379" t="s" s="4">
+      <c r="C379" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D379" t="s" s="4">
+      <c r="D379" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E379" t="s" s="4">
+      <c r="E379" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F379" t="s" s="4">
+      <c r="F379" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G379" t="s" s="4">
+      <c r="G379" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H379" t="s" s="4">
+      <c r="H379" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I379" t="s" s="4">
+      <c r="I379" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11130,10 +11178,10 @@
       <c r="I381">
         <f>((C381-C380)^2+(D381- D380)^2)^.5</f>
       </c>
-      <c r="J381" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K381" s="4" t="s">
+      <c r="J381" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K381" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L381" t="n">
@@ -11177,28 +11225,28 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" t="s" s="4">
+      <c r="A383" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B383" t="s" s="4">
+      <c r="B383" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C383" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D383" t="s" s="4">
+      <c r="C383" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D383" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E383" t="s" s="4">
+      <c r="E383" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F383" t="s" s="4">
+      <c r="F383" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G383" t="s" s="4">
+      <c r="G383" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H383" t="s" s="4">
+      <c r="H383" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11223,28 +11271,28 @@
       </c>
     </row>
     <row r="385">
-      <c r="B385" t="s" s="4">
+      <c r="B385" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C385" t="s" s="4">
+      <c r="C385" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D385" t="s" s="4">
+      <c r="D385" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E385" t="s" s="4">
+      <c r="E385" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F385" t="s" s="4">
+      <c r="F385" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G385" t="s" s="4">
+      <c r="G385" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H385" t="s" s="4">
+      <c r="H385" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I385" t="s" s="4">
+      <c r="I385" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11303,10 +11351,10 @@
       <c r="I387">
         <f>((C387-C386)^2+(D387- D386)^2)^.5</f>
       </c>
-      <c r="J387" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K387" s="4" t="s">
+      <c r="J387" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K387" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L387" t="n">
@@ -11350,28 +11398,28 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" t="s" s="4">
+      <c r="A389" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B389" t="s" s="4">
+      <c r="B389" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C389" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D389" t="s" s="4">
+      <c r="C389" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D389" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E389" t="s" s="4">
+      <c r="E389" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F389" t="s" s="4">
+      <c r="F389" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G389" t="s" s="4">
+      <c r="G389" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H389" t="s" s="4">
+      <c r="H389" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11396,28 +11444,28 @@
       </c>
     </row>
     <row r="391">
-      <c r="B391" t="s" s="4">
+      <c r="B391" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C391" t="s" s="4">
+      <c r="C391" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D391" t="s" s="4">
+      <c r="D391" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E391" t="s" s="4">
+      <c r="E391" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F391" t="s" s="4">
+      <c r="F391" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G391" t="s" s="4">
+      <c r="G391" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H391" t="s" s="4">
+      <c r="H391" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I391" t="s" s="4">
+      <c r="I391" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11505,10 +11553,10 @@
       <c r="I394">
         <f>((C394-C393)^2+(D394- D393)^2)^.5</f>
       </c>
-      <c r="J394" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K394" s="4" t="s">
+      <c r="J394" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K394" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L394" t="n">
@@ -11552,28 +11600,28 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" t="s" s="4">
+      <c r="A396" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B396" t="s" s="4">
+      <c r="B396" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C396" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D396" t="s" s="4">
+      <c r="C396" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D396" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E396" t="s" s="4">
+      <c r="E396" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F396" t="s" s="4">
+      <c r="F396" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G396" t="s" s="4">
+      <c r="G396" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H396" t="s" s="4">
+      <c r="H396" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11598,28 +11646,28 @@
       </c>
     </row>
     <row r="398">
-      <c r="B398" t="s" s="4">
+      <c r="B398" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C398" t="s" s="4">
+      <c r="C398" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D398" t="s" s="4">
+      <c r="D398" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E398" t="s" s="4">
+      <c r="E398" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F398" t="s" s="4">
+      <c r="F398" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G398" t="s" s="4">
+      <c r="G398" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H398" t="s" s="4">
+      <c r="H398" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I398" t="s" s="4">
+      <c r="I398" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11678,10 +11726,10 @@
       <c r="I400">
         <f>((C400-C399)^2+(D400- D399)^2)^.5</f>
       </c>
-      <c r="J400" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K400" s="4" t="s">
+      <c r="J400" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K400" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L400" t="n">
@@ -11725,28 +11773,28 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" t="s" s="4">
+      <c r="A402" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B402" t="s" s="4">
+      <c r="B402" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C402" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D402" t="s" s="4">
+      <c r="C402" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D402" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E402" t="s" s="4">
+      <c r="E402" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F402" t="s" s="4">
+      <c r="F402" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G402" t="s" s="4">
+      <c r="G402" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H402" t="s" s="4">
+      <c r="H402" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11771,28 +11819,28 @@
       </c>
     </row>
     <row r="404">
-      <c r="B404" t="s" s="4">
+      <c r="B404" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C404" t="s" s="4">
+      <c r="C404" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D404" t="s" s="4">
+      <c r="D404" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E404" t="s" s="4">
+      <c r="E404" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F404" t="s" s="4">
+      <c r="F404" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G404" t="s" s="4">
+      <c r="G404" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H404" t="s" s="4">
+      <c r="H404" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I404" t="s" s="4">
+      <c r="I404" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11851,10 +11899,10 @@
       <c r="I406">
         <f>((C406-C405)^2+(D406- D405)^2)^.5</f>
       </c>
-      <c r="J406" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K406" s="4" t="s">
+      <c r="J406" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K406" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L406" t="n">
@@ -11898,28 +11946,28 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" t="s" s="4">
+      <c r="A408" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B408" t="s" s="4">
+      <c r="B408" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C408" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D408" t="s" s="4">
+      <c r="C408" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D408" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E408" t="s" s="4">
+      <c r="E408" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F408" t="s" s="4">
+      <c r="F408" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G408" t="s" s="4">
+      <c r="G408" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H408" t="s" s="4">
+      <c r="H408" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11944,28 +11992,28 @@
       </c>
     </row>
     <row r="410">
-      <c r="B410" t="s" s="4">
+      <c r="B410" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C410" t="s" s="4">
+      <c r="C410" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D410" t="s" s="4">
+      <c r="D410" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E410" t="s" s="4">
+      <c r="E410" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F410" t="s" s="4">
+      <c r="F410" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G410" t="s" s="4">
+      <c r="G410" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H410" t="s" s="4">
+      <c r="H410" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I410" t="s" s="4">
+      <c r="I410" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12024,10 +12072,10 @@
       <c r="I412">
         <f>((C412-C411)^2+(D412- D411)^2)^.5</f>
       </c>
-      <c r="J412" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K412" s="4" t="s">
+      <c r="J412" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K412" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L412" t="n">
@@ -12071,28 +12119,28 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" t="s" s="4">
+      <c r="A414" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B414" t="s" s="4">
+      <c r="B414" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C414" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D414" t="s" s="4">
+      <c r="C414" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D414" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E414" t="s" s="4">
+      <c r="E414" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F414" t="s" s="4">
+      <c r="F414" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G414" t="s" s="4">
+      <c r="G414" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H414" t="s" s="4">
+      <c r="H414" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -12117,28 +12165,28 @@
       </c>
     </row>
     <row r="416">
-      <c r="B416" t="s" s="4">
+      <c r="B416" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C416" t="s" s="4">
+      <c r="C416" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D416" t="s" s="4">
+      <c r="D416" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E416" t="s" s="4">
+      <c r="E416" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F416" t="s" s="4">
+      <c r="F416" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G416" t="s" s="4">
+      <c r="G416" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H416" t="s" s="4">
+      <c r="H416" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I416" t="s" s="4">
+      <c r="I416" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12197,10 +12245,10 @@
       <c r="I418">
         <f>((C418-C417)^2+(D418- D417)^2)^.5</f>
       </c>
-      <c r="J418" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K418" s="4" t="s">
+      <c r="J418" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K418" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L418" t="n">
@@ -12244,28 +12292,28 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" t="s" s="4">
+      <c r="A420" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B420" t="s" s="4">
+      <c r="B420" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C420" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D420" t="s" s="4">
+      <c r="C420" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D420" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E420" t="s" s="4">
+      <c r="E420" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F420" t="s" s="4">
+      <c r="F420" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G420" t="s" s="4">
+      <c r="G420" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H420" t="s" s="4">
+      <c r="H420" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -12290,28 +12338,28 @@
       </c>
     </row>
     <row r="422">
-      <c r="B422" t="s" s="4">
+      <c r="B422" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C422" t="s" s="4">
+      <c r="C422" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D422" t="s" s="4">
+      <c r="D422" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E422" t="s" s="4">
+      <c r="E422" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F422" t="s" s="4">
+      <c r="F422" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G422" t="s" s="4">
+      <c r="G422" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H422" t="s" s="4">
+      <c r="H422" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I422" t="s" s="4">
+      <c r="I422" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12370,10 +12418,10 @@
       <c r="I424">
         <f>((C424-C423)^2+(D424- D423)^2)^.5</f>
       </c>
-      <c r="J424" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K424" s="4" t="s">
+      <c r="J424" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K424" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L424" t="n">
@@ -12417,28 +12465,28 @@
       </c>
     </row>
     <row r="426">
-      <c r="A426" t="s" s="4">
+      <c r="A426" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B426" t="s" s="4">
+      <c r="B426" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C426" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D426" t="s" s="4">
+      <c r="C426" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D426" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E426" t="s" s="4">
+      <c r="E426" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F426" t="s" s="4">
+      <c r="F426" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G426" t="s" s="4">
+      <c r="G426" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H426" t="s" s="4">
+      <c r="H426" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -12463,28 +12511,28 @@
       </c>
     </row>
     <row r="428">
-      <c r="B428" t="s" s="4">
+      <c r="B428" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C428" t="s" s="4">
+      <c r="C428" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D428" t="s" s="4">
+      <c r="D428" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E428" t="s" s="4">
+      <c r="E428" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F428" t="s" s="4">
+      <c r="F428" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G428" t="s" s="4">
+      <c r="G428" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H428" t="s" s="4">
+      <c r="H428" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I428" t="s" s="4">
+      <c r="I428" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12543,10 +12591,10 @@
       <c r="I430">
         <f>((C430-C429)^2+(D430- D429)^2)^.5</f>
       </c>
-      <c r="J430" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K430" s="4" t="s">
+      <c r="J430" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K430" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L430" t="n">
@@ -12590,28 +12638,28 @@
       </c>
     </row>
     <row r="432">
-      <c r="A432" t="s" s="4">
+      <c r="A432" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B432" t="s" s="4">
+      <c r="B432" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C432" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D432" t="s" s="4">
+      <c r="C432" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D432" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E432" t="s" s="4">
+      <c r="E432" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F432" t="s" s="4">
+      <c r="F432" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G432" t="s" s="4">
+      <c r="G432" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H432" t="s" s="4">
+      <c r="H432" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -12636,28 +12684,28 @@
       </c>
     </row>
     <row r="434">
-      <c r="B434" t="s" s="4">
+      <c r="B434" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C434" t="s" s="4">
+      <c r="C434" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D434" t="s" s="4">
+      <c r="D434" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E434" t="s" s="4">
+      <c r="E434" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F434" t="s" s="4">
+      <c r="F434" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G434" t="s" s="4">
+      <c r="G434" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H434" t="s" s="4">
+      <c r="H434" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I434" t="s" s="4">
+      <c r="I434" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12716,10 +12764,10 @@
       <c r="I436">
         <f>((C436-C435)^2+(D436- D435)^2)^.5</f>
       </c>
-      <c r="J436" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K436" s="4" t="s">
+      <c r="J436" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K436" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L436" t="n">
@@ -12763,28 +12811,28 @@
       </c>
     </row>
     <row r="438">
-      <c r="A438" t="s" s="4">
+      <c r="A438" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B438" t="s" s="4">
+      <c r="B438" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C438" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D438" t="s" s="4">
+      <c r="C438" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D438" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E438" t="s" s="4">
+      <c r="E438" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F438" t="s" s="4">
+      <c r="F438" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G438" t="s" s="4">
+      <c r="G438" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H438" t="s" s="4">
+      <c r="H438" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -12809,28 +12857,28 @@
       </c>
     </row>
     <row r="440">
-      <c r="B440" t="s" s="4">
+      <c r="B440" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C440" t="s" s="4">
+      <c r="C440" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D440" t="s" s="4">
+      <c r="D440" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E440" t="s" s="4">
+      <c r="E440" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F440" t="s" s="4">
+      <c r="F440" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G440" t="s" s="4">
+      <c r="G440" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H440" t="s" s="4">
+      <c r="H440" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I440" t="s" s="4">
+      <c r="I440" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12889,10 +12937,10 @@
       <c r="I442">
         <f>((C442-C441)^2+(D442- D441)^2)^.5</f>
       </c>
-      <c r="J442" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K442" s="4" t="s">
+      <c r="J442" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K442" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L442" t="n">
@@ -12936,28 +12984,28 @@
       </c>
     </row>
     <row r="444">
-      <c r="A444" t="s" s="4">
+      <c r="A444" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B444" t="s" s="4">
+      <c r="B444" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C444" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D444" t="s" s="4">
+      <c r="C444" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D444" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E444" t="s" s="4">
+      <c r="E444" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F444" t="s" s="4">
+      <c r="F444" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G444" t="s" s="4">
+      <c r="G444" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H444" t="s" s="4">
+      <c r="H444" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -12982,28 +13030,28 @@
       </c>
     </row>
     <row r="446">
-      <c r="B446" t="s" s="4">
+      <c r="B446" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C446" t="s" s="4">
+      <c r="C446" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D446" t="s" s="4">
+      <c r="D446" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E446" t="s" s="4">
+      <c r="E446" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F446" t="s" s="4">
+      <c r="F446" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G446" t="s" s="4">
+      <c r="G446" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H446" t="s" s="4">
+      <c r="H446" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I446" t="s" s="4">
+      <c r="I446" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -13062,10 +13110,10 @@
       <c r="I448">
         <f>((C448-C447)^2+(D448- D447)^2)^.5</f>
       </c>
-      <c r="J448" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K448" s="4" t="s">
+      <c r="J448" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K448" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L448" t="n">
@@ -13109,28 +13157,28 @@
       </c>
     </row>
     <row r="450">
-      <c r="A450" t="s" s="4">
+      <c r="A450" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B450" t="s" s="4">
+      <c r="B450" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C450" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D450" t="s" s="4">
+      <c r="C450" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D450" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E450" t="s" s="4">
+      <c r="E450" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F450" t="s" s="4">
+      <c r="F450" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G450" t="s" s="4">
+      <c r="G450" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H450" t="s" s="4">
+      <c r="H450" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -13155,28 +13203,28 @@
       </c>
     </row>
     <row r="452">
-      <c r="B452" t="s" s="4">
+      <c r="B452" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C452" t="s" s="4">
+      <c r="C452" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D452" t="s" s="4">
+      <c r="D452" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E452" t="s" s="4">
+      <c r="E452" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F452" t="s" s="4">
+      <c r="F452" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G452" t="s" s="4">
+      <c r="G452" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H452" t="s" s="4">
+      <c r="H452" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I452" t="s" s="4">
+      <c r="I452" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -13235,10 +13283,10 @@
       <c r="I454">
         <f>((C454-C453)^2+(D454- D453)^2)^.5</f>
       </c>
-      <c r="J454" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K454" s="4" t="s">
+      <c r="J454" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K454" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L454" t="n">
@@ -13282,28 +13330,28 @@
       </c>
     </row>
     <row r="456">
-      <c r="A456" t="s" s="4">
+      <c r="A456" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B456" t="s" s="4">
+      <c r="B456" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C456" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D456" t="s" s="4">
+      <c r="C456" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D456" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E456" t="s" s="4">
+      <c r="E456" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F456" t="s" s="4">
+      <c r="F456" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G456" t="s" s="4">
+      <c r="G456" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H456" t="s" s="4">
+      <c r="H456" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -13328,28 +13376,28 @@
       </c>
     </row>
     <row r="458">
-      <c r="B458" t="s" s="4">
+      <c r="B458" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C458" t="s" s="4">
+      <c r="C458" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D458" t="s" s="4">
+      <c r="D458" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E458" t="s" s="4">
+      <c r="E458" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F458" t="s" s="4">
+      <c r="F458" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G458" t="s" s="4">
+      <c r="G458" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H458" t="s" s="4">
+      <c r="H458" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I458" t="s" s="4">
+      <c r="I458" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -13408,10 +13456,10 @@
       <c r="I460">
         <f>((C460-C459)^2+(D460- D459)^2)^.5</f>
       </c>
-      <c r="J460" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K460" s="4" t="s">
+      <c r="J460" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K460" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L460" t="n">
@@ -13455,28 +13503,28 @@
       </c>
     </row>
     <row r="462">
-      <c r="A462" t="s" s="4">
+      <c r="A462" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B462" t="s" s="4">
+      <c r="B462" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C462" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D462" t="s" s="4">
+      <c r="C462" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D462" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E462" t="s" s="4">
+      <c r="E462" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F462" t="s" s="4">
+      <c r="F462" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G462" t="s" s="4">
+      <c r="G462" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H462" t="s" s="4">
+      <c r="H462" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -13501,28 +13549,28 @@
       </c>
     </row>
     <row r="464">
-      <c r="B464" t="s" s="4">
+      <c r="B464" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C464" t="s" s="4">
+      <c r="C464" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D464" t="s" s="4">
+      <c r="D464" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E464" t="s" s="4">
+      <c r="E464" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F464" t="s" s="4">
+      <c r="F464" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G464" t="s" s="4">
+      <c r="G464" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H464" t="s" s="4">
+      <c r="H464" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I464" t="s" s="4">
+      <c r="I464" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -13581,10 +13629,10 @@
       <c r="I466">
         <f>((C466-C465)^2+(D466- D465)^2)^.5</f>
       </c>
-      <c r="J466" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K466" s="4" t="s">
+      <c r="J466" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K466" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L466" t="n">
@@ -13628,28 +13676,28 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" t="s" s="4">
+      <c r="A468" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B468" t="s" s="4">
+      <c r="B468" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C468" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D468" t="s" s="4">
+      <c r="C468" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D468" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E468" t="s" s="4">
+      <c r="E468" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F468" t="s" s="4">
+      <c r="F468" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G468" t="s" s="4">
+      <c r="G468" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H468" t="s" s="4">
+      <c r="H468" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -13674,28 +13722,28 @@
       </c>
     </row>
     <row r="470">
-      <c r="B470" t="s" s="4">
+      <c r="B470" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C470" t="s" s="4">
+      <c r="C470" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D470" t="s" s="4">
+      <c r="D470" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E470" t="s" s="4">
+      <c r="E470" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F470" t="s" s="4">
+      <c r="F470" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G470" t="s" s="4">
+      <c r="G470" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H470" t="s" s="4">
+      <c r="H470" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I470" t="s" s="4">
+      <c r="I470" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -13754,10 +13802,10 @@
       <c r="I472">
         <f>((C472-C471)^2+(D472- D471)^2)^.5</f>
       </c>
-      <c r="J472" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K472" s="4" t="s">
+      <c r="J472" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K472" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L472" t="n">
@@ -13801,28 +13849,28 @@
       </c>
     </row>
     <row r="474">
-      <c r="A474" t="s" s="4">
+      <c r="A474" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B474" t="s" s="4">
+      <c r="B474" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C474" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D474" t="s" s="4">
+      <c r="C474" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D474" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E474" t="s" s="4">
+      <c r="E474" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F474" t="s" s="4">
+      <c r="F474" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G474" t="s" s="4">
+      <c r="G474" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H474" t="s" s="4">
+      <c r="H474" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -13847,28 +13895,28 @@
       </c>
     </row>
     <row r="476">
-      <c r="B476" t="s" s="4">
+      <c r="B476" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C476" t="s" s="4">
+      <c r="C476" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D476" t="s" s="4">
+      <c r="D476" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E476" t="s" s="4">
+      <c r="E476" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F476" t="s" s="4">
+      <c r="F476" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G476" t="s" s="4">
+      <c r="G476" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H476" t="s" s="4">
+      <c r="H476" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I476" t="s" s="4">
+      <c r="I476" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -13927,10 +13975,10 @@
       <c r="I478">
         <f>((C478-C477)^2+(D478- D477)^2)^.5</f>
       </c>
-      <c r="J478" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K478" s="4" t="s">
+      <c r="J478" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K478" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L478" t="n">
@@ -13974,28 +14022,28 @@
       </c>
     </row>
     <row r="480">
-      <c r="A480" t="s" s="4">
+      <c r="A480" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B480" t="s" s="4">
+      <c r="B480" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C480" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D480" t="s" s="4">
+      <c r="C480" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D480" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E480" t="s" s="4">
+      <c r="E480" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F480" t="s" s="4">
+      <c r="F480" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G480" t="s" s="4">
+      <c r="G480" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H480" t="s" s="4">
+      <c r="H480" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -14020,28 +14068,28 @@
       </c>
     </row>
     <row r="482">
-      <c r="B482" t="s" s="4">
+      <c r="B482" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C482" t="s" s="4">
+      <c r="C482" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D482" t="s" s="4">
+      <c r="D482" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E482" t="s" s="4">
+      <c r="E482" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F482" t="s" s="4">
+      <c r="F482" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G482" t="s" s="4">
+      <c r="G482" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H482" t="s" s="4">
+      <c r="H482" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I482" t="s" s="4">
+      <c r="I482" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -14100,10 +14148,10 @@
       <c r="I484">
         <f>((C484-C483)^2+(D484- D483)^2)^.5</f>
       </c>
-      <c r="J484" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K484" s="4" t="s">
+      <c r="J484" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K484" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L484" t="n">
@@ -14147,28 +14195,28 @@
       </c>
     </row>
     <row r="486">
-      <c r="A486" t="s" s="4">
+      <c r="A486" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B486" t="s" s="4">
+      <c r="B486" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C486" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D486" t="s" s="4">
+      <c r="C486" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D486" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E486" t="s" s="4">
+      <c r="E486" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F486" t="s" s="4">
+      <c r="F486" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G486" t="s" s="4">
+      <c r="G486" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H486" t="s" s="4">
+      <c r="H486" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -14193,28 +14241,28 @@
       </c>
     </row>
     <row r="488">
-      <c r="B488" t="s" s="4">
+      <c r="B488" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C488" t="s" s="4">
+      <c r="C488" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D488" t="s" s="4">
+      <c r="D488" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E488" t="s" s="4">
+      <c r="E488" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F488" t="s" s="4">
+      <c r="F488" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G488" t="s" s="4">
+      <c r="G488" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H488" t="s" s="4">
+      <c r="H488" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I488" t="s" s="4">
+      <c r="I488" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -14273,10 +14321,10 @@
       <c r="I490">
         <f>((C490-C489)^2+(D490- D489)^2)^.5</f>
       </c>
-      <c r="J490" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K490" s="4" t="s">
+      <c r="J490" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K490" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L490" t="n">
@@ -14320,28 +14368,28 @@
       </c>
     </row>
     <row r="492">
-      <c r="A492" t="s" s="4">
+      <c r="A492" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B492" t="s" s="4">
+      <c r="B492" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C492" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D492" t="s" s="4">
+      <c r="C492" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D492" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E492" t="s" s="4">
+      <c r="E492" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F492" t="s" s="4">
+      <c r="F492" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G492" t="s" s="4">
+      <c r="G492" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H492" t="s" s="4">
+      <c r="H492" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -14366,28 +14414,28 @@
       </c>
     </row>
     <row r="494">
-      <c r="B494" t="s" s="4">
+      <c r="B494" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C494" t="s" s="4">
+      <c r="C494" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D494" t="s" s="4">
+      <c r="D494" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E494" t="s" s="4">
+      <c r="E494" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F494" t="s" s="4">
+      <c r="F494" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G494" t="s" s="4">
+      <c r="G494" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H494" t="s" s="4">
+      <c r="H494" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I494" t="s" s="4">
+      <c r="I494" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -14446,10 +14494,10 @@
       <c r="I496">
         <f>((C496-C495)^2+(D496- D495)^2)^.5</f>
       </c>
-      <c r="J496" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K496" s="4" t="s">
+      <c r="J496" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K496" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L496" t="n">
@@ -14493,28 +14541,28 @@
       </c>
     </row>
     <row r="498">
-      <c r="A498" t="s" s="4">
+      <c r="A498" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B498" t="s" s="4">
+      <c r="B498" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C498" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D498" t="s" s="4">
+      <c r="C498" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D498" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E498" t="s" s="4">
+      <c r="E498" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F498" t="s" s="4">
+      <c r="F498" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G498" t="s" s="4">
+      <c r="G498" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H498" t="s" s="4">
+      <c r="H498" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -14539,28 +14587,28 @@
       </c>
     </row>
     <row r="500">
-      <c r="B500" t="s" s="4">
+      <c r="B500" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C500" t="s" s="4">
+      <c r="C500" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D500" t="s" s="4">
+      <c r="D500" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E500" t="s" s="4">
+      <c r="E500" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F500" t="s" s="4">
+      <c r="F500" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G500" t="s" s="4">
+      <c r="G500" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H500" t="s" s="4">
+      <c r="H500" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I500" t="s" s="4">
+      <c r="I500" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -14619,10 +14667,10 @@
       <c r="I502">
         <f>((C502-C501)^2+(D502- D501)^2)^.5</f>
       </c>
-      <c r="J502" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K502" s="4" t="s">
+      <c r="J502" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K502" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L502" t="n">
@@ -14666,28 +14714,28 @@
       </c>
     </row>
     <row r="504">
-      <c r="A504" t="s" s="4">
+      <c r="A504" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B504" t="s" s="4">
+      <c r="B504" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C504" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D504" t="s" s="4">
+      <c r="C504" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D504" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E504" t="s" s="4">
+      <c r="E504" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F504" t="s" s="4">
+      <c r="F504" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G504" t="s" s="4">
+      <c r="G504" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H504" t="s" s="4">
+      <c r="H504" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -14712,28 +14760,28 @@
       </c>
     </row>
     <row r="506">
-      <c r="B506" t="s" s="4">
+      <c r="B506" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C506" t="s" s="4">
+      <c r="C506" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D506" t="s" s="4">
+      <c r="D506" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E506" t="s" s="4">
+      <c r="E506" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F506" t="s" s="4">
+      <c r="F506" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G506" t="s" s="4">
+      <c r="G506" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H506" t="s" s="4">
+      <c r="H506" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I506" t="s" s="4">
+      <c r="I506" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -14792,10 +14840,10 @@
       <c r="I508">
         <f>((C508-C507)^2+(D508- D507)^2)^.5</f>
       </c>
-      <c r="J508" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K508" s="4" t="s">
+      <c r="J508" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K508" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L508" t="n">
@@ -14839,28 +14887,28 @@
       </c>
     </row>
     <row r="510">
-      <c r="A510" t="s" s="4">
+      <c r="A510" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B510" t="s" s="4">
+      <c r="B510" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C510" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D510" t="s" s="4">
+      <c r="C510" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D510" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E510" t="s" s="4">
+      <c r="E510" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F510" t="s" s="4">
+      <c r="F510" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G510" t="s" s="4">
+      <c r="G510" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H510" t="s" s="4">
+      <c r="H510" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -14885,28 +14933,28 @@
       </c>
     </row>
     <row r="512">
-      <c r="B512" t="s" s="4">
+      <c r="B512" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C512" t="s" s="4">
+      <c r="C512" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D512" t="s" s="4">
+      <c r="D512" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E512" t="s" s="4">
+      <c r="E512" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F512" t="s" s="4">
+      <c r="F512" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G512" t="s" s="4">
+      <c r="G512" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H512" t="s" s="4">
+      <c r="H512" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I512" t="s" s="4">
+      <c r="I512" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -14965,10 +15013,10 @@
       <c r="I514">
         <f>((C514-C513)^2+(D514- D513)^2)^.5</f>
       </c>
-      <c r="J514" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K514" s="4" t="s">
+      <c r="J514" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K514" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L514" t="n">
@@ -15012,28 +15060,28 @@
       </c>
     </row>
     <row r="516">
-      <c r="A516" t="s" s="4">
+      <c r="A516" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B516" t="s" s="4">
+      <c r="B516" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C516" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D516" t="s" s="4">
+      <c r="C516" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D516" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E516" t="s" s="4">
+      <c r="E516" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F516" t="s" s="4">
+      <c r="F516" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G516" t="s" s="4">
+      <c r="G516" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H516" t="s" s="4">
+      <c r="H516" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -15058,28 +15106,28 @@
       </c>
     </row>
     <row r="518">
-      <c r="B518" t="s" s="4">
+      <c r="B518" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C518" t="s" s="4">
+      <c r="C518" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D518" t="s" s="4">
+      <c r="D518" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E518" t="s" s="4">
+      <c r="E518" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F518" t="s" s="4">
+      <c r="F518" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G518" t="s" s="4">
+      <c r="G518" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H518" t="s" s="4">
+      <c r="H518" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I518" t="s" s="4">
+      <c r="I518" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -15138,10 +15186,10 @@
       <c r="I520">
         <f>((C520-C519)^2+(D520- D519)^2)^.5</f>
       </c>
-      <c r="J520" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K520" s="4" t="s">
+      <c r="J520" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K520" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L520" t="n">
@@ -15185,28 +15233,28 @@
       </c>
     </row>
     <row r="522">
-      <c r="A522" t="s" s="4">
+      <c r="A522" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B522" t="s" s="4">
+      <c r="B522" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C522" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D522" t="s" s="4">
+      <c r="C522" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D522" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E522" t="s" s="4">
+      <c r="E522" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F522" t="s" s="4">
+      <c r="F522" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G522" t="s" s="4">
+      <c r="G522" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H522" t="s" s="4">
+      <c r="H522" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -15231,28 +15279,28 @@
       </c>
     </row>
     <row r="524">
-      <c r="B524" t="s" s="4">
+      <c r="B524" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C524" t="s" s="4">
+      <c r="C524" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D524" t="s" s="4">
+      <c r="D524" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E524" t="s" s="4">
+      <c r="E524" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F524" t="s" s="4">
+      <c r="F524" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G524" t="s" s="4">
+      <c r="G524" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H524" t="s" s="4">
+      <c r="H524" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I524" t="s" s="4">
+      <c r="I524" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -15311,10 +15359,10 @@
       <c r="I526">
         <f>((C526-C525)^2+(D526- D525)^2)^.5</f>
       </c>
-      <c r="J526" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K526" s="4" t="s">
+      <c r="J526" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K526" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L526" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c106_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c106_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18552" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23190" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="12">
+      <c r="C3" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -392,10 +410,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="12" t="s">
+      <c r="J7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -439,28 +457,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="12">
+      <c r="A9" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="12">
+      <c r="B9" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="12">
+      <c r="C9" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="12">
+      <c r="E9" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="12">
+      <c r="F9" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="12">
+      <c r="G9" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="12">
+      <c r="H9" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -485,28 +503,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="12">
+      <c r="B11" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="12">
+      <c r="C11" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="12">
+      <c r="D11" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="12">
+      <c r="E11" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="12">
+      <c r="F11" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="12">
+      <c r="G11" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="12">
+      <c r="H11" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="12">
+      <c r="I11" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -652,10 +670,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="12" t="s">
+      <c r="J16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -699,28 +717,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="12">
+      <c r="A18" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="12">
+      <c r="B18" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="12">
+      <c r="C18" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="12">
+      <c r="E18" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="12">
+      <c r="F18" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="12">
+      <c r="G18" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="12">
+      <c r="H18" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -745,28 +763,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="12">
+      <c r="B20" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="12">
+      <c r="C20" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="12">
+      <c r="D20" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="12">
+      <c r="E20" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="12">
+      <c r="F20" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="12">
+      <c r="G20" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="12">
+      <c r="H20" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="12">
+      <c r="I20" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -825,10 +843,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="12" t="s">
+      <c r="J22" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -872,28 +890,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="12">
+      <c r="A24" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="12">
+      <c r="B24" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="12">
+      <c r="C24" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="12">
+      <c r="E24" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="12">
+      <c r="F24" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="12">
+      <c r="G24" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="12">
+      <c r="H24" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -918,28 +936,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="12">
+      <c r="B26" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="12">
+      <c r="C26" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="12">
+      <c r="D26" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="12">
+      <c r="E26" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="12">
+      <c r="F26" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="12">
+      <c r="G26" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="12">
+      <c r="H26" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="12">
+      <c r="I26" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1056,10 +1074,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="12" t="s">
+      <c r="J30" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1103,28 +1121,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="12">
+      <c r="A32" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="12">
+      <c r="B32" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="12">
+      <c r="C32" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="12">
+      <c r="E32" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="12">
+      <c r="F32" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="12">
+      <c r="G32" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="12">
+      <c r="H32" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1149,28 +1167,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="12">
+      <c r="B34" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="12">
+      <c r="C34" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="12">
+      <c r="D34" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="12">
+      <c r="E34" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="12">
+      <c r="F34" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="12">
+      <c r="G34" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="12">
+      <c r="H34" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="12">
+      <c r="I34" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1229,10 +1247,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="12" t="s">
+      <c r="J36" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1276,28 +1294,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="12">
+      <c r="A38" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="12">
+      <c r="B38" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="12">
+      <c r="C38" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="12">
+      <c r="E38" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="12">
+      <c r="F38" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="12">
+      <c r="G38" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="12">
+      <c r="H38" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1322,28 +1340,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="12">
+      <c r="B40" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="12">
+      <c r="C40" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="12">
+      <c r="D40" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="12">
+      <c r="E40" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="12">
+      <c r="F40" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="12">
+      <c r="G40" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="12">
+      <c r="H40" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="12">
+      <c r="I40" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1402,10 +1420,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="12" t="s">
+      <c r="J42" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1449,28 +1467,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="12">
+      <c r="A44" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="12">
+      <c r="B44" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s" s="12">
+      <c r="C44" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="12">
+      <c r="E44" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="12">
+      <c r="F44" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="12">
+      <c r="G44" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="12">
+      <c r="H44" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1495,28 +1513,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="12">
+      <c r="B46" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="12">
+      <c r="C46" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="12">
+      <c r="D46" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="12">
+      <c r="E46" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="12">
+      <c r="F46" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="12">
+      <c r="G46" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="12">
+      <c r="H46" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="12">
+      <c r="I46" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1575,10 +1593,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="12" t="s">
+      <c r="J48" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1622,28 +1640,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="12">
+      <c r="A50" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="12">
+      <c r="B50" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="12">
+      <c r="C50" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="12">
+      <c r="E50" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="12">
+      <c r="F50" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="12">
+      <c r="G50" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="12">
+      <c r="H50" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1668,28 +1686,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="12">
+      <c r="B52" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="12">
+      <c r="C52" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="12">
+      <c r="D52" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="12">
+      <c r="E52" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="12">
+      <c r="F52" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="12">
+      <c r="G52" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="12">
+      <c r="H52" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="12">
+      <c r="I52" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1748,10 +1766,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="12" t="s">
+      <c r="J54" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1795,28 +1813,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="12">
+      <c r="A56" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="12">
+      <c r="B56" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="12">
+      <c r="C56" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="12">
+      <c r="E56" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="12">
+      <c r="F56" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="12">
+      <c r="G56" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="12">
+      <c r="H56" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1841,28 +1859,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="12">
+      <c r="B58" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="12">
+      <c r="C58" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="12">
+      <c r="D58" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="12">
+      <c r="E58" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="12">
+      <c r="F58" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="12">
+      <c r="G58" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="12">
+      <c r="H58" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="12">
+      <c r="I58" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1979,10 +1997,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K62" s="12" t="s">
+      <c r="J62" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -2026,28 +2044,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="12">
+      <c r="A64" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="12">
+      <c r="B64" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s" s="12">
+      <c r="C64" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="12">
+      <c r="E64" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="12">
+      <c r="F64" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="12">
+      <c r="G64" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="12">
+      <c r="H64" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2072,28 +2090,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="12">
+      <c r="B66" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="12">
+      <c r="C66" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="12">
+      <c r="D66" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="12">
+      <c r="E66" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="12">
+      <c r="F66" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="12">
+      <c r="G66" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="12">
+      <c r="H66" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="12">
+      <c r="I66" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2152,10 +2170,10 @@
       <c r="I68">
         <f>((C68-C67)^2+(D68- D67)^2)^.5</f>
       </c>
-      <c r="J68" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K68" s="12" t="s">
+      <c r="J68" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L68" t="n">
@@ -2199,28 +2217,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="12">
+      <c r="A70" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B70" t="s" s="12">
+      <c r="B70" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C70" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s" s="12">
+      <c r="C70" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E70" t="s" s="12">
+      <c r="E70" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F70" t="s" s="12">
+      <c r="F70" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G70" t="s" s="12">
+      <c r="G70" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H70" t="s" s="12">
+      <c r="H70" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2245,28 +2263,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="s" s="12">
+      <c r="B72" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C72" t="s" s="12">
+      <c r="C72" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D72" t="s" s="12">
+      <c r="D72" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E72" t="s" s="12">
+      <c r="E72" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F72" t="s" s="12">
+      <c r="F72" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G72" t="s" s="12">
+      <c r="G72" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H72" t="s" s="12">
+      <c r="H72" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I72" t="s" s="12">
+      <c r="I72" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2325,10 +2343,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="12" t="s">
+      <c r="J74" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2372,28 +2390,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="12">
+      <c r="A76" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="12">
+      <c r="B76" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="12">
+      <c r="C76" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="12">
+      <c r="E76" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="12">
+      <c r="F76" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="12">
+      <c r="G76" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="12">
+      <c r="H76" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2418,28 +2436,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="12">
+      <c r="B78" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="12">
+      <c r="C78" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="12">
+      <c r="D78" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="12">
+      <c r="E78" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="12">
+      <c r="F78" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="12">
+      <c r="G78" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="12">
+      <c r="H78" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="12">
+      <c r="I78" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2556,10 +2574,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="12" t="s">
+      <c r="J82" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2603,28 +2621,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="12">
+      <c r="A84" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="12">
+      <c r="B84" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s" s="12">
+      <c r="C84" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="12">
+      <c r="E84" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="12">
+      <c r="F84" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="12">
+      <c r="G84" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="12">
+      <c r="H84" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2649,28 +2667,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="12">
+      <c r="B86" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="12">
+      <c r="C86" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="12">
+      <c r="D86" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="12">
+      <c r="E86" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="12">
+      <c r="F86" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="12">
+      <c r="G86" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="12">
+      <c r="H86" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="12">
+      <c r="I86" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2729,10 +2747,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="12" t="s">
+      <c r="J88" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2776,28 +2794,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="12">
+      <c r="A90" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="12">
+      <c r="B90" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="12">
+      <c r="C90" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="12">
+      <c r="E90" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="12">
+      <c r="F90" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="12">
+      <c r="G90" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="12">
+      <c r="H90" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2822,28 +2840,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="12">
+      <c r="B92" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="12">
+      <c r="C92" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="12">
+      <c r="D92" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="12">
+      <c r="E92" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="12">
+      <c r="F92" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="12">
+      <c r="G92" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="12">
+      <c r="H92" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="12">
+      <c r="I92" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2902,10 +2920,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K94" s="12" t="s">
+      <c r="J94" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2949,28 +2967,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="12">
+      <c r="A96" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="12">
+      <c r="B96" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s" s="12">
+      <c r="C96" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="12">
+      <c r="E96" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="12">
+      <c r="F96" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="12">
+      <c r="G96" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="12">
+      <c r="H96" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2995,28 +3013,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="12">
+      <c r="B98" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="12">
+      <c r="C98" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="12">
+      <c r="D98" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="12">
+      <c r="E98" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="12">
+      <c r="F98" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="12">
+      <c r="G98" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="12">
+      <c r="H98" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="12">
+      <c r="I98" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3075,10 +3093,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K100" s="12" t="s">
+      <c r="J100" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3122,28 +3140,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="12">
+      <c r="A102" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="12">
+      <c r="B102" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D102" t="s" s="12">
+      <c r="C102" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="12">
+      <c r="E102" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="12">
+      <c r="F102" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="12">
+      <c r="G102" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="12">
+      <c r="H102" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3168,28 +3186,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="12">
+      <c r="B104" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="12">
+      <c r="C104" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="12">
+      <c r="D104" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="12">
+      <c r="E104" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="12">
+      <c r="F104" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="12">
+      <c r="G104" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="12">
+      <c r="H104" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="12">
+      <c r="I104" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3248,10 +3266,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="12" t="s">
+      <c r="J106" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3295,28 +3313,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="12">
+      <c r="A108" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="12">
+      <c r="B108" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="12">
+      <c r="C108" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="12">
+      <c r="E108" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="12">
+      <c r="F108" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="12">
+      <c r="G108" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="12">
+      <c r="H108" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3341,28 +3359,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="12">
+      <c r="B110" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="12">
+      <c r="C110" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="12">
+      <c r="D110" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="12">
+      <c r="E110" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="12">
+      <c r="F110" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="12">
+      <c r="G110" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="12">
+      <c r="H110" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="12">
+      <c r="I110" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3421,10 +3439,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="12" t="s">
+      <c r="J112" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3468,28 +3486,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="12">
+      <c r="A114" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="12">
+      <c r="B114" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="12">
+      <c r="C114" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="12">
+      <c r="E114" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="12">
+      <c r="F114" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="12">
+      <c r="G114" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="12">
+      <c r="H114" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3514,28 +3532,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="12">
+      <c r="B116" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="12">
+      <c r="C116" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="12">
+      <c r="D116" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="12">
+      <c r="E116" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="12">
+      <c r="F116" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="12">
+      <c r="G116" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="12">
+      <c r="H116" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="12">
+      <c r="I116" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3594,10 +3612,10 @@
       <c r="I118">
         <f>((C118-C117)^2+(D118- D117)^2)^.5</f>
       </c>
-      <c r="J118" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K118" s="12" t="s">
+      <c r="J118" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K118" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L118" t="n">
@@ -3641,28 +3659,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="12">
+      <c r="A120" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B120" t="s" s="12">
+      <c r="B120" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C120" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D120" t="s" s="12">
+      <c r="C120" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E120" t="s" s="12">
+      <c r="E120" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F120" t="s" s="12">
+      <c r="F120" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G120" t="s" s="12">
+      <c r="G120" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H120" t="s" s="12">
+      <c r="H120" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3687,28 +3705,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="B122" t="s" s="12">
+      <c r="B122" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C122" t="s" s="12">
+      <c r="C122" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D122" t="s" s="12">
+      <c r="D122" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E122" t="s" s="12">
+      <c r="E122" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F122" t="s" s="12">
+      <c r="F122" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G122" t="s" s="12">
+      <c r="G122" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H122" t="s" s="12">
+      <c r="H122" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I122" t="s" s="12">
+      <c r="I122" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3825,10 +3843,10 @@
       <c r="I126">
         <f>((C126-C125)^2+(D126- D125)^2)^.5</f>
       </c>
-      <c r="J126" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K126" s="12" t="s">
+      <c r="J126" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K126" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L126" t="n">
@@ -3872,28 +3890,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="12">
+      <c r="A128" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B128" t="s" s="12">
+      <c r="B128" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C128" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D128" t="s" s="12">
+      <c r="C128" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E128" t="s" s="12">
+      <c r="E128" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F128" t="s" s="12">
+      <c r="F128" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G128" t="s" s="12">
+      <c r="G128" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H128" t="s" s="12">
+      <c r="H128" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3918,28 +3936,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="s" s="12">
+      <c r="B130" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C130" t="s" s="12">
+      <c r="C130" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D130" t="s" s="12">
+      <c r="D130" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E130" t="s" s="12">
+      <c r="E130" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F130" t="s" s="12">
+      <c r="F130" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G130" t="s" s="12">
+      <c r="G130" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H130" t="s" s="12">
+      <c r="H130" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I130" t="s" s="12">
+      <c r="I130" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3998,10 +4016,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K132" s="12" t="s">
+      <c r="J132" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K132" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -4045,28 +4063,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="12">
+      <c r="A134" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="12">
+      <c r="B134" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D134" t="s" s="12">
+      <c r="C134" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="12">
+      <c r="E134" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="12">
+      <c r="F134" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="12">
+      <c r="G134" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="12">
+      <c r="H134" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4091,28 +4109,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="12">
+      <c r="B136" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="12">
+      <c r="C136" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="12">
+      <c r="D136" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="12">
+      <c r="E136" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="12">
+      <c r="F136" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="12">
+      <c r="G136" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="12">
+      <c r="H136" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="12">
+      <c r="I136" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4171,10 +4189,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="12" t="s">
+      <c r="J138" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4218,28 +4236,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="12">
+      <c r="A140" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="12">
+      <c r="B140" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="12">
+      <c r="C140" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="12">
+      <c r="E140" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="12">
+      <c r="F140" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="12">
+      <c r="G140" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="12">
+      <c r="H140" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4264,28 +4282,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="12">
+      <c r="B142" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="12">
+      <c r="C142" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="12">
+      <c r="D142" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="12">
+      <c r="E142" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="12">
+      <c r="F142" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="12">
+      <c r="G142" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="12">
+      <c r="H142" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="12">
+      <c r="I142" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4344,10 +4362,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="12" t="s">
+      <c r="J144" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4391,28 +4409,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="12">
+      <c r="A146" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="12">
+      <c r="B146" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="12">
+      <c r="C146" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="12">
+      <c r="E146" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="12">
+      <c r="F146" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="12">
+      <c r="G146" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="12">
+      <c r="H146" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4437,28 +4455,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="12">
+      <c r="B148" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="12">
+      <c r="C148" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="12">
+      <c r="D148" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="12">
+      <c r="E148" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="12">
+      <c r="F148" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="12">
+      <c r="G148" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="12">
+      <c r="H148" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="12">
+      <c r="I148" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4517,10 +4535,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="12" t="s">
+      <c r="J150" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4564,28 +4582,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="12">
+      <c r="A152" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="12">
+      <c r="B152" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="12">
+      <c r="C152" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="12">
+      <c r="E152" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="12">
+      <c r="F152" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="12">
+      <c r="G152" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="12">
+      <c r="H152" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4610,28 +4628,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="12">
+      <c r="B154" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="12">
+      <c r="C154" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="12">
+      <c r="D154" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="12">
+      <c r="E154" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="12">
+      <c r="F154" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="12">
+      <c r="G154" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="12">
+      <c r="H154" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="12">
+      <c r="I154" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4690,10 +4708,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="12" t="s">
+      <c r="J156" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4737,28 +4755,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="12">
+      <c r="A158" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="12">
+      <c r="B158" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="12">
+      <c r="C158" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="12">
+      <c r="E158" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="12">
+      <c r="F158" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="12">
+      <c r="G158" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="12">
+      <c r="H158" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4783,28 +4801,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="12">
+      <c r="B160" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="12">
+      <c r="C160" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="12">
+      <c r="D160" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="12">
+      <c r="E160" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="12">
+      <c r="F160" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="12">
+      <c r="G160" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="12">
+      <c r="H160" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="12">
+      <c r="I160" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4863,10 +4881,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="12" t="s">
+      <c r="J162" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4910,28 +4928,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="12">
+      <c r="A164" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="12">
+      <c r="B164" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="12">
+      <c r="C164" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="12">
+      <c r="E164" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="12">
+      <c r="F164" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="12">
+      <c r="G164" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="12">
+      <c r="H164" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4956,28 +4974,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="12">
+      <c r="B166" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="12">
+      <c r="C166" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="12">
+      <c r="D166" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="12">
+      <c r="E166" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="12">
+      <c r="F166" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="12">
+      <c r="G166" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="12">
+      <c r="H166" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="12">
+      <c r="I166" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5065,10 +5083,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="12" t="s">
+      <c r="J169" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5112,28 +5130,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="12">
+      <c r="A171" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="12">
+      <c r="B171" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="12">
+      <c r="C171" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="12">
+      <c r="E171" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="12">
+      <c r="F171" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="12">
+      <c r="G171" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="12">
+      <c r="H171" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5158,28 +5176,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="12">
+      <c r="B173" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="12">
+      <c r="C173" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="12">
+      <c r="D173" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="12">
+      <c r="E173" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="12">
+      <c r="F173" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="12">
+      <c r="G173" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="12">
+      <c r="H173" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="12">
+      <c r="I173" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5238,10 +5256,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K175" s="12" t="s">
+      <c r="J175" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K175" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5285,28 +5303,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="12">
+      <c r="A177" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="12">
+      <c r="B177" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D177" t="s" s="12">
+      <c r="C177" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="12">
+      <c r="E177" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="12">
+      <c r="F177" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="12">
+      <c r="G177" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="12">
+      <c r="H177" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5331,28 +5349,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="12">
+      <c r="B179" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="12">
+      <c r="C179" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="12">
+      <c r="D179" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="12">
+      <c r="E179" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="12">
+      <c r="F179" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="12">
+      <c r="G179" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="12">
+      <c r="H179" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="12">
+      <c r="I179" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5440,10 +5458,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="12" t="s">
+      <c r="J182" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5487,28 +5505,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="12">
+      <c r="A184" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="12">
+      <c r="B184" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="12">
+      <c r="C184" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="12">
+      <c r="E184" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="12">
+      <c r="F184" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="12">
+      <c r="G184" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="12">
+      <c r="H184" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5533,28 +5551,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="12">
+      <c r="B186" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="12">
+      <c r="C186" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="12">
+      <c r="D186" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="12">
+      <c r="E186" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="12">
+      <c r="F186" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="12">
+      <c r="G186" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="12">
+      <c r="H186" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="12">
+      <c r="I186" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5613,10 +5631,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="12" t="s">
+      <c r="J188" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5660,28 +5678,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="12">
+      <c r="A190" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="12">
+      <c r="B190" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="12">
+      <c r="C190" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="12">
+      <c r="E190" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="12">
+      <c r="F190" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="12">
+      <c r="G190" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="12">
+      <c r="H190" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5706,28 +5724,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="12">
+      <c r="B192" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="12">
+      <c r="C192" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="12">
+      <c r="D192" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="12">
+      <c r="E192" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="12">
+      <c r="F192" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="12">
+      <c r="G192" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="12">
+      <c r="H192" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="12">
+      <c r="I192" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5786,10 +5804,10 @@
       <c r="I194">
         <f>((C194-C193)^2+(D194- D193)^2)^.5</f>
       </c>
-      <c r="J194" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K194" s="12" t="s">
+      <c r="J194" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K194" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L194" t="n">
@@ -5833,28 +5851,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="12">
+      <c r="A196" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B196" t="s" s="12">
+      <c r="B196" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C196" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D196" t="s" s="12">
+      <c r="C196" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E196" t="s" s="12">
+      <c r="E196" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F196" t="s" s="12">
+      <c r="F196" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G196" t="s" s="12">
+      <c r="G196" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H196" t="s" s="12">
+      <c r="H196" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5879,28 +5897,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="s" s="12">
+      <c r="B198" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C198" t="s" s="12">
+      <c r="C198" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D198" t="s" s="12">
+      <c r="D198" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E198" t="s" s="12">
+      <c r="E198" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F198" t="s" s="12">
+      <c r="F198" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G198" t="s" s="12">
+      <c r="G198" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H198" t="s" s="12">
+      <c r="H198" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I198" t="s" s="12">
+      <c r="I198" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5959,10 +5977,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="12" t="s">
+      <c r="J200" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -6006,28 +6024,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="12">
+      <c r="A202" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="12">
+      <c r="B202" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="12">
+      <c r="C202" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="12">
+      <c r="E202" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="12">
+      <c r="F202" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="12">
+      <c r="G202" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="12">
+      <c r="H202" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6052,28 +6070,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="12">
+      <c r="B204" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="12">
+      <c r="C204" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="12">
+      <c r="D204" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="12">
+      <c r="E204" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="12">
+      <c r="F204" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="12">
+      <c r="G204" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="12">
+      <c r="H204" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="12">
+      <c r="I204" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6132,10 +6150,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="12" t="s">
+      <c r="J206" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
@@ -6179,28 +6197,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s" s="12">
+      <c r="A208" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B208" t="s" s="12">
+      <c r="B208" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C208" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D208" t="s" s="12">
+      <c r="C208" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E208" t="s" s="12">
+      <c r="E208" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F208" t="s" s="12">
+      <c r="F208" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G208" t="s" s="12">
+      <c r="G208" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H208" t="s" s="12">
+      <c r="H208" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6225,28 +6243,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="B210" t="s" s="12">
+      <c r="B210" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C210" t="s" s="12">
+      <c r="C210" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D210" t="s" s="12">
+      <c r="D210" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E210" t="s" s="12">
+      <c r="E210" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F210" t="s" s="12">
+      <c r="F210" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G210" t="s" s="12">
+      <c r="G210" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H210" t="s" s="12">
+      <c r="H210" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I210" t="s" s="12">
+      <c r="I210" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6305,10 +6323,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="12" t="s">
+      <c r="J212" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6352,28 +6370,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="12">
+      <c r="A214" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="12">
+      <c r="B214" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="12">
+      <c r="C214" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="12">
+      <c r="E214" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="12">
+      <c r="F214" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="12">
+      <c r="G214" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="12">
+      <c r="H214" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6398,28 +6416,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="12">
+      <c r="B216" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="12">
+      <c r="C216" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="12">
+      <c r="D216" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="12">
+      <c r="E216" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="12">
+      <c r="F216" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="12">
+      <c r="G216" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="12">
+      <c r="H216" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="12">
+      <c r="I216" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6478,10 +6496,10 @@
       <c r="I218">
         <f>((C218-C217)^2+(D218- D217)^2)^.5</f>
       </c>
-      <c r="J218" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K218" s="12" t="s">
+      <c r="J218" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K218" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L218" t="n">
@@ -6525,28 +6543,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s" s="12">
+      <c r="A220" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B220" t="s" s="12">
+      <c r="B220" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C220" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D220" t="s" s="12">
+      <c r="C220" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E220" t="s" s="12">
+      <c r="E220" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F220" t="s" s="12">
+      <c r="F220" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G220" t="s" s="12">
+      <c r="G220" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H220" t="s" s="12">
+      <c r="H220" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6571,28 +6589,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="B222" t="s" s="12">
+      <c r="B222" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C222" t="s" s="12">
+      <c r="C222" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D222" t="s" s="12">
+      <c r="D222" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E222" t="s" s="12">
+      <c r="E222" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F222" t="s" s="12">
+      <c r="F222" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G222" t="s" s="12">
+      <c r="G222" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H222" t="s" s="12">
+      <c r="H222" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I222" t="s" s="12">
+      <c r="I222" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6651,10 +6669,10 @@
       <c r="I224">
         <f>((C224-C223)^2+(D224- D223)^2)^.5</f>
       </c>
-      <c r="J224" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K224" s="12" t="s">
+      <c r="J224" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K224" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L224" t="n">
@@ -6698,28 +6716,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s" s="12">
+      <c r="A226" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B226" t="s" s="12">
+      <c r="B226" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C226" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D226" t="s" s="12">
+      <c r="C226" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E226" t="s" s="12">
+      <c r="E226" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F226" t="s" s="12">
+      <c r="F226" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G226" t="s" s="12">
+      <c r="G226" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H226" t="s" s="12">
+      <c r="H226" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6744,28 +6762,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="s" s="12">
+      <c r="B228" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C228" t="s" s="12">
+      <c r="C228" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D228" t="s" s="12">
+      <c r="D228" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E228" t="s" s="12">
+      <c r="E228" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F228" t="s" s="12">
+      <c r="F228" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G228" t="s" s="12">
+      <c r="G228" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H228" t="s" s="12">
+      <c r="H228" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I228" t="s" s="12">
+      <c r="I228" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6824,10 +6842,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="12" t="s">
+      <c r="J230" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6871,28 +6889,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="12">
+      <c r="A232" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="12">
+      <c r="B232" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="12">
+      <c r="C232" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="12">
+      <c r="E232" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="12">
+      <c r="F232" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="12">
+      <c r="G232" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="12">
+      <c r="H232" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6917,28 +6935,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="12">
+      <c r="B234" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="12">
+      <c r="C234" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="12">
+      <c r="D234" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="12">
+      <c r="E234" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="12">
+      <c r="F234" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="12">
+      <c r="G234" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="12">
+      <c r="H234" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="12">
+      <c r="I234" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6997,10 +7015,10 @@
       <c r="I236">
         <f>((C236-C235)^2+(D236- D235)^2)^.5</f>
       </c>
-      <c r="J236" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K236" s="12" t="s">
+      <c r="J236" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L236" t="n">
@@ -7044,28 +7062,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="s" s="12">
+      <c r="A238" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B238" t="s" s="12">
+      <c r="B238" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C238" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D238" t="s" s="12">
+      <c r="C238" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D238" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E238" t="s" s="12">
+      <c r="E238" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F238" t="s" s="12">
+      <c r="F238" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G238" t="s" s="12">
+      <c r="G238" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H238" t="s" s="12">
+      <c r="H238" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7090,28 +7108,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="B240" t="s" s="12">
+      <c r="B240" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C240" t="s" s="12">
+      <c r="C240" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D240" t="s" s="12">
+      <c r="D240" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E240" t="s" s="12">
+      <c r="E240" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F240" t="s" s="12">
+      <c r="F240" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G240" t="s" s="12">
+      <c r="G240" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H240" t="s" s="12">
+      <c r="H240" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I240" t="s" s="12">
+      <c r="I240" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7170,10 +7188,10 @@
       <c r="I242">
         <f>((C242-C241)^2+(D242- D241)^2)^.5</f>
       </c>
-      <c r="J242" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K242" s="12" t="s">
+      <c r="J242" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K242" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L242" t="n">
@@ -7217,28 +7235,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="12">
+      <c r="A244" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B244" t="s" s="12">
+      <c r="B244" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C244" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D244" t="s" s="12">
+      <c r="C244" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E244" t="s" s="12">
+      <c r="E244" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F244" t="s" s="12">
+      <c r="F244" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G244" t="s" s="12">
+      <c r="G244" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H244" t="s" s="12">
+      <c r="H244" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7263,28 +7281,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="B246" t="s" s="12">
+      <c r="B246" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C246" t="s" s="12">
+      <c r="C246" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D246" t="s" s="12">
+      <c r="D246" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E246" t="s" s="12">
+      <c r="E246" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F246" t="s" s="12">
+      <c r="F246" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G246" t="s" s="12">
+      <c r="G246" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H246" t="s" s="12">
+      <c r="H246" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I246" t="s" s="12">
+      <c r="I246" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7343,10 +7361,10 @@
       <c r="I248">
         <f>((C248-C247)^2+(D248- D247)^2)^.5</f>
       </c>
-      <c r="J248" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K248" s="12" t="s">
+      <c r="J248" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K248" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L248" t="n">
@@ -7390,28 +7408,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="s" s="12">
+      <c r="A250" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B250" t="s" s="12">
+      <c r="B250" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C250" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D250" t="s" s="12">
+      <c r="C250" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D250" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E250" t="s" s="12">
+      <c r="E250" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F250" t="s" s="12">
+      <c r="F250" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G250" t="s" s="12">
+      <c r="G250" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H250" t="s" s="12">
+      <c r="H250" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7436,28 +7454,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="B252" t="s" s="12">
+      <c r="B252" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C252" t="s" s="12">
+      <c r="C252" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D252" t="s" s="12">
+      <c r="D252" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E252" t="s" s="12">
+      <c r="E252" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F252" t="s" s="12">
+      <c r="F252" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G252" t="s" s="12">
+      <c r="G252" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H252" t="s" s="12">
+      <c r="H252" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I252" t="s" s="12">
+      <c r="I252" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7545,10 +7563,10 @@
       <c r="I255">
         <f>((C255-C254)^2+(D255- D254)^2)^.5</f>
       </c>
-      <c r="J255" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K255" s="12" t="s">
+      <c r="J255" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K255" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L255" t="n">
@@ -7592,28 +7610,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="s" s="12">
+      <c r="A257" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B257" t="s" s="12">
+      <c r="B257" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C257" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D257" t="s" s="12">
+      <c r="C257" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D257" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E257" t="s" s="12">
+      <c r="E257" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F257" t="s" s="12">
+      <c r="F257" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G257" t="s" s="12">
+      <c r="G257" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H257" t="s" s="12">
+      <c r="H257" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7638,28 +7656,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="B259" t="s" s="12">
+      <c r="B259" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C259" t="s" s="12">
+      <c r="C259" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D259" t="s" s="12">
+      <c r="D259" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E259" t="s" s="12">
+      <c r="E259" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F259" t="s" s="12">
+      <c r="F259" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G259" t="s" s="12">
+      <c r="G259" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H259" t="s" s="12">
+      <c r="H259" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I259" t="s" s="12">
+      <c r="I259" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7718,10 +7736,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="12" t="s">
+      <c r="J261" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
@@ -7765,28 +7783,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="12">
+      <c r="A263" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B263" t="s" s="12">
+      <c r="B263" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C263" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D263" t="s" s="12">
+      <c r="C263" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E263" t="s" s="12">
+      <c r="E263" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F263" t="s" s="12">
+      <c r="F263" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G263" t="s" s="12">
+      <c r="G263" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H263" t="s" s="12">
+      <c r="H263" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7811,28 +7829,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="B265" t="s" s="12">
+      <c r="B265" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C265" t="s" s="12">
+      <c r="C265" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D265" t="s" s="12">
+      <c r="D265" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E265" t="s" s="12">
+      <c r="E265" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F265" t="s" s="12">
+      <c r="F265" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G265" t="s" s="12">
+      <c r="G265" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H265" t="s" s="12">
+      <c r="H265" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I265" t="s" s="12">
+      <c r="I265" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7891,10 +7909,10 @@
       <c r="I267">
         <f>((C267-C266)^2+(D267- D266)^2)^.5</f>
       </c>
-      <c r="J267" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K267" s="12" t="s">
+      <c r="J267" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K267" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L267" t="n">
@@ -7938,28 +7956,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="s" s="12">
+      <c r="A269" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B269" t="s" s="12">
+      <c r="B269" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C269" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D269" t="s" s="12">
+      <c r="C269" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E269" t="s" s="12">
+      <c r="E269" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F269" t="s" s="12">
+      <c r="F269" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G269" t="s" s="12">
+      <c r="G269" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H269" t="s" s="12">
+      <c r="H269" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7984,28 +8002,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="B271" t="s" s="12">
+      <c r="B271" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C271" t="s" s="12">
+      <c r="C271" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D271" t="s" s="12">
+      <c r="D271" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E271" t="s" s="12">
+      <c r="E271" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F271" t="s" s="12">
+      <c r="F271" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G271" t="s" s="12">
+      <c r="G271" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H271" t="s" s="12">
+      <c r="H271" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I271" t="s" s="12">
+      <c r="I271" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8064,10 +8082,10 @@
       <c r="I273">
         <f>((C273-C272)^2+(D273- D272)^2)^.5</f>
       </c>
-      <c r="J273" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K273" s="12" t="s">
+      <c r="J273" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K273" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L273" t="n">
@@ -8111,28 +8129,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="s" s="12">
+      <c r="A275" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B275" t="s" s="12">
+      <c r="B275" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C275" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D275" t="s" s="12">
+      <c r="C275" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D275" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E275" t="s" s="12">
+      <c r="E275" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F275" t="s" s="12">
+      <c r="F275" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G275" t="s" s="12">
+      <c r="G275" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H275" t="s" s="12">
+      <c r="H275" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8157,28 +8175,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="B277" t="s" s="12">
+      <c r="B277" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C277" t="s" s="12">
+      <c r="C277" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D277" t="s" s="12">
+      <c r="D277" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E277" t="s" s="12">
+      <c r="E277" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F277" t="s" s="12">
+      <c r="F277" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G277" t="s" s="12">
+      <c r="G277" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H277" t="s" s="12">
+      <c r="H277" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I277" t="s" s="12">
+      <c r="I277" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8237,10 +8255,10 @@
       <c r="I279">
         <f>((C279-C278)^2+(D279- D278)^2)^.5</f>
       </c>
-      <c r="J279" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K279" s="12" t="s">
+      <c r="J279" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K279" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L279" t="n">
@@ -8284,28 +8302,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="s" s="12">
+      <c r="A281" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B281" t="s" s="12">
+      <c r="B281" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C281" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D281" t="s" s="12">
+      <c r="C281" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D281" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E281" t="s" s="12">
+      <c r="E281" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F281" t="s" s="12">
+      <c r="F281" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G281" t="s" s="12">
+      <c r="G281" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H281" t="s" s="12">
+      <c r="H281" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8330,28 +8348,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="B283" t="s" s="12">
+      <c r="B283" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C283" t="s" s="12">
+      <c r="C283" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D283" t="s" s="12">
+      <c r="D283" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E283" t="s" s="12">
+      <c r="E283" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F283" t="s" s="12">
+      <c r="F283" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G283" t="s" s="12">
+      <c r="G283" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H283" t="s" s="12">
+      <c r="H283" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I283" t="s" s="12">
+      <c r="I283" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8410,10 +8428,10 @@
       <c r="I285">
         <f>((C285-C284)^2+(D285- D284)^2)^.5</f>
       </c>
-      <c r="J285" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K285" s="12" t="s">
+      <c r="J285" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K285" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L285" t="n">
@@ -8457,28 +8475,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="s" s="12">
+      <c r="A287" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B287" t="s" s="12">
+      <c r="B287" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C287" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D287" t="s" s="12">
+      <c r="C287" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D287" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E287" t="s" s="12">
+      <c r="E287" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F287" t="s" s="12">
+      <c r="F287" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G287" t="s" s="12">
+      <c r="G287" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H287" t="s" s="12">
+      <c r="H287" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8503,28 +8521,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="B289" t="s" s="12">
+      <c r="B289" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C289" t="s" s="12">
+      <c r="C289" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D289" t="s" s="12">
+      <c r="D289" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E289" t="s" s="12">
+      <c r="E289" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F289" t="s" s="12">
+      <c r="F289" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G289" t="s" s="12">
+      <c r="G289" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H289" t="s" s="12">
+      <c r="H289" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I289" t="s" s="12">
+      <c r="I289" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8583,10 +8601,10 @@
       <c r="I291">
         <f>((C291-C290)^2+(D291- D290)^2)^.5</f>
       </c>
-      <c r="J291" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K291" s="12" t="s">
+      <c r="J291" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K291" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L291" t="n">
@@ -8630,28 +8648,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="s" s="12">
+      <c r="A293" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B293" t="s" s="12">
+      <c r="B293" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C293" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D293" t="s" s="12">
+      <c r="C293" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D293" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E293" t="s" s="12">
+      <c r="E293" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F293" t="s" s="12">
+      <c r="F293" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G293" t="s" s="12">
+      <c r="G293" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H293" t="s" s="12">
+      <c r="H293" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8676,28 +8694,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="B295" t="s" s="12">
+      <c r="B295" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C295" t="s" s="12">
+      <c r="C295" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D295" t="s" s="12">
+      <c r="D295" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E295" t="s" s="12">
+      <c r="E295" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F295" t="s" s="12">
+      <c r="F295" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G295" t="s" s="12">
+      <c r="G295" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H295" t="s" s="12">
+      <c r="H295" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I295" t="s" s="12">
+      <c r="I295" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8756,10 +8774,10 @@
       <c r="I297">
         <f>((C297-C296)^2+(D297- D296)^2)^.5</f>
       </c>
-      <c r="J297" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K297" s="12" t="s">
+      <c r="J297" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K297" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L297" t="n">
@@ -8803,28 +8821,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="s" s="12">
+      <c r="A299" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B299" t="s" s="12">
+      <c r="B299" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C299" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D299" t="s" s="12">
+      <c r="C299" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D299" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E299" t="s" s="12">
+      <c r="E299" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F299" t="s" s="12">
+      <c r="F299" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G299" t="s" s="12">
+      <c r="G299" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H299" t="s" s="12">
+      <c r="H299" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8849,28 +8867,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="B301" t="s" s="12">
+      <c r="B301" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C301" t="s" s="12">
+      <c r="C301" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D301" t="s" s="12">
+      <c r="D301" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E301" t="s" s="12">
+      <c r="E301" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F301" t="s" s="12">
+      <c r="F301" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G301" t="s" s="12">
+      <c r="G301" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H301" t="s" s="12">
+      <c r="H301" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I301" t="s" s="12">
+      <c r="I301" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8929,10 +8947,10 @@
       <c r="I303">
         <f>((C303-C302)^2+(D303- D302)^2)^.5</f>
       </c>
-      <c r="J303" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K303" s="12" t="s">
+      <c r="J303" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K303" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L303" t="n">
@@ -8976,28 +8994,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="s" s="12">
+      <c r="A305" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B305" t="s" s="12">
+      <c r="B305" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C305" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D305" t="s" s="12">
+      <c r="C305" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D305" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E305" t="s" s="12">
+      <c r="E305" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F305" t="s" s="12">
+      <c r="F305" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G305" t="s" s="12">
+      <c r="G305" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H305" t="s" s="12">
+      <c r="H305" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9022,28 +9040,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="B307" t="s" s="12">
+      <c r="B307" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C307" t="s" s="12">
+      <c r="C307" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D307" t="s" s="12">
+      <c r="D307" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E307" t="s" s="12">
+      <c r="E307" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F307" t="s" s="12">
+      <c r="F307" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G307" t="s" s="12">
+      <c r="G307" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H307" t="s" s="12">
+      <c r="H307" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I307" t="s" s="12">
+      <c r="I307" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9102,10 +9120,10 @@
       <c r="I309">
         <f>((C309-C308)^2+(D309- D308)^2)^.5</f>
       </c>
-      <c r="J309" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K309" s="12" t="s">
+      <c r="J309" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K309" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L309" t="n">
@@ -9149,28 +9167,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="s" s="12">
+      <c r="A311" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B311" t="s" s="12">
+      <c r="B311" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C311" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D311" t="s" s="12">
+      <c r="C311" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D311" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E311" t="s" s="12">
+      <c r="E311" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F311" t="s" s="12">
+      <c r="F311" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G311" t="s" s="12">
+      <c r="G311" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H311" t="s" s="12">
+      <c r="H311" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9195,28 +9213,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="B313" t="s" s="12">
+      <c r="B313" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C313" t="s" s="12">
+      <c r="C313" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D313" t="s" s="12">
+      <c r="D313" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E313" t="s" s="12">
+      <c r="E313" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F313" t="s" s="12">
+      <c r="F313" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G313" t="s" s="12">
+      <c r="G313" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H313" t="s" s="12">
+      <c r="H313" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I313" t="s" s="12">
+      <c r="I313" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9275,10 +9293,10 @@
       <c r="I315">
         <f>((C315-C314)^2+(D315- D314)^2)^.5</f>
       </c>
-      <c r="J315" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K315" s="12" t="s">
+      <c r="J315" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K315" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L315" t="n">
@@ -9322,28 +9340,28 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="s" s="12">
+      <c r="A317" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B317" t="s" s="12">
+      <c r="B317" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C317" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D317" t="s" s="12">
+      <c r="C317" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D317" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E317" t="s" s="12">
+      <c r="E317" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F317" t="s" s="12">
+      <c r="F317" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G317" t="s" s="12">
+      <c r="G317" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H317" t="s" s="12">
+      <c r="H317" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9368,28 +9386,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="B319" t="s" s="12">
+      <c r="B319" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C319" t="s" s="12">
+      <c r="C319" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D319" t="s" s="12">
+      <c r="D319" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E319" t="s" s="12">
+      <c r="E319" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F319" t="s" s="12">
+      <c r="F319" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G319" t="s" s="12">
+      <c r="G319" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H319" t="s" s="12">
+      <c r="H319" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I319" t="s" s="12">
+      <c r="I319" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9448,10 +9466,10 @@
       <c r="I321">
         <f>((C321-C320)^2+(D321- D320)^2)^.5</f>
       </c>
-      <c r="J321" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K321" s="12" t="s">
+      <c r="J321" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K321" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L321" t="n">
@@ -9495,28 +9513,28 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="s" s="12">
+      <c r="A323" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B323" t="s" s="12">
+      <c r="B323" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C323" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D323" t="s" s="12">
+      <c r="C323" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D323" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E323" t="s" s="12">
+      <c r="E323" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F323" t="s" s="12">
+      <c r="F323" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G323" t="s" s="12">
+      <c r="G323" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H323" t="s" s="12">
+      <c r="H323" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9541,28 +9559,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="B325" t="s" s="12">
+      <c r="B325" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C325" t="s" s="12">
+      <c r="C325" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D325" t="s" s="12">
+      <c r="D325" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E325" t="s" s="12">
+      <c r="E325" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F325" t="s" s="12">
+      <c r="F325" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G325" t="s" s="12">
+      <c r="G325" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H325" t="s" s="12">
+      <c r="H325" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I325" t="s" s="12">
+      <c r="I325" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9621,10 +9639,10 @@
       <c r="I327">
         <f>((C327-C326)^2+(D327- D326)^2)^.5</f>
       </c>
-      <c r="J327" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K327" s="12" t="s">
+      <c r="J327" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K327" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L327" t="n">
@@ -9668,28 +9686,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="s" s="12">
+      <c r="A329" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B329" t="s" s="12">
+      <c r="B329" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C329" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D329" t="s" s="12">
+      <c r="C329" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D329" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E329" t="s" s="12">
+      <c r="E329" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F329" t="s" s="12">
+      <c r="F329" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G329" t="s" s="12">
+      <c r="G329" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H329" t="s" s="12">
+      <c r="H329" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9714,28 +9732,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="B331" t="s" s="12">
+      <c r="B331" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C331" t="s" s="12">
+      <c r="C331" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D331" t="s" s="12">
+      <c r="D331" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E331" t="s" s="12">
+      <c r="E331" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F331" t="s" s="12">
+      <c r="F331" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G331" t="s" s="12">
+      <c r="G331" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H331" t="s" s="12">
+      <c r="H331" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I331" t="s" s="12">
+      <c r="I331" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9794,10 +9812,10 @@
       <c r="I333">
         <f>((C333-C332)^2+(D333- D332)^2)^.5</f>
       </c>
-      <c r="J333" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K333" s="12" t="s">
+      <c r="J333" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K333" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L333" t="n">
@@ -9841,28 +9859,28 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="s" s="12">
+      <c r="A335" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B335" t="s" s="12">
+      <c r="B335" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C335" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D335" t="s" s="12">
+      <c r="C335" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D335" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E335" t="s" s="12">
+      <c r="E335" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F335" t="s" s="12">
+      <c r="F335" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G335" t="s" s="12">
+      <c r="G335" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H335" t="s" s="12">
+      <c r="H335" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9887,28 +9905,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="B337" t="s" s="12">
+      <c r="B337" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C337" t="s" s="12">
+      <c r="C337" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D337" t="s" s="12">
+      <c r="D337" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E337" t="s" s="12">
+      <c r="E337" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F337" t="s" s="12">
+      <c r="F337" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G337" t="s" s="12">
+      <c r="G337" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H337" t="s" s="12">
+      <c r="H337" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I337" t="s" s="12">
+      <c r="I337" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9967,10 +9985,10 @@
       <c r="I339">
         <f>((C339-C338)^2+(D339- D338)^2)^.5</f>
       </c>
-      <c r="J339" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K339" s="12" t="s">
+      <c r="J339" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K339" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L339" t="n">
@@ -10014,28 +10032,28 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="s" s="12">
+      <c r="A341" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B341" t="s" s="12">
+      <c r="B341" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C341" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D341" t="s" s="12">
+      <c r="C341" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D341" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E341" t="s" s="12">
+      <c r="E341" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F341" t="s" s="12">
+      <c r="F341" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G341" t="s" s="12">
+      <c r="G341" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H341" t="s" s="12">
+      <c r="H341" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10060,28 +10078,28 @@
       </c>
     </row>
     <row r="343">
-      <c r="B343" t="s" s="12">
+      <c r="B343" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C343" t="s" s="12">
+      <c r="C343" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D343" t="s" s="12">
+      <c r="D343" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E343" t="s" s="12">
+      <c r="E343" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F343" t="s" s="12">
+      <c r="F343" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G343" t="s" s="12">
+      <c r="G343" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H343" t="s" s="12">
+      <c r="H343" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I343" t="s" s="12">
+      <c r="I343" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10140,10 +10158,10 @@
       <c r="I345">
         <f>((C345-C344)^2+(D345- D344)^2)^.5</f>
       </c>
-      <c r="J345" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K345" s="12" t="s">
+      <c r="J345" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K345" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L345" t="n">
@@ -10187,28 +10205,28 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="s" s="12">
+      <c r="A347" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B347" t="s" s="12">
+      <c r="B347" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C347" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D347" t="s" s="12">
+      <c r="C347" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D347" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E347" t="s" s="12">
+      <c r="E347" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F347" t="s" s="12">
+      <c r="F347" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G347" t="s" s="12">
+      <c r="G347" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H347" t="s" s="12">
+      <c r="H347" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10233,28 +10251,28 @@
       </c>
     </row>
     <row r="349">
-      <c r="B349" t="s" s="12">
+      <c r="B349" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C349" t="s" s="12">
+      <c r="C349" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D349" t="s" s="12">
+      <c r="D349" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E349" t="s" s="12">
+      <c r="E349" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F349" t="s" s="12">
+      <c r="F349" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G349" t="s" s="12">
+      <c r="G349" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H349" t="s" s="12">
+      <c r="H349" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I349" t="s" s="12">
+      <c r="I349" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10313,10 +10331,10 @@
       <c r="I351">
         <f>((C351-C350)^2+(D351- D350)^2)^.5</f>
       </c>
-      <c r="J351" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K351" s="12" t="s">
+      <c r="J351" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K351" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L351" t="n">
@@ -10360,28 +10378,28 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="s" s="12">
+      <c r="A353" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B353" t="s" s="12">
+      <c r="B353" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C353" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D353" t="s" s="12">
+      <c r="C353" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D353" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E353" t="s" s="12">
+      <c r="E353" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F353" t="s" s="12">
+      <c r="F353" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G353" t="s" s="12">
+      <c r="G353" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H353" t="s" s="12">
+      <c r="H353" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10406,28 +10424,28 @@
       </c>
     </row>
     <row r="355">
-      <c r="B355" t="s" s="12">
+      <c r="B355" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C355" t="s" s="12">
+      <c r="C355" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D355" t="s" s="12">
+      <c r="D355" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E355" t="s" s="12">
+      <c r="E355" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F355" t="s" s="12">
+      <c r="F355" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G355" t="s" s="12">
+      <c r="G355" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H355" t="s" s="12">
+      <c r="H355" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I355" t="s" s="12">
+      <c r="I355" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10486,10 +10504,10 @@
       <c r="I357">
         <f>((C357-C356)^2+(D357- D356)^2)^.5</f>
       </c>
-      <c r="J357" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K357" s="12" t="s">
+      <c r="J357" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K357" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L357" t="n">
@@ -10533,28 +10551,28 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" t="s" s="12">
+      <c r="A359" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B359" t="s" s="12">
+      <c r="B359" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C359" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D359" t="s" s="12">
+      <c r="C359" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D359" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E359" t="s" s="12">
+      <c r="E359" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F359" t="s" s="12">
+      <c r="F359" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G359" t="s" s="12">
+      <c r="G359" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H359" t="s" s="12">
+      <c r="H359" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10579,28 +10597,28 @@
       </c>
     </row>
     <row r="361">
-      <c r="B361" t="s" s="12">
+      <c r="B361" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C361" t="s" s="12">
+      <c r="C361" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D361" t="s" s="12">
+      <c r="D361" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E361" t="s" s="12">
+      <c r="E361" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F361" t="s" s="12">
+      <c r="F361" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G361" t="s" s="12">
+      <c r="G361" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H361" t="s" s="12">
+      <c r="H361" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I361" t="s" s="12">
+      <c r="I361" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10659,10 +10677,10 @@
       <c r="I363">
         <f>((C363-C362)^2+(D363- D362)^2)^.5</f>
       </c>
-      <c r="J363" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K363" s="12" t="s">
+      <c r="J363" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K363" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L363" t="n">
@@ -10706,28 +10724,28 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="s" s="12">
+      <c r="A365" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B365" t="s" s="12">
+      <c r="B365" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C365" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D365" t="s" s="12">
+      <c r="C365" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D365" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E365" t="s" s="12">
+      <c r="E365" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F365" t="s" s="12">
+      <c r="F365" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G365" t="s" s="12">
+      <c r="G365" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H365" t="s" s="12">
+      <c r="H365" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10752,28 +10770,28 @@
       </c>
     </row>
     <row r="367">
-      <c r="B367" t="s" s="12">
+      <c r="B367" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C367" t="s" s="12">
+      <c r="C367" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D367" t="s" s="12">
+      <c r="D367" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E367" t="s" s="12">
+      <c r="E367" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F367" t="s" s="12">
+      <c r="F367" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G367" t="s" s="12">
+      <c r="G367" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H367" t="s" s="12">
+      <c r="H367" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I367" t="s" s="12">
+      <c r="I367" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10832,10 +10850,10 @@
       <c r="I369">
         <f>((C369-C368)^2+(D369- D368)^2)^.5</f>
       </c>
-      <c r="J369" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K369" s="12" t="s">
+      <c r="J369" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K369" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L369" t="n">
@@ -10879,28 +10897,28 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="s" s="12">
+      <c r="A371" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B371" t="s" s="12">
+      <c r="B371" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C371" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D371" t="s" s="12">
+      <c r="C371" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D371" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E371" t="s" s="12">
+      <c r="E371" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F371" t="s" s="12">
+      <c r="F371" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G371" t="s" s="12">
+      <c r="G371" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H371" t="s" s="12">
+      <c r="H371" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10925,28 +10943,28 @@
       </c>
     </row>
     <row r="373">
-      <c r="B373" t="s" s="12">
+      <c r="B373" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C373" t="s" s="12">
+      <c r="C373" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D373" t="s" s="12">
+      <c r="D373" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E373" t="s" s="12">
+      <c r="E373" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F373" t="s" s="12">
+      <c r="F373" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G373" t="s" s="12">
+      <c r="G373" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H373" t="s" s="12">
+      <c r="H373" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I373" t="s" s="12">
+      <c r="I373" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11005,10 +11023,10 @@
       <c r="I375">
         <f>((C375-C374)^2+(D375- D374)^2)^.5</f>
       </c>
-      <c r="J375" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K375" s="12" t="s">
+      <c r="J375" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K375" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L375" t="n">
@@ -11052,28 +11070,28 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" t="s" s="12">
+      <c r="A377" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B377" t="s" s="12">
+      <c r="B377" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C377" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D377" t="s" s="12">
+      <c r="C377" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D377" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E377" t="s" s="12">
+      <c r="E377" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F377" t="s" s="12">
+      <c r="F377" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G377" t="s" s="12">
+      <c r="G377" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H377" t="s" s="12">
+      <c r="H377" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11098,28 +11116,28 @@
       </c>
     </row>
     <row r="379">
-      <c r="B379" t="s" s="12">
+      <c r="B379" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C379" t="s" s="12">
+      <c r="C379" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D379" t="s" s="12">
+      <c r="D379" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E379" t="s" s="12">
+      <c r="E379" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F379" t="s" s="12">
+      <c r="F379" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G379" t="s" s="12">
+      <c r="G379" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H379" t="s" s="12">
+      <c r="H379" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I379" t="s" s="12">
+      <c r="I379" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11178,10 +11196,10 @@
       <c r="I381">
         <f>((C381-C380)^2+(D381- D380)^2)^.5</f>
       </c>
-      <c r="J381" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K381" s="12" t="s">
+      <c r="J381" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K381" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L381" t="n">
@@ -11225,28 +11243,28 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" t="s" s="12">
+      <c r="A383" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B383" t="s" s="12">
+      <c r="B383" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C383" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D383" t="s" s="12">
+      <c r="C383" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D383" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E383" t="s" s="12">
+      <c r="E383" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F383" t="s" s="12">
+      <c r="F383" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G383" t="s" s="12">
+      <c r="G383" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H383" t="s" s="12">
+      <c r="H383" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11271,28 +11289,28 @@
       </c>
     </row>
     <row r="385">
-      <c r="B385" t="s" s="12">
+      <c r="B385" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C385" t="s" s="12">
+      <c r="C385" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D385" t="s" s="12">
+      <c r="D385" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E385" t="s" s="12">
+      <c r="E385" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F385" t="s" s="12">
+      <c r="F385" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G385" t="s" s="12">
+      <c r="G385" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H385" t="s" s="12">
+      <c r="H385" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I385" t="s" s="12">
+      <c r="I385" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11351,10 +11369,10 @@
       <c r="I387">
         <f>((C387-C386)^2+(D387- D386)^2)^.5</f>
       </c>
-      <c r="J387" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K387" s="12" t="s">
+      <c r="J387" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K387" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L387" t="n">
@@ -11398,28 +11416,28 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" t="s" s="12">
+      <c r="A389" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B389" t="s" s="12">
+      <c r="B389" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C389" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D389" t="s" s="12">
+      <c r="C389" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D389" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E389" t="s" s="12">
+      <c r="E389" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F389" t="s" s="12">
+      <c r="F389" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G389" t="s" s="12">
+      <c r="G389" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H389" t="s" s="12">
+      <c r="H389" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11444,28 +11462,28 @@
       </c>
     </row>
     <row r="391">
-      <c r="B391" t="s" s="12">
+      <c r="B391" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C391" t="s" s="12">
+      <c r="C391" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D391" t="s" s="12">
+      <c r="D391" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E391" t="s" s="12">
+      <c r="E391" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F391" t="s" s="12">
+      <c r="F391" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G391" t="s" s="12">
+      <c r="G391" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H391" t="s" s="12">
+      <c r="H391" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I391" t="s" s="12">
+      <c r="I391" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11553,10 +11571,10 @@
       <c r="I394">
         <f>((C394-C393)^2+(D394- D393)^2)^.5</f>
       </c>
-      <c r="J394" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K394" s="12" t="s">
+      <c r="J394" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K394" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L394" t="n">
@@ -11600,28 +11618,28 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" t="s" s="12">
+      <c r="A396" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B396" t="s" s="12">
+      <c r="B396" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C396" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D396" t="s" s="12">
+      <c r="C396" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D396" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E396" t="s" s="12">
+      <c r="E396" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F396" t="s" s="12">
+      <c r="F396" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G396" t="s" s="12">
+      <c r="G396" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H396" t="s" s="12">
+      <c r="H396" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11646,28 +11664,28 @@
       </c>
     </row>
     <row r="398">
-      <c r="B398" t="s" s="12">
+      <c r="B398" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C398" t="s" s="12">
+      <c r="C398" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D398" t="s" s="12">
+      <c r="D398" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E398" t="s" s="12">
+      <c r="E398" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F398" t="s" s="12">
+      <c r="F398" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G398" t="s" s="12">
+      <c r="G398" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H398" t="s" s="12">
+      <c r="H398" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I398" t="s" s="12">
+      <c r="I398" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11726,10 +11744,10 @@
       <c r="I400">
         <f>((C400-C399)^2+(D400- D399)^2)^.5</f>
       </c>
-      <c r="J400" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K400" s="12" t="s">
+      <c r="J400" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K400" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L400" t="n">
@@ -11773,28 +11791,28 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" t="s" s="12">
+      <c r="A402" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B402" t="s" s="12">
+      <c r="B402" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C402" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D402" t="s" s="12">
+      <c r="C402" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D402" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E402" t="s" s="12">
+      <c r="E402" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F402" t="s" s="12">
+      <c r="F402" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G402" t="s" s="12">
+      <c r="G402" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H402" t="s" s="12">
+      <c r="H402" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11819,28 +11837,28 @@
       </c>
     </row>
     <row r="404">
-      <c r="B404" t="s" s="12">
+      <c r="B404" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C404" t="s" s="12">
+      <c r="C404" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D404" t="s" s="12">
+      <c r="D404" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E404" t="s" s="12">
+      <c r="E404" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F404" t="s" s="12">
+      <c r="F404" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G404" t="s" s="12">
+      <c r="G404" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H404" t="s" s="12">
+      <c r="H404" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I404" t="s" s="12">
+      <c r="I404" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11899,10 +11917,10 @@
       <c r="I406">
         <f>((C406-C405)^2+(D406- D405)^2)^.5</f>
       </c>
-      <c r="J406" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K406" s="12" t="s">
+      <c r="J406" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K406" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L406" t="n">
@@ -11946,28 +11964,28 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" t="s" s="12">
+      <c r="A408" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B408" t="s" s="12">
+      <c r="B408" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C408" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D408" t="s" s="12">
+      <c r="C408" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D408" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E408" t="s" s="12">
+      <c r="E408" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F408" t="s" s="12">
+      <c r="F408" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G408" t="s" s="12">
+      <c r="G408" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H408" t="s" s="12">
+      <c r="H408" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11992,28 +12010,28 @@
       </c>
     </row>
     <row r="410">
-      <c r="B410" t="s" s="12">
+      <c r="B410" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C410" t="s" s="12">
+      <c r="C410" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D410" t="s" s="12">
+      <c r="D410" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E410" t="s" s="12">
+      <c r="E410" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F410" t="s" s="12">
+      <c r="F410" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G410" t="s" s="12">
+      <c r="G410" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H410" t="s" s="12">
+      <c r="H410" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I410" t="s" s="12">
+      <c r="I410" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12072,10 +12090,10 @@
       <c r="I412">
         <f>((C412-C411)^2+(D412- D411)^2)^.5</f>
       </c>
-      <c r="J412" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K412" s="12" t="s">
+      <c r="J412" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K412" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L412" t="n">
@@ -12119,28 +12137,28 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" t="s" s="12">
+      <c r="A414" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B414" t="s" s="12">
+      <c r="B414" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C414" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D414" t="s" s="12">
+      <c r="C414" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D414" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E414" t="s" s="12">
+      <c r="E414" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F414" t="s" s="12">
+      <c r="F414" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G414" t="s" s="12">
+      <c r="G414" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H414" t="s" s="12">
+      <c r="H414" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -12165,28 +12183,28 @@
       </c>
     </row>
     <row r="416">
-      <c r="B416" t="s" s="12">
+      <c r="B416" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C416" t="s" s="12">
+      <c r="C416" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D416" t="s" s="12">
+      <c r="D416" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E416" t="s" s="12">
+      <c r="E416" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F416" t="s" s="12">
+      <c r="F416" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G416" t="s" s="12">
+      <c r="G416" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H416" t="s" s="12">
+      <c r="H416" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I416" t="s" s="12">
+      <c r="I416" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12245,10 +12263,10 @@
       <c r="I418">
         <f>((C418-C417)^2+(D418- D417)^2)^.5</f>
       </c>
-      <c r="J418" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K418" s="12" t="s">
+      <c r="J418" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K418" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L418" t="n">
@@ -12292,28 +12310,28 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" t="s" s="12">
+      <c r="A420" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B420" t="s" s="12">
+      <c r="B420" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C420" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D420" t="s" s="12">
+      <c r="C420" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D420" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E420" t="s" s="12">
+      <c r="E420" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F420" t="s" s="12">
+      <c r="F420" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G420" t="s" s="12">
+      <c r="G420" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H420" t="s" s="12">
+      <c r="H420" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -12338,28 +12356,28 @@
       </c>
     </row>
     <row r="422">
-      <c r="B422" t="s" s="12">
+      <c r="B422" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C422" t="s" s="12">
+      <c r="C422" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D422" t="s" s="12">
+      <c r="D422" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E422" t="s" s="12">
+      <c r="E422" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F422" t="s" s="12">
+      <c r="F422" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G422" t="s" s="12">
+      <c r="G422" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H422" t="s" s="12">
+      <c r="H422" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I422" t="s" s="12">
+      <c r="I422" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12418,10 +12436,10 @@
       <c r="I424">
         <f>((C424-C423)^2+(D424- D423)^2)^.5</f>
       </c>
-      <c r="J424" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K424" s="12" t="s">
+      <c r="J424" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K424" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L424" t="n">
@@ -12465,28 +12483,28 @@
       </c>
     </row>
     <row r="426">
-      <c r="A426" t="s" s="12">
+      <c r="A426" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B426" t="s" s="12">
+      <c r="B426" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C426" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D426" t="s" s="12">
+      <c r="C426" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D426" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E426" t="s" s="12">
+      <c r="E426" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F426" t="s" s="12">
+      <c r="F426" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G426" t="s" s="12">
+      <c r="G426" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H426" t="s" s="12">
+      <c r="H426" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -12511,28 +12529,28 @@
       </c>
     </row>
     <row r="428">
-      <c r="B428" t="s" s="12">
+      <c r="B428" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C428" t="s" s="12">
+      <c r="C428" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D428" t="s" s="12">
+      <c r="D428" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E428" t="s" s="12">
+      <c r="E428" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F428" t="s" s="12">
+      <c r="F428" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G428" t="s" s="12">
+      <c r="G428" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H428" t="s" s="12">
+      <c r="H428" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I428" t="s" s="12">
+      <c r="I428" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12591,10 +12609,10 @@
       <c r="I430">
         <f>((C430-C429)^2+(D430- D429)^2)^.5</f>
       </c>
-      <c r="J430" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K430" s="12" t="s">
+      <c r="J430" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K430" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L430" t="n">
@@ -12638,28 +12656,28 @@
       </c>
     </row>
     <row r="432">
-      <c r="A432" t="s" s="12">
+      <c r="A432" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B432" t="s" s="12">
+      <c r="B432" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C432" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D432" t="s" s="12">
+      <c r="C432" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D432" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E432" t="s" s="12">
+      <c r="E432" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F432" t="s" s="12">
+      <c r="F432" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G432" t="s" s="12">
+      <c r="G432" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H432" t="s" s="12">
+      <c r="H432" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -12684,28 +12702,28 @@
       </c>
     </row>
     <row r="434">
-      <c r="B434" t="s" s="12">
+      <c r="B434" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C434" t="s" s="12">
+      <c r="C434" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D434" t="s" s="12">
+      <c r="D434" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E434" t="s" s="12">
+      <c r="E434" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F434" t="s" s="12">
+      <c r="F434" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G434" t="s" s="12">
+      <c r="G434" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H434" t="s" s="12">
+      <c r="H434" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I434" t="s" s="12">
+      <c r="I434" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12764,10 +12782,10 @@
       <c r="I436">
         <f>((C436-C435)^2+(D436- D435)^2)^.5</f>
       </c>
-      <c r="J436" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K436" s="12" t="s">
+      <c r="J436" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K436" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L436" t="n">
@@ -12811,28 +12829,28 @@
       </c>
     </row>
     <row r="438">
-      <c r="A438" t="s" s="12">
+      <c r="A438" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B438" t="s" s="12">
+      <c r="B438" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C438" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D438" t="s" s="12">
+      <c r="C438" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D438" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E438" t="s" s="12">
+      <c r="E438" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F438" t="s" s="12">
+      <c r="F438" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G438" t="s" s="12">
+      <c r="G438" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H438" t="s" s="12">
+      <c r="H438" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -12857,28 +12875,28 @@
       </c>
     </row>
     <row r="440">
-      <c r="B440" t="s" s="12">
+      <c r="B440" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C440" t="s" s="12">
+      <c r="C440" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D440" t="s" s="12">
+      <c r="D440" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E440" t="s" s="12">
+      <c r="E440" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F440" t="s" s="12">
+      <c r="F440" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G440" t="s" s="12">
+      <c r="G440" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H440" t="s" s="12">
+      <c r="H440" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I440" t="s" s="12">
+      <c r="I440" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12937,10 +12955,10 @@
       <c r="I442">
         <f>((C442-C441)^2+(D442- D441)^2)^.5</f>
       </c>
-      <c r="J442" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K442" s="12" t="s">
+      <c r="J442" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K442" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L442" t="n">
@@ -12984,28 +13002,28 @@
       </c>
     </row>
     <row r="444">
-      <c r="A444" t="s" s="12">
+      <c r="A444" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B444" t="s" s="12">
+      <c r="B444" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C444" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D444" t="s" s="12">
+      <c r="C444" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D444" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E444" t="s" s="12">
+      <c r="E444" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F444" t="s" s="12">
+      <c r="F444" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G444" t="s" s="12">
+      <c r="G444" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H444" t="s" s="12">
+      <c r="H444" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -13030,28 +13048,28 @@
       </c>
     </row>
     <row r="446">
-      <c r="B446" t="s" s="12">
+      <c r="B446" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C446" t="s" s="12">
+      <c r="C446" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D446" t="s" s="12">
+      <c r="D446" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E446" t="s" s="12">
+      <c r="E446" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F446" t="s" s="12">
+      <c r="F446" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G446" t="s" s="12">
+      <c r="G446" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H446" t="s" s="12">
+      <c r="H446" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I446" t="s" s="12">
+      <c r="I446" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -13110,10 +13128,10 @@
       <c r="I448">
         <f>((C448-C447)^2+(D448- D447)^2)^.5</f>
       </c>
-      <c r="J448" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K448" s="12" t="s">
+      <c r="J448" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K448" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L448" t="n">
@@ -13157,28 +13175,28 @@
       </c>
     </row>
     <row r="450">
-      <c r="A450" t="s" s="12">
+      <c r="A450" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B450" t="s" s="12">
+      <c r="B450" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C450" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D450" t="s" s="12">
+      <c r="C450" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D450" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E450" t="s" s="12">
+      <c r="E450" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F450" t="s" s="12">
+      <c r="F450" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G450" t="s" s="12">
+      <c r="G450" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H450" t="s" s="12">
+      <c r="H450" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -13203,28 +13221,28 @@
       </c>
     </row>
     <row r="452">
-      <c r="B452" t="s" s="12">
+      <c r="B452" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C452" t="s" s="12">
+      <c r="C452" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D452" t="s" s="12">
+      <c r="D452" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E452" t="s" s="12">
+      <c r="E452" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F452" t="s" s="12">
+      <c r="F452" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G452" t="s" s="12">
+      <c r="G452" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H452" t="s" s="12">
+      <c r="H452" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I452" t="s" s="12">
+      <c r="I452" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -13283,10 +13301,10 @@
       <c r="I454">
         <f>((C454-C453)^2+(D454- D453)^2)^.5</f>
       </c>
-      <c r="J454" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K454" s="12" t="s">
+      <c r="J454" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K454" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L454" t="n">
@@ -13330,28 +13348,28 @@
       </c>
     </row>
     <row r="456">
-      <c r="A456" t="s" s="12">
+      <c r="A456" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B456" t="s" s="12">
+      <c r="B456" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C456" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D456" t="s" s="12">
+      <c r="C456" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D456" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E456" t="s" s="12">
+      <c r="E456" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F456" t="s" s="12">
+      <c r="F456" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G456" t="s" s="12">
+      <c r="G456" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H456" t="s" s="12">
+      <c r="H456" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -13376,28 +13394,28 @@
       </c>
     </row>
     <row r="458">
-      <c r="B458" t="s" s="12">
+      <c r="B458" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C458" t="s" s="12">
+      <c r="C458" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D458" t="s" s="12">
+      <c r="D458" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E458" t="s" s="12">
+      <c r="E458" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F458" t="s" s="12">
+      <c r="F458" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G458" t="s" s="12">
+      <c r="G458" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H458" t="s" s="12">
+      <c r="H458" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I458" t="s" s="12">
+      <c r="I458" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -13456,10 +13474,10 @@
       <c r="I460">
         <f>((C460-C459)^2+(D460- D459)^2)^.5</f>
       </c>
-      <c r="J460" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K460" s="12" t="s">
+      <c r="J460" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K460" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L460" t="n">
@@ -13503,28 +13521,28 @@
       </c>
     </row>
     <row r="462">
-      <c r="A462" t="s" s="12">
+      <c r="A462" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B462" t="s" s="12">
+      <c r="B462" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C462" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D462" t="s" s="12">
+      <c r="C462" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D462" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E462" t="s" s="12">
+      <c r="E462" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F462" t="s" s="12">
+      <c r="F462" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G462" t="s" s="12">
+      <c r="G462" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H462" t="s" s="12">
+      <c r="H462" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -13549,28 +13567,28 @@
       </c>
     </row>
     <row r="464">
-      <c r="B464" t="s" s="12">
+      <c r="B464" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C464" t="s" s="12">
+      <c r="C464" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D464" t="s" s="12">
+      <c r="D464" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E464" t="s" s="12">
+      <c r="E464" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F464" t="s" s="12">
+      <c r="F464" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G464" t="s" s="12">
+      <c r="G464" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H464" t="s" s="12">
+      <c r="H464" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I464" t="s" s="12">
+      <c r="I464" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -13629,10 +13647,10 @@
       <c r="I466">
         <f>((C466-C465)^2+(D466- D465)^2)^.5</f>
       </c>
-      <c r="J466" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K466" s="12" t="s">
+      <c r="J466" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K466" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L466" t="n">
@@ -13676,28 +13694,28 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" t="s" s="12">
+      <c r="A468" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B468" t="s" s="12">
+      <c r="B468" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C468" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D468" t="s" s="12">
+      <c r="C468" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D468" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E468" t="s" s="12">
+      <c r="E468" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F468" t="s" s="12">
+      <c r="F468" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G468" t="s" s="12">
+      <c r="G468" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H468" t="s" s="12">
+      <c r="H468" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -13722,28 +13740,28 @@
       </c>
     </row>
     <row r="470">
-      <c r="B470" t="s" s="12">
+      <c r="B470" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C470" t="s" s="12">
+      <c r="C470" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D470" t="s" s="12">
+      <c r="D470" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E470" t="s" s="12">
+      <c r="E470" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F470" t="s" s="12">
+      <c r="F470" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G470" t="s" s="12">
+      <c r="G470" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H470" t="s" s="12">
+      <c r="H470" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I470" t="s" s="12">
+      <c r="I470" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -13802,10 +13820,10 @@
       <c r="I472">
         <f>((C472-C471)^2+(D472- D471)^2)^.5</f>
       </c>
-      <c r="J472" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K472" s="12" t="s">
+      <c r="J472" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K472" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L472" t="n">
@@ -13849,28 +13867,28 @@
       </c>
     </row>
     <row r="474">
-      <c r="A474" t="s" s="12">
+      <c r="A474" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B474" t="s" s="12">
+      <c r="B474" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C474" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D474" t="s" s="12">
+      <c r="C474" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D474" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E474" t="s" s="12">
+      <c r="E474" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F474" t="s" s="12">
+      <c r="F474" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G474" t="s" s="12">
+      <c r="G474" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H474" t="s" s="12">
+      <c r="H474" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -13895,28 +13913,28 @@
       </c>
     </row>
     <row r="476">
-      <c r="B476" t="s" s="12">
+      <c r="B476" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C476" t="s" s="12">
+      <c r="C476" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D476" t="s" s="12">
+      <c r="D476" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E476" t="s" s="12">
+      <c r="E476" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F476" t="s" s="12">
+      <c r="F476" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G476" t="s" s="12">
+      <c r="G476" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H476" t="s" s="12">
+      <c r="H476" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I476" t="s" s="12">
+      <c r="I476" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -13975,10 +13993,10 @@
       <c r="I478">
         <f>((C478-C477)^2+(D478- D477)^2)^.5</f>
       </c>
-      <c r="J478" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K478" s="12" t="s">
+      <c r="J478" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K478" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L478" t="n">
@@ -14022,28 +14040,28 @@
       </c>
     </row>
     <row r="480">
-      <c r="A480" t="s" s="12">
+      <c r="A480" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B480" t="s" s="12">
+      <c r="B480" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C480" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D480" t="s" s="12">
+      <c r="C480" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D480" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E480" t="s" s="12">
+      <c r="E480" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F480" t="s" s="12">
+      <c r="F480" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G480" t="s" s="12">
+      <c r="G480" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H480" t="s" s="12">
+      <c r="H480" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -14068,28 +14086,28 @@
       </c>
     </row>
     <row r="482">
-      <c r="B482" t="s" s="12">
+      <c r="B482" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C482" t="s" s="12">
+      <c r="C482" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D482" t="s" s="12">
+      <c r="D482" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E482" t="s" s="12">
+      <c r="E482" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F482" t="s" s="12">
+      <c r="F482" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G482" t="s" s="12">
+      <c r="G482" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H482" t="s" s="12">
+      <c r="H482" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I482" t="s" s="12">
+      <c r="I482" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -14148,10 +14166,10 @@
       <c r="I484">
         <f>((C484-C483)^2+(D484- D483)^2)^.5</f>
       </c>
-      <c r="J484" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K484" s="12" t="s">
+      <c r="J484" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K484" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L484" t="n">
@@ -14195,28 +14213,28 @@
       </c>
     </row>
     <row r="486">
-      <c r="A486" t="s" s="12">
+      <c r="A486" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B486" t="s" s="12">
+      <c r="B486" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C486" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D486" t="s" s="12">
+      <c r="C486" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D486" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E486" t="s" s="12">
+      <c r="E486" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F486" t="s" s="12">
+      <c r="F486" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G486" t="s" s="12">
+      <c r="G486" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H486" t="s" s="12">
+      <c r="H486" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -14241,28 +14259,28 @@
       </c>
     </row>
     <row r="488">
-      <c r="B488" t="s" s="12">
+      <c r="B488" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C488" t="s" s="12">
+      <c r="C488" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D488" t="s" s="12">
+      <c r="D488" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E488" t="s" s="12">
+      <c r="E488" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F488" t="s" s="12">
+      <c r="F488" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G488" t="s" s="12">
+      <c r="G488" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H488" t="s" s="12">
+      <c r="H488" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I488" t="s" s="12">
+      <c r="I488" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -14321,10 +14339,10 @@
       <c r="I490">
         <f>((C490-C489)^2+(D490- D489)^2)^.5</f>
       </c>
-      <c r="J490" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K490" s="12" t="s">
+      <c r="J490" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K490" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L490" t="n">
@@ -14368,28 +14386,28 @@
       </c>
     </row>
     <row r="492">
-      <c r="A492" t="s" s="12">
+      <c r="A492" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B492" t="s" s="12">
+      <c r="B492" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C492" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D492" t="s" s="12">
+      <c r="C492" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D492" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E492" t="s" s="12">
+      <c r="E492" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F492" t="s" s="12">
+      <c r="F492" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G492" t="s" s="12">
+      <c r="G492" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H492" t="s" s="12">
+      <c r="H492" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -14414,28 +14432,28 @@
       </c>
     </row>
     <row r="494">
-      <c r="B494" t="s" s="12">
+      <c r="B494" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C494" t="s" s="12">
+      <c r="C494" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D494" t="s" s="12">
+      <c r="D494" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E494" t="s" s="12">
+      <c r="E494" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F494" t="s" s="12">
+      <c r="F494" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G494" t="s" s="12">
+      <c r="G494" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H494" t="s" s="12">
+      <c r="H494" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I494" t="s" s="12">
+      <c r="I494" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -14494,10 +14512,10 @@
       <c r="I496">
         <f>((C496-C495)^2+(D496- D495)^2)^.5</f>
       </c>
-      <c r="J496" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K496" s="12" t="s">
+      <c r="J496" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K496" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L496" t="n">
@@ -14541,28 +14559,28 @@
       </c>
     </row>
     <row r="498">
-      <c r="A498" t="s" s="12">
+      <c r="A498" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B498" t="s" s="12">
+      <c r="B498" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C498" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D498" t="s" s="12">
+      <c r="C498" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D498" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E498" t="s" s="12">
+      <c r="E498" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F498" t="s" s="12">
+      <c r="F498" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G498" t="s" s="12">
+      <c r="G498" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H498" t="s" s="12">
+      <c r="H498" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -14587,28 +14605,28 @@
       </c>
     </row>
     <row r="500">
-      <c r="B500" t="s" s="12">
+      <c r="B500" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C500" t="s" s="12">
+      <c r="C500" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D500" t="s" s="12">
+      <c r="D500" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E500" t="s" s="12">
+      <c r="E500" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F500" t="s" s="12">
+      <c r="F500" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G500" t="s" s="12">
+      <c r="G500" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H500" t="s" s="12">
+      <c r="H500" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I500" t="s" s="12">
+      <c r="I500" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -14667,10 +14685,10 @@
       <c r="I502">
         <f>((C502-C501)^2+(D502- D501)^2)^.5</f>
       </c>
-      <c r="J502" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K502" s="12" t="s">
+      <c r="J502" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K502" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L502" t="n">
@@ -14714,28 +14732,28 @@
       </c>
     </row>
     <row r="504">
-      <c r="A504" t="s" s="12">
+      <c r="A504" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B504" t="s" s="12">
+      <c r="B504" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C504" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D504" t="s" s="12">
+      <c r="C504" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D504" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E504" t="s" s="12">
+      <c r="E504" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F504" t="s" s="12">
+      <c r="F504" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G504" t="s" s="12">
+      <c r="G504" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H504" t="s" s="12">
+      <c r="H504" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -14760,28 +14778,28 @@
       </c>
     </row>
     <row r="506">
-      <c r="B506" t="s" s="12">
+      <c r="B506" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C506" t="s" s="12">
+      <c r="C506" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D506" t="s" s="12">
+      <c r="D506" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E506" t="s" s="12">
+      <c r="E506" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F506" t="s" s="12">
+      <c r="F506" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G506" t="s" s="12">
+      <c r="G506" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H506" t="s" s="12">
+      <c r="H506" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I506" t="s" s="12">
+      <c r="I506" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -14840,10 +14858,10 @@
       <c r="I508">
         <f>((C508-C507)^2+(D508- D507)^2)^.5</f>
       </c>
-      <c r="J508" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K508" s="12" t="s">
+      <c r="J508" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K508" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L508" t="n">
@@ -14887,28 +14905,28 @@
       </c>
     </row>
     <row r="510">
-      <c r="A510" t="s" s="12">
+      <c r="A510" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B510" t="s" s="12">
+      <c r="B510" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C510" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D510" t="s" s="12">
+      <c r="C510" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D510" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E510" t="s" s="12">
+      <c r="E510" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F510" t="s" s="12">
+      <c r="F510" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G510" t="s" s="12">
+      <c r="G510" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H510" t="s" s="12">
+      <c r="H510" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -14933,28 +14951,28 @@
       </c>
     </row>
     <row r="512">
-      <c r="B512" t="s" s="12">
+      <c r="B512" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C512" t="s" s="12">
+      <c r="C512" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D512" t="s" s="12">
+      <c r="D512" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E512" t="s" s="12">
+      <c r="E512" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F512" t="s" s="12">
+      <c r="F512" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G512" t="s" s="12">
+      <c r="G512" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H512" t="s" s="12">
+      <c r="H512" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I512" t="s" s="12">
+      <c r="I512" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -15013,10 +15031,10 @@
       <c r="I514">
         <f>((C514-C513)^2+(D514- D513)^2)^.5</f>
       </c>
-      <c r="J514" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K514" s="12" t="s">
+      <c r="J514" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K514" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L514" t="n">
@@ -15060,28 +15078,28 @@
       </c>
     </row>
     <row r="516">
-      <c r="A516" t="s" s="12">
+      <c r="A516" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B516" t="s" s="12">
+      <c r="B516" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C516" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D516" t="s" s="12">
+      <c r="C516" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D516" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E516" t="s" s="12">
+      <c r="E516" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F516" t="s" s="12">
+      <c r="F516" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G516" t="s" s="12">
+      <c r="G516" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H516" t="s" s="12">
+      <c r="H516" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -15106,28 +15124,28 @@
       </c>
     </row>
     <row r="518">
-      <c r="B518" t="s" s="12">
+      <c r="B518" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C518" t="s" s="12">
+      <c r="C518" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D518" t="s" s="12">
+      <c r="D518" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E518" t="s" s="12">
+      <c r="E518" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F518" t="s" s="12">
+      <c r="F518" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G518" t="s" s="12">
+      <c r="G518" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H518" t="s" s="12">
+      <c r="H518" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I518" t="s" s="12">
+      <c r="I518" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -15186,10 +15204,10 @@
       <c r="I520">
         <f>((C520-C519)^2+(D520- D519)^2)^.5</f>
       </c>
-      <c r="J520" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K520" s="12" t="s">
+      <c r="J520" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K520" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L520" t="n">
@@ -15233,28 +15251,28 @@
       </c>
     </row>
     <row r="522">
-      <c r="A522" t="s" s="12">
+      <c r="A522" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B522" t="s" s="12">
+      <c r="B522" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C522" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D522" t="s" s="12">
+      <c r="C522" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D522" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E522" t="s" s="12">
+      <c r="E522" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F522" t="s" s="12">
+      <c r="F522" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G522" t="s" s="12">
+      <c r="G522" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H522" t="s" s="12">
+      <c r="H522" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -15279,28 +15297,28 @@
       </c>
     </row>
     <row r="524">
-      <c r="B524" t="s" s="12">
+      <c r="B524" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C524" t="s" s="12">
+      <c r="C524" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D524" t="s" s="12">
+      <c r="D524" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E524" t="s" s="12">
+      <c r="E524" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F524" t="s" s="12">
+      <c r="F524" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G524" t="s" s="12">
+      <c r="G524" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H524" t="s" s="12">
+      <c r="H524" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I524" t="s" s="12">
+      <c r="I524" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -15359,10 +15377,10 @@
       <c r="I526">
         <f>((C526-C525)^2+(D526- D525)^2)^.5</f>
       </c>
-      <c r="J526" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K526" s="12" t="s">
+      <c r="J526" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K526" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L526" t="n">
